--- a/dataset-gaikindo-jandes23-fix.xlsx
+++ b/dataset-gaikindo-jandes23-fix.xlsx
@@ -13890,20 +13890,35 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -13914,23 +13929,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13938,26 +13941,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14502,7 +14502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M686" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X675" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <selection activeCell="AN701" sqref="AN701"/>
     </sheetView>
   </sheetViews>
@@ -14532,8 +14532,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14573,10 +14573,10 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="27"/>
+      <c r="Q1" s="45"/>
       <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
@@ -14630,13 +14630,13 @@
       <c r="AJ1" s="4"/>
     </row>
     <row r="2" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -14740,9 +14740,9 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
@@ -14844,9 +14844,9 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="5"/>
@@ -14884,9 +14884,9 @@
       <c r="AJ4" s="5"/>
     </row>
     <row r="5" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="10" t="s">
         <v>46</v>
       </c>
@@ -14988,9 +14988,9 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -15094,9 +15094,9 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="10" t="s">
         <v>58</v>
       </c>
@@ -15198,9 +15198,9 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="10" t="s">
         <v>59</v>
       </c>
@@ -15302,9 +15302,9 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -15408,9 +15408,9 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
@@ -15512,9 +15512,9 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
@@ -15616,8 +15616,8 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
@@ -15722,9 +15722,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="28" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="5"/>
@@ -15762,9 +15762,9 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="10" t="s">
         <v>74</v>
       </c>
@@ -15866,9 +15866,9 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="10" t="s">
         <v>77</v>
       </c>
@@ -15970,9 +15970,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -16076,9 +16076,9 @@
       </c>
     </row>
     <row r="17" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="10" t="s">
         <v>86</v>
       </c>
@@ -16180,9 +16180,9 @@
       </c>
     </row>
     <row r="18" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="10" t="s">
         <v>87</v>
       </c>
@@ -16284,11 +16284,11 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="5"/>
@@ -16326,9 +16326,9 @@
       <c r="AJ19" s="5"/>
     </row>
     <row r="20" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="10" t="s">
         <v>90</v>
       </c>
@@ -16430,9 +16430,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="10" t="s">
         <v>93</v>
       </c>
@@ -16534,9 +16534,9 @@
       </c>
     </row>
     <row r="22" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="10" t="s">
         <v>96</v>
       </c>
@@ -16638,9 +16638,9 @@
       </c>
     </row>
     <row r="23" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -16744,9 +16744,9 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="10" t="s">
         <v>100</v>
       </c>
@@ -16848,9 +16848,9 @@
       </c>
     </row>
     <row r="25" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="10" t="s">
         <v>103</v>
       </c>
@@ -16952,9 +16952,9 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="10" t="s">
         <v>105</v>
       </c>
@@ -17056,9 +17056,9 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="10" t="s">
         <v>108</v>
       </c>
@@ -17160,9 +17160,9 @@
       </c>
     </row>
     <row r="28" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="10" t="s">
         <v>110</v>
       </c>
@@ -17264,9 +17264,9 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="10" t="s">
         <v>112</v>
       </c>
@@ -17368,9 +17368,9 @@
       </c>
     </row>
     <row r="30" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="10" t="s">
         <v>114</v>
       </c>
@@ -17472,9 +17472,9 @@
       </c>
     </row>
     <row r="31" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="10" t="s">
         <v>116</v>
       </c>
@@ -17576,9 +17576,9 @@
       </c>
     </row>
     <row r="32" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="10" t="s">
         <v>119</v>
       </c>
@@ -17680,9 +17680,9 @@
       </c>
     </row>
     <row r="33" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="10" t="s">
         <v>121</v>
       </c>
@@ -17784,9 +17784,9 @@
       </c>
     </row>
     <row r="34" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="10" t="s">
         <v>124</v>
       </c>
@@ -17888,9 +17888,9 @@
       </c>
     </row>
     <row r="35" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="10" t="s">
         <v>126</v>
       </c>
@@ -17992,9 +17992,9 @@
       </c>
     </row>
     <row r="36" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="10" t="s">
         <v>127</v>
       </c>
@@ -18096,9 +18096,9 @@
       </c>
     </row>
     <row r="37" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="10" t="s">
         <v>130</v>
       </c>
@@ -18200,9 +18200,9 @@
       </c>
     </row>
     <row r="38" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="10" t="s">
         <v>131</v>
       </c>
@@ -18304,9 +18304,9 @@
       </c>
     </row>
     <row r="39" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="10" t="s">
         <v>132</v>
       </c>
@@ -18408,9 +18408,9 @@
       </c>
     </row>
     <row r="40" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="10" t="s">
         <v>133</v>
       </c>
@@ -18512,9 +18512,9 @@
       </c>
     </row>
     <row r="41" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="10" t="s">
         <v>136</v>
       </c>
@@ -18616,9 +18616,9 @@
       </c>
     </row>
     <row r="42" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="10" t="s">
         <v>139</v>
       </c>
@@ -18720,8 +18720,8 @@
       </c>
     </row>
     <row r="43" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
@@ -18826,9 +18826,9 @@
       </c>
     </row>
     <row r="44" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -18932,9 +18932,9 @@
       </c>
     </row>
     <row r="45" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="33"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="10" t="s">
         <v>148</v>
       </c>
@@ -19036,9 +19036,9 @@
       </c>
     </row>
     <row r="46" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="10" t="s">
         <v>152</v>
       </c>
@@ -19140,9 +19140,9 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="31" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -19246,9 +19246,9 @@
       </c>
     </row>
     <row r="48" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="33"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="10" t="s">
         <v>156</v>
       </c>
@@ -19350,9 +19350,9 @@
       </c>
     </row>
     <row r="49" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="10" t="s">
         <v>159</v>
       </c>
@@ -19454,9 +19454,9 @@
       </c>
     </row>
     <row r="50" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="28" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -19560,9 +19560,9 @@
       </c>
     </row>
     <row r="51" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="10" t="s">
         <v>164</v>
       </c>
@@ -19664,9 +19664,9 @@
       </c>
     </row>
     <row r="52" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="10" t="s">
         <v>167</v>
       </c>
@@ -19768,9 +19768,9 @@
       </c>
     </row>
     <row r="53" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="10" t="s">
         <v>168</v>
       </c>
@@ -19872,9 +19872,9 @@
       </c>
     </row>
     <row r="54" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="10" t="s">
         <v>171</v>
       </c>
@@ -19976,9 +19976,9 @@
       </c>
     </row>
     <row r="55" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="10" t="s">
         <v>174</v>
       </c>
@@ -20080,9 +20080,9 @@
       </c>
     </row>
     <row r="56" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="10" t="s">
         <v>177</v>
       </c>
@@ -20184,9 +20184,9 @@
       </c>
     </row>
     <row r="57" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="10" t="s">
         <v>178</v>
       </c>
@@ -20288,9 +20288,9 @@
       </c>
     </row>
     <row r="58" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="10" t="s">
         <v>180</v>
       </c>
@@ -20392,9 +20392,9 @@
       </c>
     </row>
     <row r="59" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="10" t="s">
         <v>181</v>
       </c>
@@ -20496,9 +20496,9 @@
       </c>
     </row>
     <row r="60" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="10" t="s">
         <v>183</v>
       </c>
@@ -20600,9 +20600,9 @@
       </c>
     </row>
     <row r="61" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="10" t="s">
         <v>184</v>
       </c>
@@ -20704,9 +20704,9 @@
       </c>
     </row>
     <row r="62" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="10" t="s">
         <v>185</v>
       </c>
@@ -20808,9 +20808,9 @@
       </c>
     </row>
     <row r="63" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="31" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="27" t="s">
         <v>186</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -20914,9 +20914,9 @@
       </c>
     </row>
     <row r="64" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="10" t="s">
         <v>190</v>
       </c>
@@ -21018,9 +21018,9 @@
       </c>
     </row>
     <row r="65" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="32"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="10" t="s">
         <v>193</v>
       </c>
@@ -21122,9 +21122,9 @@
       </c>
     </row>
     <row r="66" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="31" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="10" t="s">
@@ -21228,9 +21228,9 @@
       </c>
     </row>
     <row r="67" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="33"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="10" t="s">
         <v>198</v>
       </c>
@@ -21332,9 +21332,9 @@
       </c>
     </row>
     <row r="68" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="33"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="10" t="s">
         <v>200</v>
       </c>
@@ -21436,9 +21436,9 @@
       </c>
     </row>
     <row r="69" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="33"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="10" t="s">
         <v>204</v>
       </c>
@@ -21540,9 +21540,9 @@
       </c>
     </row>
     <row r="70" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="33"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="10" t="s">
         <v>207</v>
       </c>
@@ -21644,9 +21644,9 @@
       </c>
     </row>
     <row r="71" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="33"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="10" t="s">
         <v>209</v>
       </c>
@@ -21748,9 +21748,9 @@
       </c>
     </row>
     <row r="72" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="33"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="10" t="s">
         <v>213</v>
       </c>
@@ -21852,9 +21852,9 @@
       </c>
     </row>
     <row r="73" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="33"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="10" t="s">
         <v>214</v>
       </c>
@@ -21956,9 +21956,9 @@
       </c>
     </row>
     <row r="74" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="32"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="10" t="s">
         <v>215</v>
       </c>
@@ -22060,11 +22060,11 @@
       </c>
     </row>
     <row r="75" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="34" t="s">
+      <c r="A75" s="34"/>
+      <c r="B75" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D75" s="10" t="s">
@@ -22168,9 +22168,9 @@
       </c>
     </row>
     <row r="76" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="32"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="10" t="s">
         <v>220</v>
       </c>
@@ -22272,9 +22272,9 @@
       </c>
     </row>
     <row r="77" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="31" t="s">
+      <c r="A77" s="34"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="10" t="s">
@@ -22378,9 +22378,9 @@
       </c>
     </row>
     <row r="78" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="32"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="29"/>
       <c r="D78" s="10" t="s">
         <v>224</v>
       </c>
@@ -22482,9 +22482,9 @@
       </c>
     </row>
     <row r="79" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="28" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D79" s="10" t="s">
@@ -22588,9 +22588,9 @@
       </c>
     </row>
     <row r="80" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="30"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="10" t="s">
         <v>227</v>
       </c>
@@ -22692,13 +22692,13 @@
       </c>
     </row>
     <row r="81" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D81" s="10" t="s">
@@ -22802,9 +22802,9 @@
       </c>
     </row>
     <row r="82" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A82" s="33"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="33"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="10" t="s">
         <v>233</v>
       </c>
@@ -22906,9 +22906,9 @@
       </c>
     </row>
     <row r="83" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A83" s="33"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="32"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="10" t="s">
         <v>236</v>
       </c>
@@ -23010,9 +23010,9 @@
       </c>
     </row>
     <row r="84" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A84" s="33"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="31" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="27" t="s">
         <v>239</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -23116,9 +23116,9 @@
       </c>
     </row>
     <row r="85" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A85" s="33"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="33"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="10" t="s">
         <v>242</v>
       </c>
@@ -23220,9 +23220,9 @@
       </c>
     </row>
     <row r="86" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A86" s="33"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="33"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="10" t="s">
         <v>243</v>
       </c>
@@ -23324,9 +23324,9 @@
       </c>
     </row>
     <row r="87" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A87" s="33"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="33"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="10" t="s">
         <v>244</v>
       </c>
@@ -23428,9 +23428,9 @@
       </c>
     </row>
     <row r="88" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A88" s="33"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="32"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="10" t="s">
         <v>245</v>
       </c>
@@ -23532,9 +23532,9 @@
       </c>
     </row>
     <row r="89" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A89" s="33"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="31" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="10" t="s">
@@ -23638,9 +23638,9 @@
       </c>
     </row>
     <row r="90" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A90" s="33"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="33"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="10" t="s">
         <v>250</v>
       </c>
@@ -23742,9 +23742,9 @@
       </c>
     </row>
     <row r="91" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A91" s="33"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="33"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="10" t="s">
         <v>251</v>
       </c>
@@ -23846,9 +23846,9 @@
       </c>
     </row>
     <row r="92" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A92" s="33"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="33"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="10" t="s">
         <v>252</v>
       </c>
@@ -23950,9 +23950,9 @@
       </c>
     </row>
     <row r="93" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A93" s="33"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="33"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="10" t="s">
         <v>253</v>
       </c>
@@ -24054,9 +24054,9 @@
       </c>
     </row>
     <row r="94" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A94" s="33"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="33"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="10" t="s">
         <v>256</v>
       </c>
@@ -24158,9 +24158,9 @@
       </c>
     </row>
     <row r="95" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A95" s="33"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="33"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="10" t="s">
         <v>257</v>
       </c>
@@ -24262,9 +24262,9 @@
       </c>
     </row>
     <row r="96" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A96" s="33"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="33"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="10" t="s">
         <v>258</v>
       </c>
@@ -24366,9 +24366,9 @@
       </c>
     </row>
     <row r="97" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A97" s="33"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="33"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="10" t="s">
         <v>262</v>
       </c>
@@ -24470,9 +24470,9 @@
       </c>
     </row>
     <row r="98" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A98" s="33"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="33"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="10" t="s">
         <v>263</v>
       </c>
@@ -24574,9 +24574,9 @@
       </c>
     </row>
     <row r="99" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A99" s="33"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="33"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="10" t="s">
         <v>266</v>
       </c>
@@ -24678,9 +24678,9 @@
       </c>
     </row>
     <row r="100" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A100" s="33"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="33"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="10" t="s">
         <v>267</v>
       </c>
@@ -24782,9 +24782,9 @@
       </c>
     </row>
     <row r="101" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A101" s="33"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="33"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="10" t="s">
         <v>268</v>
       </c>
@@ -24886,9 +24886,9 @@
       </c>
     </row>
     <row r="102" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A102" s="33"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="33"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="10" t="s">
         <v>269</v>
       </c>
@@ -24990,9 +24990,9 @@
       </c>
     </row>
     <row r="103" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A103" s="33"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="33"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="10" t="s">
         <v>272</v>
       </c>
@@ -25094,9 +25094,9 @@
       </c>
     </row>
     <row r="104" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A104" s="33"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="33"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="10" t="s">
         <v>273</v>
       </c>
@@ -25198,9 +25198,9 @@
       </c>
     </row>
     <row r="105" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A105" s="33"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="33"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="10" t="s">
         <v>274</v>
       </c>
@@ -25302,9 +25302,9 @@
       </c>
     </row>
     <row r="106" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A106" s="33"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="33"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="10" t="s">
         <v>277</v>
       </c>
@@ -25406,9 +25406,9 @@
       </c>
     </row>
     <row r="107" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A107" s="33"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="33"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="10" t="s">
         <v>277</v>
       </c>
@@ -25510,9 +25510,9 @@
       </c>
     </row>
     <row r="108" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A108" s="33"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="33"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="10" t="s">
         <v>279</v>
       </c>
@@ -25614,9 +25614,9 @@
       </c>
     </row>
     <row r="109" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A109" s="33"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="33"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="10" t="s">
         <v>280</v>
       </c>
@@ -25718,9 +25718,9 @@
       </c>
     </row>
     <row r="110" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A110" s="33"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="33"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="10" t="s">
         <v>281</v>
       </c>
@@ -25822,9 +25822,9 @@
       </c>
     </row>
     <row r="111" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A111" s="33"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="33"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="10" t="s">
         <v>282</v>
       </c>
@@ -25926,9 +25926,9 @@
       </c>
     </row>
     <row r="112" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A112" s="33"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="33"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="10" t="s">
         <v>283</v>
       </c>
@@ -26030,9 +26030,9 @@
       </c>
     </row>
     <row r="113" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A113" s="33"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="33"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="10" t="s">
         <v>284</v>
       </c>
@@ -26134,9 +26134,9 @@
       </c>
     </row>
     <row r="114" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A114" s="33"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="33"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="28"/>
       <c r="D114" s="10" t="s">
         <v>285</v>
       </c>
@@ -26238,9 +26238,9 @@
       </c>
     </row>
     <row r="115" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A115" s="33"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="33"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="10" t="s">
         <v>288</v>
       </c>
@@ -26342,9 +26342,9 @@
       </c>
     </row>
     <row r="116" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A116" s="33"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="33"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="10" t="s">
         <v>289</v>
       </c>
@@ -26446,9 +26446,9 @@
       </c>
     </row>
     <row r="117" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A117" s="33"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="33"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="28"/>
       <c r="D117" s="10" t="s">
         <v>290</v>
       </c>
@@ -26550,9 +26550,9 @@
       </c>
     </row>
     <row r="118" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A118" s="33"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="33"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="28"/>
       <c r="D118" s="10" t="s">
         <v>292</v>
       </c>
@@ -26654,9 +26654,9 @@
       </c>
     </row>
     <row r="119" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A119" s="33"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="32"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="29"/>
       <c r="D119" s="10" t="s">
         <v>293</v>
       </c>
@@ -26758,9 +26758,9 @@
       </c>
     </row>
     <row r="120" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A120" s="33"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="31" t="s">
+      <c r="A120" s="28"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="27" t="s">
         <v>294</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -26864,9 +26864,9 @@
       </c>
     </row>
     <row r="121" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A121" s="33"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="33"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="28"/>
       <c r="D121" s="10" t="s">
         <v>298</v>
       </c>
@@ -26968,9 +26968,9 @@
       </c>
     </row>
     <row r="122" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A122" s="33"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="33"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="28"/>
       <c r="D122" s="10" t="s">
         <v>299</v>
       </c>
@@ -27072,9 +27072,9 @@
       </c>
     </row>
     <row r="123" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A123" s="33"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="33"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="28"/>
       <c r="D123" s="10" t="s">
         <v>302</v>
       </c>
@@ -27176,9 +27176,9 @@
       </c>
     </row>
     <row r="124" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A124" s="33"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="33"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="28"/>
       <c r="D124" s="10" t="s">
         <v>303</v>
       </c>
@@ -27280,9 +27280,9 @@
       </c>
     </row>
     <row r="125" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A125" s="33"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="33"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="28"/>
       <c r="D125" s="10" t="s">
         <v>304</v>
       </c>
@@ -27384,9 +27384,9 @@
       </c>
     </row>
     <row r="126" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A126" s="33"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="33"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="28"/>
       <c r="D126" s="10" t="s">
         <v>306</v>
       </c>
@@ -27488,9 +27488,9 @@
       </c>
     </row>
     <row r="127" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A127" s="33"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="33"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="28"/>
       <c r="D127" s="10" t="s">
         <v>309</v>
       </c>
@@ -27592,9 +27592,9 @@
       </c>
     </row>
     <row r="128" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A128" s="33"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="32"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="29"/>
       <c r="D128" s="10" t="s">
         <v>311</v>
       </c>
@@ -27696,8 +27696,8 @@
       </c>
     </row>
     <row r="129" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A129" s="33"/>
-      <c r="B129" s="29"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="34"/>
       <c r="C129" s="2" t="s">
         <v>312</v>
       </c>
@@ -27802,9 +27802,9 @@
       </c>
     </row>
     <row r="130" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A130" s="33"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="31" t="s">
+      <c r="A130" s="28"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D130" s="10" t="s">
@@ -27908,9 +27908,9 @@
       </c>
     </row>
     <row r="131" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A131" s="33"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="33"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="28"/>
       <c r="D131" s="10" t="s">
         <v>314</v>
       </c>
@@ -28012,9 +28012,9 @@
       </c>
     </row>
     <row r="132" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A132" s="33"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="33"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="10" t="s">
         <v>316</v>
       </c>
@@ -28116,9 +28116,9 @@
       </c>
     </row>
     <row r="133" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A133" s="33"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="33"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="28"/>
       <c r="D133" s="10" t="s">
         <v>319</v>
       </c>
@@ -28220,9 +28220,9 @@
       </c>
     </row>
     <row r="134" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A134" s="33"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="33"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="28"/>
       <c r="D134" s="10" t="s">
         <v>321</v>
       </c>
@@ -28324,9 +28324,9 @@
       </c>
     </row>
     <row r="135" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A135" s="33"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="33"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="10" t="s">
         <v>321</v>
       </c>
@@ -28428,9 +28428,9 @@
       </c>
     </row>
     <row r="136" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A136" s="33"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="33"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="10" t="s">
         <v>322</v>
       </c>
@@ -28532,9 +28532,9 @@
       </c>
     </row>
     <row r="137" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A137" s="33"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="33"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="28"/>
       <c r="D137" s="10" t="s">
         <v>323</v>
       </c>
@@ -28636,9 +28636,9 @@
       </c>
     </row>
     <row r="138" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A138" s="33"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="33"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="28"/>
       <c r="D138" s="10" t="s">
         <v>324</v>
       </c>
@@ -28740,9 +28740,9 @@
       </c>
     </row>
     <row r="139" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A139" s="33"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="33"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="28"/>
       <c r="D139" s="10" t="s">
         <v>325</v>
       </c>
@@ -28844,9 +28844,9 @@
       </c>
     </row>
     <row r="140" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A140" s="33"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="33"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="10" t="s">
         <v>326</v>
       </c>
@@ -28948,9 +28948,9 @@
       </c>
     </row>
     <row r="141" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A141" s="33"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="33"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="28"/>
       <c r="D141" s="10" t="s">
         <v>327</v>
       </c>
@@ -29052,9 +29052,9 @@
       </c>
     </row>
     <row r="142" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A142" s="33"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="33"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="28"/>
       <c r="D142" s="10" t="s">
         <v>329</v>
       </c>
@@ -29156,9 +29156,9 @@
       </c>
     </row>
     <row r="143" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A143" s="33"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="33"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="28"/>
       <c r="D143" s="10" t="s">
         <v>330</v>
       </c>
@@ -29260,9 +29260,9 @@
       </c>
     </row>
     <row r="144" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A144" s="33"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="33"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="28"/>
       <c r="D144" s="10" t="s">
         <v>332</v>
       </c>
@@ -29364,9 +29364,9 @@
       </c>
     </row>
     <row r="145" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A145" s="33"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="33"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="28"/>
       <c r="D145" s="10" t="s">
         <v>333</v>
       </c>
@@ -29468,9 +29468,9 @@
       </c>
     </row>
     <row r="146" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A146" s="33"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="33"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="28"/>
       <c r="D146" s="10" t="s">
         <v>334</v>
       </c>
@@ -29572,9 +29572,9 @@
       </c>
     </row>
     <row r="147" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A147" s="33"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="33"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="28"/>
       <c r="D147" s="10" t="s">
         <v>334</v>
       </c>
@@ -29676,9 +29676,9 @@
       </c>
     </row>
     <row r="148" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A148" s="33"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="33"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="28"/>
       <c r="D148" s="10" t="s">
         <v>337</v>
       </c>
@@ -29780,9 +29780,9 @@
       </c>
     </row>
     <row r="149" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A149" s="33"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="33"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="28"/>
       <c r="D149" s="10" t="s">
         <v>339</v>
       </c>
@@ -29884,9 +29884,9 @@
       </c>
     </row>
     <row r="150" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A150" s="33"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="33"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="28"/>
       <c r="D150" s="10" t="s">
         <v>340</v>
       </c>
@@ -29988,9 +29988,9 @@
       </c>
     </row>
     <row r="151" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A151" s="33"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="33"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="28"/>
       <c r="D151" s="10" t="s">
         <v>340</v>
       </c>
@@ -30092,9 +30092,9 @@
       </c>
     </row>
     <row r="152" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A152" s="33"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="33"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="28"/>
       <c r="D152" s="10" t="s">
         <v>341</v>
       </c>
@@ -30196,9 +30196,9 @@
       </c>
     </row>
     <row r="153" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A153" s="33"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="33"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="28"/>
       <c r="D153" s="10" t="s">
         <v>342</v>
       </c>
@@ -30300,9 +30300,9 @@
       </c>
     </row>
     <row r="154" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A154" s="33"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="33"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="28"/>
       <c r="D154" s="10" t="s">
         <v>343</v>
       </c>
@@ -30404,9 +30404,9 @@
       </c>
     </row>
     <row r="155" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A155" s="33"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="33"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="28"/>
       <c r="D155" s="10" t="s">
         <v>341</v>
       </c>
@@ -30508,9 +30508,9 @@
       </c>
     </row>
     <row r="156" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A156" s="33"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="32"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="29"/>
       <c r="D156" s="10" t="s">
         <v>344</v>
       </c>
@@ -30612,8 +30612,8 @@
       </c>
     </row>
     <row r="157" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A157" s="33"/>
-      <c r="B157" s="29"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="34"/>
       <c r="C157" s="2" t="s">
         <v>345</v>
       </c>
@@ -30718,9 +30718,9 @@
       </c>
     </row>
     <row r="158" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A158" s="33"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="28" t="s">
+      <c r="A158" s="28"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="33" t="s">
         <v>348</v>
       </c>
       <c r="D158" s="5"/>
@@ -30758,9 +30758,9 @@
       <c r="AJ158" s="5"/>
     </row>
     <row r="159" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A159" s="33"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
       <c r="D159" s="10" t="s">
         <v>349</v>
       </c>
@@ -30862,9 +30862,9 @@
       </c>
     </row>
     <row r="160" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A160" s="33"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
       <c r="D160" s="10" t="s">
         <v>351</v>
       </c>
@@ -30966,9 +30966,9 @@
       </c>
     </row>
     <row r="161" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A161" s="33"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
       <c r="D161" s="10" t="s">
         <v>352</v>
       </c>
@@ -31070,9 +31070,9 @@
       </c>
     </row>
     <row r="162" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A162" s="33"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
       <c r="D162" s="10" t="s">
         <v>353</v>
       </c>
@@ -31174,9 +31174,9 @@
       </c>
     </row>
     <row r="163" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A163" s="33"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
       <c r="D163" s="10" t="s">
         <v>354</v>
       </c>
@@ -31278,9 +31278,9 @@
       </c>
     </row>
     <row r="164" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A164" s="33"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
       <c r="D164" s="10" t="s">
         <v>357</v>
       </c>
@@ -31382,9 +31382,9 @@
       </c>
     </row>
     <row r="165" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A165" s="33"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
       <c r="D165" s="10" t="s">
         <v>358</v>
       </c>
@@ -31486,9 +31486,9 @@
       </c>
     </row>
     <row r="166" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A166" s="33"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
       <c r="D166" s="10" t="s">
         <v>360</v>
       </c>
@@ -31590,9 +31590,9 @@
       </c>
     </row>
     <row r="167" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A167" s="33"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="34"/>
       <c r="D167" s="10" t="s">
         <v>361</v>
       </c>
@@ -31694,9 +31694,9 @@
       </c>
     </row>
     <row r="168" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A168" s="33"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
       <c r="D168" s="10" t="s">
         <v>362</v>
       </c>
@@ -31798,9 +31798,9 @@
       </c>
     </row>
     <row r="169" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A169" s="33"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
       <c r="D169" s="10" t="s">
         <v>363</v>
       </c>
@@ -31902,9 +31902,9 @@
       </c>
     </row>
     <row r="170" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A170" s="33"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
       <c r="D170" s="10" t="s">
         <v>364</v>
       </c>
@@ -32006,9 +32006,9 @@
       </c>
     </row>
     <row r="171" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A171" s="33"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
       <c r="D171" s="10" t="s">
         <v>365</v>
       </c>
@@ -32110,9 +32110,9 @@
       </c>
     </row>
     <row r="172" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A172" s="33"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="34"/>
       <c r="D172" s="10" t="s">
         <v>366</v>
       </c>
@@ -32214,9 +32214,9 @@
       </c>
     </row>
     <row r="173" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A173" s="33"/>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
       <c r="D173" s="10" t="s">
         <v>367</v>
       </c>
@@ -32318,9 +32318,9 @@
       </c>
     </row>
     <row r="174" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A174" s="33"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="34"/>
+      <c r="C174" s="34"/>
       <c r="D174" s="10" t="s">
         <v>368</v>
       </c>
@@ -32422,9 +32422,9 @@
       </c>
     </row>
     <row r="175" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A175" s="33"/>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
+      <c r="A175" s="28"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
       <c r="D175" s="10" t="s">
         <v>369</v>
       </c>
@@ -32526,9 +32526,9 @@
       </c>
     </row>
     <row r="176" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A176" s="33"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
+      <c r="A176" s="28"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="34"/>
       <c r="D176" s="10" t="s">
         <v>370</v>
       </c>
@@ -32630,9 +32630,9 @@
       </c>
     </row>
     <row r="177" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A177" s="33"/>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
+      <c r="A177" s="28"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="34"/>
       <c r="D177" s="10" t="s">
         <v>371</v>
       </c>
@@ -32734,9 +32734,9 @@
       </c>
     </row>
     <row r="178" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A178" s="33"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
       <c r="D178" s="10" t="s">
         <v>372</v>
       </c>
@@ -32838,9 +32838,9 @@
       </c>
     </row>
     <row r="179" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A179" s="33"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
       <c r="D179" s="10" t="s">
         <v>373</v>
       </c>
@@ -32942,9 +32942,9 @@
       </c>
     </row>
     <row r="180" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A180" s="33"/>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="34"/>
       <c r="D180" s="10" t="s">
         <v>374</v>
       </c>
@@ -33046,9 +33046,9 @@
       </c>
     </row>
     <row r="181" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A181" s="33"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
       <c r="D181" s="10" t="s">
         <v>375</v>
       </c>
@@ -33150,9 +33150,9 @@
       </c>
     </row>
     <row r="182" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A182" s="33"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
       <c r="D182" s="10" t="s">
         <v>376</v>
       </c>
@@ -33254,9 +33254,9 @@
       </c>
     </row>
     <row r="183" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A183" s="33"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="34"/>
       <c r="D183" s="10" t="s">
         <v>377</v>
       </c>
@@ -33358,9 +33358,9 @@
       </c>
     </row>
     <row r="184" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A184" s="33"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="30"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="35"/>
       <c r="D184" s="10" t="s">
         <v>378</v>
       </c>
@@ -33462,9 +33462,9 @@
       </c>
     </row>
     <row r="185" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A185" s="33"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="31" t="s">
+      <c r="A185" s="28"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="27" t="s">
         <v>379</v>
       </c>
       <c r="D185" s="10" t="s">
@@ -33568,9 +33568,9 @@
       </c>
     </row>
     <row r="186" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A186" s="33"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="33"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="28"/>
       <c r="D186" s="10" t="s">
         <v>384</v>
       </c>
@@ -33672,9 +33672,9 @@
       </c>
     </row>
     <row r="187" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A187" s="33"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="33"/>
+      <c r="A187" s="28"/>
+      <c r="B187" s="34"/>
+      <c r="C187" s="28"/>
       <c r="D187" s="10" t="s">
         <v>385</v>
       </c>
@@ -33776,9 +33776,9 @@
       </c>
     </row>
     <row r="188" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A188" s="33"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="33"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="28"/>
       <c r="D188" s="10" t="s">
         <v>386</v>
       </c>
@@ -33880,9 +33880,9 @@
       </c>
     </row>
     <row r="189" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A189" s="33"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="32"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="34"/>
+      <c r="C189" s="29"/>
       <c r="D189" s="10" t="s">
         <v>386</v>
       </c>
@@ -33984,8 +33984,8 @@
       </c>
     </row>
     <row r="190" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A190" s="33"/>
-      <c r="B190" s="29"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="34"/>
       <c r="C190" s="2" t="s">
         <v>69</v>
       </c>
@@ -34090,9 +34090,9 @@
       </c>
     </row>
     <row r="191" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A191" s="33"/>
-      <c r="B191" s="29"/>
-      <c r="C191" s="28" t="s">
+      <c r="A191" s="28"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="33" t="s">
         <v>73</v>
       </c>
       <c r="D191" s="5"/>
@@ -34130,9 +34130,9 @@
       <c r="AJ191" s="5"/>
     </row>
     <row r="192" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A192" s="33"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
+      <c r="A192" s="28"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
       <c r="D192" s="10" t="s">
         <v>394</v>
       </c>
@@ -34234,9 +34234,9 @@
       </c>
     </row>
     <row r="193" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A193" s="33"/>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
+      <c r="A193" s="28"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
       <c r="D193" s="10" t="s">
         <v>396</v>
       </c>
@@ -34338,9 +34338,9 @@
       </c>
     </row>
     <row r="194" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A194" s="33"/>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="34"/>
       <c r="D194" s="10" t="s">
         <v>399</v>
       </c>
@@ -34442,9 +34442,9 @@
       </c>
     </row>
     <row r="195" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A195" s="33"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
+      <c r="A195" s="28"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="34"/>
       <c r="D195" s="10" t="s">
         <v>401</v>
       </c>
@@ -34546,9 +34546,9 @@
       </c>
     </row>
     <row r="196" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A196" s="33"/>
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="34"/>
       <c r="D196" s="10" t="s">
         <v>403</v>
       </c>
@@ -34650,9 +34650,9 @@
       </c>
     </row>
     <row r="197" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A197" s="33"/>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
       <c r="D197" s="10" t="s">
         <v>405</v>
       </c>
@@ -34754,9 +34754,9 @@
       </c>
     </row>
     <row r="198" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A198" s="33"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
+      <c r="A198" s="28"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
       <c r="D198" s="10" t="s">
         <v>407</v>
       </c>
@@ -34858,9 +34858,9 @@
       </c>
     </row>
     <row r="199" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A199" s="33"/>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
+      <c r="A199" s="28"/>
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
       <c r="D199" s="10" t="s">
         <v>408</v>
       </c>
@@ -34962,9 +34962,9 @@
       </c>
     </row>
     <row r="200" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A200" s="33"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="34"/>
       <c r="D200" s="10" t="s">
         <v>409</v>
       </c>
@@ -35066,9 +35066,9 @@
       </c>
     </row>
     <row r="201" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A201" s="33"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
       <c r="D201" s="10" t="s">
         <v>410</v>
       </c>
@@ -35170,9 +35170,9 @@
       </c>
     </row>
     <row r="202" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A202" s="33"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="30"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="35"/>
       <c r="D202" s="10" t="s">
         <v>410</v>
       </c>
@@ -35274,9 +35274,9 @@
       </c>
     </row>
     <row r="203" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A203" s="33"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="31" t="s">
+      <c r="A203" s="28"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="27" t="s">
         <v>412</v>
       </c>
       <c r="D203" s="10" t="s">
@@ -35380,9 +35380,9 @@
       </c>
     </row>
     <row r="204" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A204" s="33"/>
-      <c r="B204" s="29"/>
-      <c r="C204" s="33"/>
+      <c r="A204" s="28"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="28"/>
       <c r="D204" s="10" t="s">
         <v>417</v>
       </c>
@@ -35484,9 +35484,9 @@
       </c>
     </row>
     <row r="205" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A205" s="33"/>
-      <c r="B205" s="29"/>
-      <c r="C205" s="33"/>
+      <c r="A205" s="28"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="28"/>
       <c r="D205" s="10" t="s">
         <v>417</v>
       </c>
@@ -35588,9 +35588,9 @@
       </c>
     </row>
     <row r="206" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A206" s="33"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="32"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="29"/>
       <c r="D206" s="10" t="s">
         <v>419</v>
       </c>
@@ -35692,9 +35692,9 @@
       </c>
     </row>
     <row r="207" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A207" s="33"/>
-      <c r="B207" s="29"/>
-      <c r="C207" s="28" t="s">
+      <c r="A207" s="28"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="33" t="s">
         <v>421</v>
       </c>
       <c r="D207" s="10" t="s">
@@ -35798,9 +35798,9 @@
       </c>
     </row>
     <row r="208" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A208" s="33"/>
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
+      <c r="A208" s="28"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
       <c r="D208" s="10" t="s">
         <v>425</v>
       </c>
@@ -35902,9 +35902,9 @@
       </c>
     </row>
     <row r="209" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A209" s="33"/>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
+      <c r="A209" s="28"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
       <c r="D209" s="10" t="s">
         <v>428</v>
       </c>
@@ -36006,9 +36006,9 @@
       </c>
     </row>
     <row r="210" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A210" s="33"/>
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
+      <c r="A210" s="28"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="34"/>
       <c r="D210" s="10" t="s">
         <v>429</v>
       </c>
@@ -36110,9 +36110,9 @@
       </c>
     </row>
     <row r="211" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A211" s="33"/>
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
+      <c r="A211" s="28"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="34"/>
       <c r="D211" s="10" t="s">
         <v>430</v>
       </c>
@@ -36214,9 +36214,9 @@
       </c>
     </row>
     <row r="212" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A212" s="33"/>
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
+      <c r="A212" s="28"/>
+      <c r="B212" s="34"/>
+      <c r="C212" s="34"/>
       <c r="D212" s="10" t="s">
         <v>431</v>
       </c>
@@ -36318,9 +36318,9 @@
       </c>
     </row>
     <row r="213" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A213" s="33"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
+      <c r="A213" s="28"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
       <c r="D213" s="10" t="s">
         <v>433</v>
       </c>
@@ -36422,9 +36422,9 @@
       </c>
     </row>
     <row r="214" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A214" s="33"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="34"/>
       <c r="D214" s="10" t="s">
         <v>436</v>
       </c>
@@ -36526,9 +36526,9 @@
       </c>
     </row>
     <row r="215" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A215" s="33"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
       <c r="D215" s="10" t="s">
         <v>437</v>
       </c>
@@ -36630,9 +36630,9 @@
       </c>
     </row>
     <row r="216" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A216" s="33"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="30"/>
+      <c r="A216" s="28"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="35"/>
       <c r="D216" s="10" t="s">
         <v>438</v>
       </c>
@@ -36734,9 +36734,9 @@
       </c>
     </row>
     <row r="217" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A217" s="33"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="28" t="s">
+      <c r="A217" s="28"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D217" s="10" t="s">
@@ -36840,9 +36840,9 @@
       </c>
     </row>
     <row r="218" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A218" s="33"/>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
+      <c r="A218" s="28"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="34"/>
       <c r="D218" s="10" t="s">
         <v>442</v>
       </c>
@@ -36944,9 +36944,9 @@
       </c>
     </row>
     <row r="219" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A219" s="33"/>
-      <c r="B219" s="29"/>
-      <c r="C219" s="30"/>
+      <c r="A219" s="28"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="35"/>
       <c r="D219" s="10" t="s">
         <v>443</v>
       </c>
@@ -37048,9 +37048,9 @@
       </c>
     </row>
     <row r="220" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A220" s="33"/>
-      <c r="B220" s="29"/>
-      <c r="C220" s="31" t="s">
+      <c r="A220" s="28"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="27" t="s">
         <v>445</v>
       </c>
       <c r="D220" s="10" t="s">
@@ -37154,9 +37154,9 @@
       </c>
     </row>
     <row r="221" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A221" s="33"/>
-      <c r="B221" s="29"/>
-      <c r="C221" s="33"/>
+      <c r="A221" s="28"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="28"/>
       <c r="D221" s="10" t="s">
         <v>447</v>
       </c>
@@ -37258,9 +37258,9 @@
       </c>
     </row>
     <row r="222" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A222" s="33"/>
-      <c r="B222" s="29"/>
-      <c r="C222" s="33"/>
+      <c r="A222" s="28"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="28"/>
       <c r="D222" s="10" t="s">
         <v>448</v>
       </c>
@@ -37362,9 +37362,9 @@
       </c>
     </row>
     <row r="223" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A223" s="33"/>
-      <c r="B223" s="29"/>
-      <c r="C223" s="33"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="28"/>
       <c r="D223" s="10" t="s">
         <v>449</v>
       </c>
@@ -37466,9 +37466,9 @@
       </c>
     </row>
     <row r="224" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A224" s="33"/>
-      <c r="B224" s="29"/>
-      <c r="C224" s="33"/>
+      <c r="A224" s="28"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="28"/>
       <c r="D224" s="10" t="s">
         <v>450</v>
       </c>
@@ -37570,9 +37570,9 @@
       </c>
     </row>
     <row r="225" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A225" s="33"/>
-      <c r="B225" s="29"/>
-      <c r="C225" s="33"/>
+      <c r="A225" s="28"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="28"/>
       <c r="D225" s="10" t="s">
         <v>452</v>
       </c>
@@ -37674,9 +37674,9 @@
       </c>
     </row>
     <row r="226" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A226" s="33"/>
-      <c r="B226" s="29"/>
-      <c r="C226" s="33"/>
+      <c r="A226" s="28"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="28"/>
       <c r="D226" s="10" t="s">
         <v>453</v>
       </c>
@@ -37778,9 +37778,9 @@
       </c>
     </row>
     <row r="227" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A227" s="33"/>
-      <c r="B227" s="29"/>
-      <c r="C227" s="32"/>
+      <c r="A227" s="28"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="29"/>
       <c r="D227" s="10" t="s">
         <v>454</v>
       </c>
@@ -37882,8 +37882,8 @@
       </c>
     </row>
     <row r="228" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A228" s="33"/>
-      <c r="B228" s="29"/>
+      <c r="A228" s="28"/>
+      <c r="B228" s="34"/>
       <c r="C228" s="2" t="s">
         <v>455</v>
       </c>
@@ -37988,8 +37988,8 @@
       </c>
     </row>
     <row r="229" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A229" s="33"/>
-      <c r="B229" s="29"/>
+      <c r="A229" s="28"/>
+      <c r="B229" s="34"/>
       <c r="C229" s="2" t="s">
         <v>459</v>
       </c>
@@ -38094,9 +38094,9 @@
       </c>
     </row>
     <row r="230" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A230" s="33"/>
-      <c r="B230" s="29"/>
-      <c r="C230" s="31" t="s">
+      <c r="A230" s="28"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="27" t="s">
         <v>463</v>
       </c>
       <c r="D230" s="10" t="s">
@@ -38200,9 +38200,9 @@
       </c>
     </row>
     <row r="231" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A231" s="33"/>
-      <c r="B231" s="29"/>
-      <c r="C231" s="33"/>
+      <c r="A231" s="28"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="28"/>
       <c r="D231" s="10" t="s">
         <v>467</v>
       </c>
@@ -38304,9 +38304,9 @@
       </c>
     </row>
     <row r="232" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A232" s="33"/>
-      <c r="B232" s="29"/>
-      <c r="C232" s="33"/>
+      <c r="A232" s="28"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="28"/>
       <c r="D232" s="10" t="s">
         <v>468</v>
       </c>
@@ -38408,9 +38408,9 @@
       </c>
     </row>
     <row r="233" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A233" s="33"/>
-      <c r="B233" s="29"/>
-      <c r="C233" s="33"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="28"/>
       <c r="D233" s="10" t="s">
         <v>469</v>
       </c>
@@ -38512,9 +38512,9 @@
       </c>
     </row>
     <row r="234" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A234" s="33"/>
-      <c r="B234" s="29"/>
-      <c r="C234" s="33"/>
+      <c r="A234" s="28"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="28"/>
       <c r="D234" s="10" t="s">
         <v>472</v>
       </c>
@@ -38616,9 +38616,9 @@
       </c>
     </row>
     <row r="235" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A235" s="33"/>
-      <c r="B235" s="29"/>
-      <c r="C235" s="33"/>
+      <c r="A235" s="28"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="28"/>
       <c r="D235" s="10" t="s">
         <v>473</v>
       </c>
@@ -38720,9 +38720,9 @@
       </c>
     </row>
     <row r="236" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A236" s="33"/>
-      <c r="B236" s="29"/>
-      <c r="C236" s="33"/>
+      <c r="A236" s="28"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="28"/>
       <c r="D236" s="10" t="s">
         <v>474</v>
       </c>
@@ -38824,9 +38824,9 @@
       </c>
     </row>
     <row r="237" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A237" s="33"/>
-      <c r="B237" s="29"/>
-      <c r="C237" s="33"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="28"/>
       <c r="D237" s="10" t="s">
         <v>474</v>
       </c>
@@ -38928,9 +38928,9 @@
       </c>
     </row>
     <row r="238" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A238" s="33"/>
-      <c r="B238" s="29"/>
-      <c r="C238" s="33"/>
+      <c r="A238" s="28"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="28"/>
       <c r="D238" s="10" t="s">
         <v>476</v>
       </c>
@@ -39032,9 +39032,9 @@
       </c>
     </row>
     <row r="239" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A239" s="33"/>
-      <c r="B239" s="29"/>
-      <c r="C239" s="33"/>
+      <c r="A239" s="28"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="28"/>
       <c r="D239" s="10" t="s">
         <v>477</v>
       </c>
@@ -39136,9 +39136,9 @@
       </c>
     </row>
     <row r="240" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A240" s="33"/>
-      <c r="B240" s="29"/>
-      <c r="C240" s="33"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="28"/>
       <c r="D240" s="10" t="s">
         <v>478</v>
       </c>
@@ -39240,9 +39240,9 @@
       </c>
     </row>
     <row r="241" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A241" s="33"/>
-      <c r="B241" s="29"/>
-      <c r="C241" s="33"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="28"/>
       <c r="D241" s="10" t="s">
         <v>480</v>
       </c>
@@ -39344,9 +39344,9 @@
       </c>
     </row>
     <row r="242" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A242" s="33"/>
-      <c r="B242" s="29"/>
-      <c r="C242" s="33"/>
+      <c r="A242" s="28"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="28"/>
       <c r="D242" s="10" t="s">
         <v>481</v>
       </c>
@@ -39448,9 +39448,9 @@
       </c>
     </row>
     <row r="243" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A243" s="33"/>
-      <c r="B243" s="29"/>
-      <c r="C243" s="33"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="28"/>
       <c r="D243" s="10" t="s">
         <v>482</v>
       </c>
@@ -39552,9 +39552,9 @@
       </c>
     </row>
     <row r="244" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A244" s="33"/>
-      <c r="B244" s="29"/>
-      <c r="C244" s="33"/>
+      <c r="A244" s="28"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="28"/>
       <c r="D244" s="10" t="s">
         <v>483</v>
       </c>
@@ -39656,9 +39656,9 @@
       </c>
     </row>
     <row r="245" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A245" s="33"/>
-      <c r="B245" s="29"/>
-      <c r="C245" s="33"/>
+      <c r="A245" s="28"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="28"/>
       <c r="D245" s="10" t="s">
         <v>484</v>
       </c>
@@ -39760,9 +39760,9 @@
       </c>
     </row>
     <row r="246" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A246" s="33"/>
-      <c r="B246" s="29"/>
-      <c r="C246" s="33"/>
+      <c r="A246" s="28"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="28"/>
       <c r="D246" s="10" t="s">
         <v>485</v>
       </c>
@@ -39864,9 +39864,9 @@
       </c>
     </row>
     <row r="247" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A247" s="33"/>
-      <c r="B247" s="29"/>
-      <c r="C247" s="33"/>
+      <c r="A247" s="28"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="28"/>
       <c r="D247" s="10" t="s">
         <v>486</v>
       </c>
@@ -39968,9 +39968,9 @@
       </c>
     </row>
     <row r="248" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A248" s="33"/>
-      <c r="B248" s="29"/>
-      <c r="C248" s="33"/>
+      <c r="A248" s="28"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="28"/>
       <c r="D248" s="10" t="s">
         <v>487</v>
       </c>
@@ -40072,9 +40072,9 @@
       </c>
     </row>
     <row r="249" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A249" s="33"/>
-      <c r="B249" s="29"/>
-      <c r="C249" s="33"/>
+      <c r="A249" s="28"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="28"/>
       <c r="D249" s="10" t="s">
         <v>490</v>
       </c>
@@ -40176,9 +40176,9 @@
       </c>
     </row>
     <row r="250" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A250" s="33"/>
-      <c r="B250" s="29"/>
-      <c r="C250" s="33"/>
+      <c r="A250" s="28"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="28"/>
       <c r="D250" s="10" t="s">
         <v>493</v>
       </c>
@@ -40280,9 +40280,9 @@
       </c>
     </row>
     <row r="251" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A251" s="33"/>
-      <c r="B251" s="29"/>
-      <c r="C251" s="33"/>
+      <c r="A251" s="28"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="28"/>
       <c r="D251" s="10" t="s">
         <v>494</v>
       </c>
@@ -40384,9 +40384,9 @@
       </c>
     </row>
     <row r="252" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A252" s="33"/>
-      <c r="B252" s="29"/>
-      <c r="C252" s="33"/>
+      <c r="A252" s="28"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="28"/>
       <c r="D252" s="10" t="s">
         <v>496</v>
       </c>
@@ -40488,9 +40488,9 @@
       </c>
     </row>
     <row r="253" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A253" s="33"/>
-      <c r="B253" s="29"/>
-      <c r="C253" s="33"/>
+      <c r="A253" s="28"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="28"/>
       <c r="D253" s="10" t="s">
         <v>497</v>
       </c>
@@ -40592,9 +40592,9 @@
       </c>
     </row>
     <row r="254" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A254" s="33"/>
-      <c r="B254" s="29"/>
-      <c r="C254" s="33"/>
+      <c r="A254" s="28"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="28"/>
       <c r="D254" s="10" t="s">
         <v>498</v>
       </c>
@@ -40696,9 +40696,9 @@
       </c>
     </row>
     <row r="255" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A255" s="33"/>
-      <c r="B255" s="29"/>
-      <c r="C255" s="32"/>
+      <c r="A255" s="28"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="29"/>
       <c r="D255" s="10" t="s">
         <v>501</v>
       </c>
@@ -40800,9 +40800,9 @@
       </c>
     </row>
     <row r="256" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A256" s="33"/>
-      <c r="B256" s="29"/>
-      <c r="C256" s="31" t="s">
+      <c r="A256" s="28"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D256" s="10" t="s">
@@ -40906,9 +40906,9 @@
       </c>
     </row>
     <row r="257" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A257" s="33"/>
-      <c r="B257" s="29"/>
-      <c r="C257" s="33"/>
+      <c r="A257" s="28"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="28"/>
       <c r="D257" s="10" t="s">
         <v>505</v>
       </c>
@@ -41010,9 +41010,9 @@
       </c>
     </row>
     <row r="258" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A258" s="33"/>
-      <c r="B258" s="29"/>
-      <c r="C258" s="33"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="28"/>
       <c r="D258" s="10" t="s">
         <v>506</v>
       </c>
@@ -41114,9 +41114,9 @@
       </c>
     </row>
     <row r="259" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A259" s="33"/>
-      <c r="B259" s="29"/>
-      <c r="C259" s="33"/>
+      <c r="A259" s="28"/>
+      <c r="B259" s="34"/>
+      <c r="C259" s="28"/>
       <c r="D259" s="10" t="s">
         <v>510</v>
       </c>
@@ -41218,9 +41218,9 @@
       </c>
     </row>
     <row r="260" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A260" s="33"/>
-      <c r="B260" s="29"/>
-      <c r="C260" s="33"/>
+      <c r="A260" s="28"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="28"/>
       <c r="D260" s="10" t="s">
         <v>512</v>
       </c>
@@ -41322,9 +41322,9 @@
       </c>
     </row>
     <row r="261" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A261" s="33"/>
-      <c r="B261" s="29"/>
-      <c r="C261" s="33"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="34"/>
+      <c r="C261" s="28"/>
       <c r="D261" s="10" t="s">
         <v>513</v>
       </c>
@@ -41426,9 +41426,9 @@
       </c>
     </row>
     <row r="262" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A262" s="33"/>
-      <c r="B262" s="29"/>
-      <c r="C262" s="33"/>
+      <c r="A262" s="28"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="28"/>
       <c r="D262" s="10" t="s">
         <v>516</v>
       </c>
@@ -41530,9 +41530,9 @@
       </c>
     </row>
     <row r="263" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A263" s="33"/>
-      <c r="B263" s="29"/>
-      <c r="C263" s="33"/>
+      <c r="A263" s="28"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="28"/>
       <c r="D263" s="10" t="s">
         <v>517</v>
       </c>
@@ -41634,9 +41634,9 @@
       </c>
     </row>
     <row r="264" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A264" s="33"/>
-      <c r="B264" s="29"/>
-      <c r="C264" s="33"/>
+      <c r="A264" s="28"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="28"/>
       <c r="D264" s="10" t="s">
         <v>518</v>
       </c>
@@ -41738,9 +41738,9 @@
       </c>
     </row>
     <row r="265" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A265" s="33"/>
-      <c r="B265" s="29"/>
-      <c r="C265" s="33"/>
+      <c r="A265" s="28"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="28"/>
       <c r="D265" s="10" t="s">
         <v>519</v>
       </c>
@@ -41842,9 +41842,9 @@
       </c>
     </row>
     <row r="266" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A266" s="33"/>
-      <c r="B266" s="29"/>
-      <c r="C266" s="33"/>
+      <c r="A266" s="28"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="28"/>
       <c r="D266" s="10" t="s">
         <v>520</v>
       </c>
@@ -41946,9 +41946,9 @@
       </c>
     </row>
     <row r="267" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A267" s="33"/>
-      <c r="B267" s="29"/>
-      <c r="C267" s="33"/>
+      <c r="A267" s="28"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="28"/>
       <c r="D267" s="10" t="s">
         <v>522</v>
       </c>
@@ -42050,9 +42050,9 @@
       </c>
     </row>
     <row r="268" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A268" s="33"/>
-      <c r="B268" s="29"/>
-      <c r="C268" s="33"/>
+      <c r="A268" s="28"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="28"/>
       <c r="D268" s="10" t="s">
         <v>525</v>
       </c>
@@ -42154,9 +42154,9 @@
       </c>
     </row>
     <row r="269" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A269" s="33"/>
-      <c r="B269" s="29"/>
-      <c r="C269" s="33"/>
+      <c r="A269" s="28"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="28"/>
       <c r="D269" s="10" t="s">
         <v>526</v>
       </c>
@@ -42258,9 +42258,9 @@
       </c>
     </row>
     <row r="270" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A270" s="33"/>
-      <c r="B270" s="29"/>
-      <c r="C270" s="33"/>
+      <c r="A270" s="28"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="28"/>
       <c r="D270" s="10" t="s">
         <v>527</v>
       </c>
@@ -42362,9 +42362,9 @@
       </c>
     </row>
     <row r="271" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A271" s="33"/>
-      <c r="B271" s="29"/>
-      <c r="C271" s="33"/>
+      <c r="A271" s="28"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="28"/>
       <c r="D271" s="10" t="s">
         <v>528</v>
       </c>
@@ -42466,9 +42466,9 @@
       </c>
     </row>
     <row r="272" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A272" s="33"/>
-      <c r="B272" s="29"/>
-      <c r="C272" s="33"/>
+      <c r="A272" s="28"/>
+      <c r="B272" s="34"/>
+      <c r="C272" s="28"/>
       <c r="D272" s="10" t="s">
         <v>529</v>
       </c>
@@ -42570,9 +42570,9 @@
       </c>
     </row>
     <row r="273" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A273" s="33"/>
-      <c r="B273" s="29"/>
-      <c r="C273" s="33"/>
+      <c r="A273" s="28"/>
+      <c r="B273" s="34"/>
+      <c r="C273" s="28"/>
       <c r="D273" s="10" t="s">
         <v>530</v>
       </c>
@@ -42674,9 +42674,9 @@
       </c>
     </row>
     <row r="274" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A274" s="33"/>
-      <c r="B274" s="29"/>
-      <c r="C274" s="33"/>
+      <c r="A274" s="28"/>
+      <c r="B274" s="34"/>
+      <c r="C274" s="28"/>
       <c r="D274" s="10" t="s">
         <v>531</v>
       </c>
@@ -42778,9 +42778,9 @@
       </c>
     </row>
     <row r="275" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A275" s="33"/>
-      <c r="B275" s="29"/>
-      <c r="C275" s="33"/>
+      <c r="A275" s="28"/>
+      <c r="B275" s="34"/>
+      <c r="C275" s="28"/>
       <c r="D275" s="10" t="s">
         <v>532</v>
       </c>
@@ -42882,9 +42882,9 @@
       </c>
     </row>
     <row r="276" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A276" s="33"/>
-      <c r="B276" s="29"/>
-      <c r="C276" s="33"/>
+      <c r="A276" s="28"/>
+      <c r="B276" s="34"/>
+      <c r="C276" s="28"/>
       <c r="D276" s="10" t="s">
         <v>534</v>
       </c>
@@ -42986,9 +42986,9 @@
       </c>
     </row>
     <row r="277" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A277" s="33"/>
-      <c r="B277" s="29"/>
-      <c r="C277" s="33"/>
+      <c r="A277" s="28"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="28"/>
       <c r="D277" s="10" t="s">
         <v>536</v>
       </c>
@@ -43090,9 +43090,9 @@
       </c>
     </row>
     <row r="278" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A278" s="33"/>
-      <c r="B278" s="29"/>
-      <c r="C278" s="33"/>
+      <c r="A278" s="28"/>
+      <c r="B278" s="34"/>
+      <c r="C278" s="28"/>
       <c r="D278" s="10" t="s">
         <v>537</v>
       </c>
@@ -43194,9 +43194,9 @@
       </c>
     </row>
     <row r="279" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A279" s="33"/>
-      <c r="B279" s="29"/>
-      <c r="C279" s="33"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="34"/>
+      <c r="C279" s="28"/>
       <c r="D279" s="10" t="s">
         <v>538</v>
       </c>
@@ -43298,9 +43298,9 @@
       </c>
     </row>
     <row r="280" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A280" s="33"/>
-      <c r="B280" s="29"/>
-      <c r="C280" s="33"/>
+      <c r="A280" s="28"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="28"/>
       <c r="D280" s="10" t="s">
         <v>539</v>
       </c>
@@ -43402,9 +43402,9 @@
       </c>
     </row>
     <row r="281" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A281" s="33"/>
-      <c r="B281" s="29"/>
-      <c r="C281" s="33"/>
+      <c r="A281" s="28"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="28"/>
       <c r="D281" s="10" t="s">
         <v>542</v>
       </c>
@@ -43506,9 +43506,9 @@
       </c>
     </row>
     <row r="282" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A282" s="33"/>
-      <c r="B282" s="29"/>
-      <c r="C282" s="33"/>
+      <c r="A282" s="28"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="28"/>
       <c r="D282" s="10" t="s">
         <v>543</v>
       </c>
@@ -43610,9 +43610,9 @@
       </c>
     </row>
     <row r="283" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A283" s="33"/>
-      <c r="B283" s="29"/>
-      <c r="C283" s="33"/>
+      <c r="A283" s="28"/>
+      <c r="B283" s="34"/>
+      <c r="C283" s="28"/>
       <c r="D283" s="10" t="s">
         <v>544</v>
       </c>
@@ -43714,9 +43714,9 @@
       </c>
     </row>
     <row r="284" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A284" s="33"/>
-      <c r="B284" s="29"/>
-      <c r="C284" s="33"/>
+      <c r="A284" s="28"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="28"/>
       <c r="D284" s="10" t="s">
         <v>545</v>
       </c>
@@ -43818,9 +43818,9 @@
       </c>
     </row>
     <row r="285" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A285" s="33"/>
-      <c r="B285" s="29"/>
-      <c r="C285" s="33"/>
+      <c r="A285" s="28"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="28"/>
       <c r="D285" s="10" t="s">
         <v>546</v>
       </c>
@@ -43922,9 +43922,9 @@
       </c>
     </row>
     <row r="286" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A286" s="33"/>
-      <c r="B286" s="29"/>
-      <c r="C286" s="33"/>
+      <c r="A286" s="28"/>
+      <c r="B286" s="34"/>
+      <c r="C286" s="28"/>
       <c r="D286" s="10" t="s">
         <v>547</v>
       </c>
@@ -44026,9 +44026,9 @@
       </c>
     </row>
     <row r="287" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A287" s="33"/>
-      <c r="B287" s="29"/>
-      <c r="C287" s="33"/>
+      <c r="A287" s="28"/>
+      <c r="B287" s="34"/>
+      <c r="C287" s="28"/>
       <c r="D287" s="10" t="s">
         <v>548</v>
       </c>
@@ -44130,9 +44130,9 @@
       </c>
     </row>
     <row r="288" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A288" s="33"/>
-      <c r="B288" s="29"/>
-      <c r="C288" s="33"/>
+      <c r="A288" s="28"/>
+      <c r="B288" s="34"/>
+      <c r="C288" s="28"/>
       <c r="D288" s="10" t="s">
         <v>549</v>
       </c>
@@ -44234,9 +44234,9 @@
       </c>
     </row>
     <row r="289" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A289" s="33"/>
-      <c r="B289" s="29"/>
-      <c r="C289" s="33"/>
+      <c r="A289" s="28"/>
+      <c r="B289" s="34"/>
+      <c r="C289" s="28"/>
       <c r="D289" s="10" t="s">
         <v>550</v>
       </c>
@@ -44338,9 +44338,9 @@
       </c>
     </row>
     <row r="290" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A290" s="33"/>
-      <c r="B290" s="29"/>
-      <c r="C290" s="33"/>
+      <c r="A290" s="28"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="28"/>
       <c r="D290" s="10" t="s">
         <v>551</v>
       </c>
@@ -44442,9 +44442,9 @@
       </c>
     </row>
     <row r="291" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A291" s="33"/>
-      <c r="B291" s="29"/>
-      <c r="C291" s="33"/>
+      <c r="A291" s="28"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="28"/>
       <c r="D291" s="10" t="s">
         <v>552</v>
       </c>
@@ -44546,9 +44546,9 @@
       </c>
     </row>
     <row r="292" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A292" s="33"/>
-      <c r="B292" s="29"/>
-      <c r="C292" s="33"/>
+      <c r="A292" s="28"/>
+      <c r="B292" s="34"/>
+      <c r="C292" s="28"/>
       <c r="D292" s="10" t="s">
         <v>553</v>
       </c>
@@ -44650,9 +44650,9 @@
       </c>
     </row>
     <row r="293" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A293" s="33"/>
-      <c r="B293" s="29"/>
-      <c r="C293" s="32"/>
+      <c r="A293" s="28"/>
+      <c r="B293" s="34"/>
+      <c r="C293" s="29"/>
       <c r="D293" s="10" t="s">
         <v>554</v>
       </c>
@@ -44754,9 +44754,9 @@
       </c>
     </row>
     <row r="294" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A294" s="33"/>
-      <c r="B294" s="29"/>
-      <c r="C294" s="28" t="s">
+      <c r="A294" s="28"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="33" t="s">
         <v>555</v>
       </c>
       <c r="D294" s="10" t="s">
@@ -44860,9 +44860,9 @@
       </c>
     </row>
     <row r="295" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A295" s="33"/>
-      <c r="B295" s="29"/>
-      <c r="C295" s="30"/>
+      <c r="A295" s="28"/>
+      <c r="B295" s="34"/>
+      <c r="C295" s="35"/>
       <c r="D295" s="10" t="s">
         <v>557</v>
       </c>
@@ -44964,9 +44964,9 @@
       </c>
     </row>
     <row r="296" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A296" s="33"/>
-      <c r="B296" s="29"/>
-      <c r="C296" s="31" t="s">
+      <c r="A296" s="28"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="27" t="s">
         <v>559</v>
       </c>
       <c r="D296" s="10" t="s">
@@ -45070,9 +45070,9 @@
       </c>
     </row>
     <row r="297" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A297" s="33"/>
-      <c r="B297" s="29"/>
-      <c r="C297" s="33"/>
+      <c r="A297" s="28"/>
+      <c r="B297" s="34"/>
+      <c r="C297" s="28"/>
       <c r="D297" s="10" t="s">
         <v>563</v>
       </c>
@@ -45174,9 +45174,9 @@
       </c>
     </row>
     <row r="298" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A298" s="33"/>
-      <c r="B298" s="29"/>
-      <c r="C298" s="33"/>
+      <c r="A298" s="28"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="28"/>
       <c r="D298" s="10" t="s">
         <v>565</v>
       </c>
@@ -45278,9 +45278,9 @@
       </c>
     </row>
     <row r="299" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A299" s="33"/>
-      <c r="B299" s="29"/>
-      <c r="C299" s="33"/>
+      <c r="A299" s="28"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="28"/>
       <c r="D299" s="10" t="s">
         <v>566</v>
       </c>
@@ -45382,9 +45382,9 @@
       </c>
     </row>
     <row r="300" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A300" s="33"/>
-      <c r="B300" s="29"/>
-      <c r="C300" s="33"/>
+      <c r="A300" s="28"/>
+      <c r="B300" s="34"/>
+      <c r="C300" s="28"/>
       <c r="D300" s="10" t="s">
         <v>567</v>
       </c>
@@ -45486,9 +45486,9 @@
       </c>
     </row>
     <row r="301" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A301" s="33"/>
-      <c r="B301" s="29"/>
-      <c r="C301" s="33"/>
+      <c r="A301" s="28"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="28"/>
       <c r="D301" s="10" t="s">
         <v>570</v>
       </c>
@@ -45590,9 +45590,9 @@
       </c>
     </row>
     <row r="302" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A302" s="33"/>
-      <c r="B302" s="29"/>
-      <c r="C302" s="33"/>
+      <c r="A302" s="28"/>
+      <c r="B302" s="34"/>
+      <c r="C302" s="28"/>
       <c r="D302" s="10" t="s">
         <v>571</v>
       </c>
@@ -45694,9 +45694,9 @@
       </c>
     </row>
     <row r="303" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A303" s="33"/>
-      <c r="B303" s="29"/>
-      <c r="C303" s="33"/>
+      <c r="A303" s="28"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="28"/>
       <c r="D303" s="10" t="s">
         <v>572</v>
       </c>
@@ -45798,9 +45798,9 @@
       </c>
     </row>
     <row r="304" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A304" s="33"/>
-      <c r="B304" s="29"/>
-      <c r="C304" s="33"/>
+      <c r="A304" s="28"/>
+      <c r="B304" s="34"/>
+      <c r="C304" s="28"/>
       <c r="D304" s="10" t="s">
         <v>573</v>
       </c>
@@ -45902,9 +45902,9 @@
       </c>
     </row>
     <row r="305" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A305" s="33"/>
-      <c r="B305" s="29"/>
-      <c r="C305" s="33"/>
+      <c r="A305" s="28"/>
+      <c r="B305" s="34"/>
+      <c r="C305" s="28"/>
       <c r="D305" s="10" t="s">
         <v>574</v>
       </c>
@@ -46006,9 +46006,9 @@
       </c>
     </row>
     <row r="306" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A306" s="33"/>
-      <c r="B306" s="29"/>
-      <c r="C306" s="33"/>
+      <c r="A306" s="28"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="28"/>
       <c r="D306" s="10" t="s">
         <v>575</v>
       </c>
@@ -46110,9 +46110,9 @@
       </c>
     </row>
     <row r="307" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A307" s="33"/>
-      <c r="B307" s="29"/>
-      <c r="C307" s="33"/>
+      <c r="A307" s="28"/>
+      <c r="B307" s="34"/>
+      <c r="C307" s="28"/>
       <c r="D307" s="10" t="s">
         <v>576</v>
       </c>
@@ -46214,9 +46214,9 @@
       </c>
     </row>
     <row r="308" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A308" s="33"/>
-      <c r="B308" s="29"/>
-      <c r="C308" s="33"/>
+      <c r="A308" s="28"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="28"/>
       <c r="D308" s="10" t="s">
         <v>577</v>
       </c>
@@ -46318,9 +46318,9 @@
       </c>
     </row>
     <row r="309" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A309" s="33"/>
-      <c r="B309" s="29"/>
-      <c r="C309" s="33"/>
+      <c r="A309" s="28"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="28"/>
       <c r="D309" s="10" t="s">
         <v>578</v>
       </c>
@@ -46422,9 +46422,9 @@
       </c>
     </row>
     <row r="310" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A310" s="33"/>
-      <c r="B310" s="29"/>
-      <c r="C310" s="33"/>
+      <c r="A310" s="28"/>
+      <c r="B310" s="34"/>
+      <c r="C310" s="28"/>
       <c r="D310" s="10" t="s">
         <v>579</v>
       </c>
@@ -46526,9 +46526,9 @@
       </c>
     </row>
     <row r="311" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A311" s="33"/>
-      <c r="B311" s="29"/>
-      <c r="C311" s="33"/>
+      <c r="A311" s="28"/>
+      <c r="B311" s="34"/>
+      <c r="C311" s="28"/>
       <c r="D311" s="10" t="s">
         <v>580</v>
       </c>
@@ -46630,9 +46630,9 @@
       </c>
     </row>
     <row r="312" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A312" s="33"/>
-      <c r="B312" s="29"/>
-      <c r="C312" s="33"/>
+      <c r="A312" s="28"/>
+      <c r="B312" s="34"/>
+      <c r="C312" s="28"/>
       <c r="D312" s="10" t="s">
         <v>581</v>
       </c>
@@ -46734,9 +46734,9 @@
       </c>
     </row>
     <row r="313" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A313" s="33"/>
-      <c r="B313" s="29"/>
-      <c r="C313" s="33"/>
+      <c r="A313" s="28"/>
+      <c r="B313" s="34"/>
+      <c r="C313" s="28"/>
       <c r="D313" s="10" t="s">
         <v>582</v>
       </c>
@@ -46838,9 +46838,9 @@
       </c>
     </row>
     <row r="314" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A314" s="33"/>
-      <c r="B314" s="29"/>
-      <c r="C314" s="33"/>
+      <c r="A314" s="28"/>
+      <c r="B314" s="34"/>
+      <c r="C314" s="28"/>
       <c r="D314" s="10" t="s">
         <v>583</v>
       </c>
@@ -46942,9 +46942,9 @@
       </c>
     </row>
     <row r="315" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A315" s="33"/>
-      <c r="B315" s="29"/>
-      <c r="C315" s="33"/>
+      <c r="A315" s="28"/>
+      <c r="B315" s="34"/>
+      <c r="C315" s="28"/>
       <c r="D315" s="10" t="s">
         <v>584</v>
       </c>
@@ -47046,9 +47046,9 @@
       </c>
     </row>
     <row r="316" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A316" s="33"/>
-      <c r="B316" s="29"/>
-      <c r="C316" s="32"/>
+      <c r="A316" s="28"/>
+      <c r="B316" s="34"/>
+      <c r="C316" s="29"/>
       <c r="D316" s="10" t="s">
         <v>585</v>
       </c>
@@ -47150,13 +47150,13 @@
       </c>
     </row>
     <row r="317" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A317" s="31" t="s">
+      <c r="A317" s="27" t="s">
         <v>228</v>
       </c>
       <c r="B317" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="C317" s="31" t="s">
+      <c r="C317" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -47260,9 +47260,9 @@
       </c>
     </row>
     <row r="318" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A318" s="33"/>
-      <c r="B318" s="36"/>
-      <c r="C318" s="32"/>
+      <c r="A318" s="28"/>
+      <c r="B318" s="26"/>
+      <c r="C318" s="29"/>
       <c r="D318" s="10" t="s">
         <v>590</v>
       </c>
@@ -47364,9 +47364,9 @@
       </c>
     </row>
     <row r="319" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A319" s="33"/>
-      <c r="B319" s="36"/>
-      <c r="C319" s="31" t="s">
+      <c r="A319" s="28"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="27" t="s">
         <v>239</v>
       </c>
       <c r="D319" s="10" t="s">
@@ -47470,9 +47470,9 @@
       </c>
     </row>
     <row r="320" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A320" s="33"/>
-      <c r="B320" s="36"/>
-      <c r="C320" s="32"/>
+      <c r="A320" s="28"/>
+      <c r="B320" s="26"/>
+      <c r="C320" s="29"/>
       <c r="D320" s="10" t="s">
         <v>594</v>
       </c>
@@ -47574,8 +47574,8 @@
       </c>
     </row>
     <row r="321" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A321" s="33"/>
-      <c r="B321" s="36"/>
+      <c r="A321" s="28"/>
+      <c r="B321" s="26"/>
       <c r="C321" s="2" t="s">
         <v>294</v>
       </c>
@@ -47680,9 +47680,9 @@
       </c>
     </row>
     <row r="322" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A322" s="33"/>
-      <c r="B322" s="36"/>
-      <c r="C322" s="31" t="s">
+      <c r="A322" s="28"/>
+      <c r="B322" s="26"/>
+      <c r="C322" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D322" s="5"/>
@@ -47720,9 +47720,9 @@
       <c r="AJ322" s="5"/>
     </row>
     <row r="323" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A323" s="33"/>
-      <c r="B323" s="36"/>
-      <c r="C323" s="33"/>
+      <c r="A323" s="28"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="28"/>
       <c r="D323" s="10" t="s">
         <v>596</v>
       </c>
@@ -47824,9 +47824,9 @@
       </c>
     </row>
     <row r="324" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A324" s="33"/>
-      <c r="B324" s="36"/>
-      <c r="C324" s="32"/>
+      <c r="A324" s="28"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="29"/>
       <c r="D324" s="10" t="s">
         <v>598</v>
       </c>
@@ -47928,9 +47928,9 @@
       </c>
     </row>
     <row r="325" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A325" s="33"/>
-      <c r="B325" s="36"/>
-      <c r="C325" s="28" t="s">
+      <c r="A325" s="28"/>
+      <c r="B325" s="26"/>
+      <c r="C325" s="33" t="s">
         <v>348</v>
       </c>
       <c r="D325" s="10" t="s">
@@ -48034,9 +48034,9 @@
       </c>
     </row>
     <row r="326" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A326" s="33"/>
-      <c r="B326" s="36"/>
-      <c r="C326" s="29"/>
+      <c r="A326" s="28"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="34"/>
       <c r="D326" s="10" t="s">
         <v>603</v>
       </c>
@@ -48138,9 +48138,9 @@
       </c>
     </row>
     <row r="327" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A327" s="33"/>
-      <c r="B327" s="36"/>
-      <c r="C327" s="29"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="34"/>
       <c r="D327" s="10" t="s">
         <v>604</v>
       </c>
@@ -48242,9 +48242,9 @@
       </c>
     </row>
     <row r="328" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A328" s="33"/>
-      <c r="B328" s="36"/>
-      <c r="C328" s="29"/>
+      <c r="A328" s="28"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="34"/>
       <c r="D328" s="10" t="s">
         <v>608</v>
       </c>
@@ -48346,9 +48346,9 @@
       </c>
     </row>
     <row r="329" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A329" s="33"/>
-      <c r="B329" s="36"/>
-      <c r="C329" s="29"/>
+      <c r="A329" s="28"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="34"/>
       <c r="D329" s="10" t="s">
         <v>609</v>
       </c>
@@ -48450,9 +48450,9 @@
       </c>
     </row>
     <row r="330" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A330" s="33"/>
-      <c r="B330" s="36"/>
-      <c r="C330" s="29"/>
+      <c r="A330" s="28"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="34"/>
       <c r="D330" s="10" t="s">
         <v>610</v>
       </c>
@@ -48554,9 +48554,9 @@
       </c>
     </row>
     <row r="331" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A331" s="33"/>
-      <c r="B331" s="36"/>
-      <c r="C331" s="29"/>
+      <c r="A331" s="28"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="34"/>
       <c r="D331" s="10" t="s">
         <v>611</v>
       </c>
@@ -48658,9 +48658,9 @@
       </c>
     </row>
     <row r="332" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A332" s="33"/>
-      <c r="B332" s="36"/>
-      <c r="C332" s="29"/>
+      <c r="A332" s="28"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="34"/>
       <c r="D332" s="10" t="s">
         <v>612</v>
       </c>
@@ -48762,9 +48762,9 @@
       </c>
     </row>
     <row r="333" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A333" s="33"/>
-      <c r="B333" s="36"/>
-      <c r="C333" s="29"/>
+      <c r="A333" s="28"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="34"/>
       <c r="D333" s="10" t="s">
         <v>613</v>
       </c>
@@ -48866,9 +48866,9 @@
       </c>
     </row>
     <row r="334" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A334" s="33"/>
-      <c r="B334" s="36"/>
-      <c r="C334" s="30"/>
+      <c r="A334" s="28"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="35"/>
       <c r="D334" s="10" t="s">
         <v>614</v>
       </c>
@@ -48970,9 +48970,9 @@
       </c>
     </row>
     <row r="335" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A335" s="33"/>
-      <c r="B335" s="36"/>
-      <c r="C335" s="31" t="s">
+      <c r="A335" s="28"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="27" t="s">
         <v>379</v>
       </c>
       <c r="D335" s="10" t="s">
@@ -49076,9 +49076,9 @@
       </c>
     </row>
     <row r="336" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A336" s="33"/>
-      <c r="B336" s="36"/>
-      <c r="C336" s="33"/>
+      <c r="A336" s="28"/>
+      <c r="B336" s="26"/>
+      <c r="C336" s="28"/>
       <c r="D336" s="10" t="s">
         <v>618</v>
       </c>
@@ -49180,9 +49180,9 @@
       </c>
     </row>
     <row r="337" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A337" s="33"/>
-      <c r="B337" s="36"/>
-      <c r="C337" s="32"/>
+      <c r="A337" s="28"/>
+      <c r="B337" s="26"/>
+      <c r="C337" s="29"/>
       <c r="D337" s="10" t="s">
         <v>618</v>
       </c>
@@ -49284,9 +49284,9 @@
       </c>
     </row>
     <row r="338" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A338" s="33"/>
-      <c r="B338" s="36"/>
-      <c r="C338" s="31" t="s">
+      <c r="A338" s="28"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D338" s="10" t="s">
@@ -49390,9 +49390,9 @@
       </c>
     </row>
     <row r="339" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A339" s="33"/>
-      <c r="B339" s="36"/>
-      <c r="C339" s="33"/>
+      <c r="A339" s="28"/>
+      <c r="B339" s="26"/>
+      <c r="C339" s="28"/>
       <c r="D339" s="10" t="s">
         <v>624</v>
       </c>
@@ -49494,9 +49494,9 @@
       </c>
     </row>
     <row r="340" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A340" s="33"/>
-      <c r="B340" s="36"/>
-      <c r="C340" s="33"/>
+      <c r="A340" s="28"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="28"/>
       <c r="D340" s="10" t="s">
         <v>625</v>
       </c>
@@ -49598,9 +49598,9 @@
       </c>
     </row>
     <row r="341" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A341" s="33"/>
-      <c r="B341" s="36"/>
-      <c r="C341" s="33"/>
+      <c r="A341" s="28"/>
+      <c r="B341" s="26"/>
+      <c r="C341" s="28"/>
       <c r="D341" s="10" t="s">
         <v>628</v>
       </c>
@@ -49702,9 +49702,9 @@
       </c>
     </row>
     <row r="342" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A342" s="33"/>
-      <c r="B342" s="36"/>
-      <c r="C342" s="33"/>
+      <c r="A342" s="28"/>
+      <c r="B342" s="26"/>
+      <c r="C342" s="28"/>
       <c r="D342" s="10" t="s">
         <v>629</v>
       </c>
@@ -49806,9 +49806,9 @@
       </c>
     </row>
     <row r="343" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A343" s="33"/>
-      <c r="B343" s="36"/>
-      <c r="C343" s="33"/>
+      <c r="A343" s="28"/>
+      <c r="B343" s="26"/>
+      <c r="C343" s="28"/>
       <c r="D343" s="10" t="s">
         <v>630</v>
       </c>
@@ -49910,9 +49910,9 @@
       </c>
     </row>
     <row r="344" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A344" s="33"/>
-      <c r="B344" s="36"/>
-      <c r="C344" s="33"/>
+      <c r="A344" s="28"/>
+      <c r="B344" s="26"/>
+      <c r="C344" s="28"/>
       <c r="D344" s="10" t="s">
         <v>633</v>
       </c>
@@ -50014,9 +50014,9 @@
       </c>
     </row>
     <row r="345" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A345" s="33"/>
-      <c r="B345" s="36"/>
-      <c r="C345" s="33"/>
+      <c r="A345" s="28"/>
+      <c r="B345" s="26"/>
+      <c r="C345" s="28"/>
       <c r="D345" s="10" t="s">
         <v>634</v>
       </c>
@@ -50118,9 +50118,9 @@
       </c>
     </row>
     <row r="346" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A346" s="33"/>
-      <c r="B346" s="36"/>
-      <c r="C346" s="32"/>
+      <c r="A346" s="28"/>
+      <c r="B346" s="26"/>
+      <c r="C346" s="29"/>
       <c r="D346" s="10" t="s">
         <v>635</v>
       </c>
@@ -50222,9 +50222,9 @@
       </c>
     </row>
     <row r="347" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A347" s="33"/>
-      <c r="B347" s="36"/>
-      <c r="C347" s="31" t="s">
+      <c r="A347" s="28"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D347" s="5"/>
@@ -50262,9 +50262,9 @@
       <c r="AJ347" s="5"/>
     </row>
     <row r="348" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A348" s="33"/>
-      <c r="B348" s="36"/>
-      <c r="C348" s="33"/>
+      <c r="A348" s="28"/>
+      <c r="B348" s="26"/>
+      <c r="C348" s="28"/>
       <c r="D348" s="10" t="s">
         <v>636</v>
       </c>
@@ -50366,9 +50366,9 @@
       </c>
     </row>
     <row r="349" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A349" s="33"/>
-      <c r="B349" s="36"/>
-      <c r="C349" s="33"/>
+      <c r="A349" s="28"/>
+      <c r="B349" s="26"/>
+      <c r="C349" s="28"/>
       <c r="D349" s="10" t="s">
         <v>639</v>
       </c>
@@ -50470,9 +50470,9 @@
       </c>
     </row>
     <row r="350" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A350" s="33"/>
-      <c r="B350" s="36"/>
-      <c r="C350" s="33"/>
+      <c r="A350" s="28"/>
+      <c r="B350" s="26"/>
+      <c r="C350" s="28"/>
       <c r="D350" s="10" t="s">
         <v>642</v>
       </c>
@@ -50574,9 +50574,9 @@
       </c>
     </row>
     <row r="351" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A351" s="33"/>
-      <c r="B351" s="36"/>
-      <c r="C351" s="33"/>
+      <c r="A351" s="28"/>
+      <c r="B351" s="26"/>
+      <c r="C351" s="28"/>
       <c r="D351" s="10" t="s">
         <v>645</v>
       </c>
@@ -50678,9 +50678,9 @@
       </c>
     </row>
     <row r="352" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A352" s="33"/>
-      <c r="B352" s="36"/>
-      <c r="C352" s="33"/>
+      <c r="A352" s="28"/>
+      <c r="B352" s="26"/>
+      <c r="C352" s="28"/>
       <c r="D352" s="10" t="s">
         <v>647</v>
       </c>
@@ -50782,9 +50782,9 @@
       </c>
     </row>
     <row r="353" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A353" s="33"/>
-      <c r="B353" s="36"/>
-      <c r="C353" s="32"/>
+      <c r="A353" s="28"/>
+      <c r="B353" s="26"/>
+      <c r="C353" s="29"/>
       <c r="D353" s="10" t="s">
         <v>649</v>
       </c>
@@ -50886,9 +50886,9 @@
       </c>
     </row>
     <row r="354" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A354" s="33"/>
-      <c r="B354" s="36"/>
-      <c r="C354" s="28" t="s">
+      <c r="A354" s="28"/>
+      <c r="B354" s="26"/>
+      <c r="C354" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D354" s="10" t="s">
@@ -50992,9 +50992,9 @@
       </c>
     </row>
     <row r="355" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A355" s="33"/>
-      <c r="B355" s="36"/>
-      <c r="C355" s="29"/>
+      <c r="A355" s="28"/>
+      <c r="B355" s="26"/>
+      <c r="C355" s="34"/>
       <c r="D355" s="10" t="s">
         <v>652</v>
       </c>
@@ -51096,9 +51096,9 @@
       </c>
     </row>
     <row r="356" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A356" s="33"/>
-      <c r="B356" s="36"/>
-      <c r="C356" s="29"/>
+      <c r="A356" s="28"/>
+      <c r="B356" s="26"/>
+      <c r="C356" s="34"/>
       <c r="D356" s="10" t="s">
         <v>655</v>
       </c>
@@ -51200,9 +51200,9 @@
       </c>
     </row>
     <row r="357" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A357" s="33"/>
-      <c r="B357" s="36"/>
-      <c r="C357" s="29"/>
+      <c r="A357" s="28"/>
+      <c r="B357" s="26"/>
+      <c r="C357" s="34"/>
       <c r="D357" s="10" t="s">
         <v>658</v>
       </c>
@@ -51304,9 +51304,9 @@
       </c>
     </row>
     <row r="358" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A358" s="33"/>
-      <c r="B358" s="36"/>
-      <c r="C358" s="30"/>
+      <c r="A358" s="28"/>
+      <c r="B358" s="26"/>
+      <c r="C358" s="35"/>
       <c r="D358" s="10" t="s">
         <v>659</v>
       </c>
@@ -51408,9 +51408,9 @@
       </c>
     </row>
     <row r="359" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A359" s="33"/>
-      <c r="B359" s="36"/>
-      <c r="C359" s="31" t="s">
+      <c r="A359" s="28"/>
+      <c r="B359" s="26"/>
+      <c r="C359" s="27" t="s">
         <v>412</v>
       </c>
       <c r="D359" s="10" t="s">
@@ -51514,9 +51514,9 @@
       </c>
     </row>
     <row r="360" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A360" s="33"/>
-      <c r="B360" s="36"/>
-      <c r="C360" s="33"/>
+      <c r="A360" s="28"/>
+      <c r="B360" s="26"/>
+      <c r="C360" s="28"/>
       <c r="D360" s="10" t="s">
         <v>663</v>
       </c>
@@ -51618,9 +51618,9 @@
       </c>
     </row>
     <row r="361" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A361" s="33"/>
-      <c r="B361" s="36"/>
-      <c r="C361" s="33"/>
+      <c r="A361" s="28"/>
+      <c r="B361" s="26"/>
+      <c r="C361" s="28"/>
       <c r="D361" s="10" t="s">
         <v>665</v>
       </c>
@@ -51722,9 +51722,9 @@
       </c>
     </row>
     <row r="362" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A362" s="33"/>
-      <c r="B362" s="36"/>
-      <c r="C362" s="33"/>
+      <c r="A362" s="28"/>
+      <c r="B362" s="26"/>
+      <c r="C362" s="28"/>
       <c r="D362" s="10" t="s">
         <v>668</v>
       </c>
@@ -51826,9 +51826,9 @@
       </c>
     </row>
     <row r="363" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A363" s="33"/>
-      <c r="B363" s="36"/>
-      <c r="C363" s="33"/>
+      <c r="A363" s="28"/>
+      <c r="B363" s="26"/>
+      <c r="C363" s="28"/>
       <c r="D363" s="10" t="s">
         <v>670</v>
       </c>
@@ -51930,9 +51930,9 @@
       </c>
     </row>
     <row r="364" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A364" s="33"/>
-      <c r="B364" s="36"/>
-      <c r="C364" s="32"/>
+      <c r="A364" s="28"/>
+      <c r="B364" s="26"/>
+      <c r="C364" s="29"/>
       <c r="D364" s="10" t="s">
         <v>673</v>
       </c>
@@ -52034,9 +52034,9 @@
       </c>
     </row>
     <row r="365" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A365" s="33"/>
-      <c r="B365" s="36"/>
-      <c r="C365" s="28" t="s">
+      <c r="A365" s="28"/>
+      <c r="B365" s="26"/>
+      <c r="C365" s="33" t="s">
         <v>421</v>
       </c>
       <c r="D365" s="10" t="s">
@@ -52140,9 +52140,9 @@
       </c>
     </row>
     <row r="366" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A366" s="33"/>
-      <c r="B366" s="36"/>
-      <c r="C366" s="29"/>
+      <c r="A366" s="28"/>
+      <c r="B366" s="26"/>
+      <c r="C366" s="34"/>
       <c r="D366" s="10" t="s">
         <v>678</v>
       </c>
@@ -52244,9 +52244,9 @@
       </c>
     </row>
     <row r="367" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A367" s="33"/>
-      <c r="B367" s="36"/>
-      <c r="C367" s="29"/>
+      <c r="A367" s="28"/>
+      <c r="B367" s="26"/>
+      <c r="C367" s="34"/>
       <c r="D367" s="10" t="s">
         <v>679</v>
       </c>
@@ -52348,9 +52348,9 @@
       </c>
     </row>
     <row r="368" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A368" s="33"/>
-      <c r="B368" s="36"/>
-      <c r="C368" s="29"/>
+      <c r="A368" s="28"/>
+      <c r="B368" s="26"/>
+      <c r="C368" s="34"/>
       <c r="D368" s="10" t="s">
         <v>682</v>
       </c>
@@ -52452,9 +52452,9 @@
       </c>
     </row>
     <row r="369" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A369" s="33"/>
-      <c r="B369" s="36"/>
-      <c r="C369" s="30"/>
+      <c r="A369" s="28"/>
+      <c r="B369" s="26"/>
+      <c r="C369" s="35"/>
       <c r="D369" s="10" t="s">
         <v>685</v>
       </c>
@@ -52556,8 +52556,8 @@
       </c>
     </row>
     <row r="370" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A370" s="33"/>
-      <c r="B370" s="36"/>
+      <c r="A370" s="28"/>
+      <c r="B370" s="26"/>
       <c r="C370" s="2" t="s">
         <v>445</v>
       </c>
@@ -52662,9 +52662,9 @@
       </c>
     </row>
     <row r="371" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A371" s="33"/>
-      <c r="B371" s="36"/>
-      <c r="C371" s="31" t="s">
+      <c r="A371" s="28"/>
+      <c r="B371" s="26"/>
+      <c r="C371" s="27" t="s">
         <v>459</v>
       </c>
       <c r="D371" s="10" t="s">
@@ -52768,9 +52768,9 @@
       </c>
     </row>
     <row r="372" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A372" s="33"/>
-      <c r="B372" s="36"/>
-      <c r="C372" s="33"/>
+      <c r="A372" s="28"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="28"/>
       <c r="D372" s="10" t="s">
         <v>690</v>
       </c>
@@ -52872,9 +52872,9 @@
       </c>
     </row>
     <row r="373" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A373" s="33"/>
-      <c r="B373" s="36"/>
-      <c r="C373" s="32"/>
+      <c r="A373" s="28"/>
+      <c r="B373" s="26"/>
+      <c r="C373" s="29"/>
       <c r="D373" s="10" t="s">
         <v>691</v>
       </c>
@@ -52976,9 +52976,9 @@
       </c>
     </row>
     <row r="374" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A374" s="33"/>
-      <c r="B374" s="36"/>
-      <c r="C374" s="31" t="s">
+      <c r="A374" s="28"/>
+      <c r="B374" s="26"/>
+      <c r="C374" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D374" s="10" t="s">
@@ -53082,9 +53082,9 @@
       </c>
     </row>
     <row r="375" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A375" s="33"/>
-      <c r="B375" s="36"/>
-      <c r="C375" s="33"/>
+      <c r="A375" s="28"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="28"/>
       <c r="D375" s="10" t="s">
         <v>696</v>
       </c>
@@ -53186,9 +53186,9 @@
       </c>
     </row>
     <row r="376" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A376" s="33"/>
-      <c r="B376" s="36"/>
-      <c r="C376" s="33"/>
+      <c r="A376" s="28"/>
+      <c r="B376" s="26"/>
+      <c r="C376" s="28"/>
       <c r="D376" s="10" t="s">
         <v>698</v>
       </c>
@@ -53290,9 +53290,9 @@
       </c>
     </row>
     <row r="377" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A377" s="33"/>
-      <c r="B377" s="36"/>
-      <c r="C377" s="33"/>
+      <c r="A377" s="28"/>
+      <c r="B377" s="26"/>
+      <c r="C377" s="28"/>
       <c r="D377" s="10" t="s">
         <v>699</v>
       </c>
@@ -53394,9 +53394,9 @@
       </c>
     </row>
     <row r="378" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A378" s="33"/>
-      <c r="B378" s="36"/>
-      <c r="C378" s="33"/>
+      <c r="A378" s="28"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="28"/>
       <c r="D378" s="10" t="s">
         <v>700</v>
       </c>
@@ -53498,9 +53498,9 @@
       </c>
     </row>
     <row r="379" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A379" s="33"/>
-      <c r="B379" s="36"/>
-      <c r="C379" s="33"/>
+      <c r="A379" s="28"/>
+      <c r="B379" s="26"/>
+      <c r="C379" s="28"/>
       <c r="D379" s="10" t="s">
         <v>701</v>
       </c>
@@ -53602,9 +53602,9 @@
       </c>
     </row>
     <row r="380" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A380" s="33"/>
-      <c r="B380" s="36"/>
-      <c r="C380" s="33"/>
+      <c r="A380" s="28"/>
+      <c r="B380" s="26"/>
+      <c r="C380" s="28"/>
       <c r="D380" s="10" t="s">
         <v>702</v>
       </c>
@@ -53706,9 +53706,9 @@
       </c>
     </row>
     <row r="381" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A381" s="33"/>
-      <c r="B381" s="36"/>
-      <c r="C381" s="33"/>
+      <c r="A381" s="28"/>
+      <c r="B381" s="26"/>
+      <c r="C381" s="28"/>
       <c r="D381" s="10" t="s">
         <v>703</v>
       </c>
@@ -53810,9 +53810,9 @@
       </c>
     </row>
     <row r="382" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A382" s="33"/>
-      <c r="B382" s="36"/>
-      <c r="C382" s="33"/>
+      <c r="A382" s="28"/>
+      <c r="B382" s="26"/>
+      <c r="C382" s="28"/>
       <c r="D382" s="10" t="s">
         <v>704</v>
       </c>
@@ -53914,9 +53914,9 @@
       </c>
     </row>
     <row r="383" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A383" s="33"/>
-      <c r="B383" s="36"/>
-      <c r="C383" s="33"/>
+      <c r="A383" s="28"/>
+      <c r="B383" s="26"/>
+      <c r="C383" s="28"/>
       <c r="D383" s="10" t="s">
         <v>705</v>
       </c>
@@ -54018,9 +54018,9 @@
       </c>
     </row>
     <row r="384" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A384" s="33"/>
-      <c r="B384" s="36"/>
-      <c r="C384" s="33"/>
+      <c r="A384" s="28"/>
+      <c r="B384" s="26"/>
+      <c r="C384" s="28"/>
       <c r="D384" s="10" t="s">
         <v>706</v>
       </c>
@@ -54122,9 +54122,9 @@
       </c>
     </row>
     <row r="385" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A385" s="33"/>
-      <c r="B385" s="36"/>
-      <c r="C385" s="33"/>
+      <c r="A385" s="28"/>
+      <c r="B385" s="26"/>
+      <c r="C385" s="28"/>
       <c r="D385" s="10" t="s">
         <v>707</v>
       </c>
@@ -54226,9 +54226,9 @@
       </c>
     </row>
     <row r="386" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A386" s="33"/>
-      <c r="B386" s="36"/>
-      <c r="C386" s="33"/>
+      <c r="A386" s="28"/>
+      <c r="B386" s="26"/>
+      <c r="C386" s="28"/>
       <c r="D386" s="10" t="s">
         <v>708</v>
       </c>
@@ -54330,9 +54330,9 @@
       </c>
     </row>
     <row r="387" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A387" s="33"/>
-      <c r="B387" s="36"/>
-      <c r="C387" s="33"/>
+      <c r="A387" s="28"/>
+      <c r="B387" s="26"/>
+      <c r="C387" s="28"/>
       <c r="D387" s="10" t="s">
         <v>709</v>
       </c>
@@ -54434,9 +54434,9 @@
       </c>
     </row>
     <row r="388" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A388" s="33"/>
-      <c r="B388" s="36"/>
-      <c r="C388" s="33"/>
+      <c r="A388" s="28"/>
+      <c r="B388" s="26"/>
+      <c r="C388" s="28"/>
       <c r="D388" s="10" t="s">
         <v>710</v>
       </c>
@@ -54538,9 +54538,9 @@
       </c>
     </row>
     <row r="389" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A389" s="33"/>
-      <c r="B389" s="36"/>
-      <c r="C389" s="33"/>
+      <c r="A389" s="28"/>
+      <c r="B389" s="26"/>
+      <c r="C389" s="28"/>
       <c r="D389" s="10" t="s">
         <v>710</v>
       </c>
@@ -54642,9 +54642,9 @@
       </c>
     </row>
     <row r="390" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A390" s="33"/>
-      <c r="B390" s="36"/>
-      <c r="C390" s="33"/>
+      <c r="A390" s="28"/>
+      <c r="B390" s="26"/>
+      <c r="C390" s="28"/>
       <c r="D390" s="10" t="s">
         <v>713</v>
       </c>
@@ -54746,9 +54746,9 @@
       </c>
     </row>
     <row r="391" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A391" s="33"/>
-      <c r="B391" s="36"/>
-      <c r="C391" s="33"/>
+      <c r="A391" s="28"/>
+      <c r="B391" s="26"/>
+      <c r="C391" s="28"/>
       <c r="D391" s="10" t="s">
         <v>714</v>
       </c>
@@ -54850,9 +54850,9 @@
       </c>
     </row>
     <row r="392" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A392" s="33"/>
-      <c r="B392" s="36"/>
-      <c r="C392" s="33"/>
+      <c r="A392" s="28"/>
+      <c r="B392" s="26"/>
+      <c r="C392" s="28"/>
       <c r="D392" s="10" t="s">
         <v>717</v>
       </c>
@@ -54954,9 +54954,9 @@
       </c>
     </row>
     <row r="393" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A393" s="33"/>
-      <c r="B393" s="36"/>
-      <c r="C393" s="33"/>
+      <c r="A393" s="28"/>
+      <c r="B393" s="26"/>
+      <c r="C393" s="28"/>
       <c r="D393" s="10" t="s">
         <v>718</v>
       </c>
@@ -55058,9 +55058,9 @@
       </c>
     </row>
     <row r="394" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A394" s="33"/>
-      <c r="B394" s="36"/>
-      <c r="C394" s="33"/>
+      <c r="A394" s="28"/>
+      <c r="B394" s="26"/>
+      <c r="C394" s="28"/>
       <c r="D394" s="10" t="s">
         <v>722</v>
       </c>
@@ -55162,9 +55162,9 @@
       </c>
     </row>
     <row r="395" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A395" s="33"/>
-      <c r="B395" s="36"/>
-      <c r="C395" s="33"/>
+      <c r="A395" s="28"/>
+      <c r="B395" s="26"/>
+      <c r="C395" s="28"/>
       <c r="D395" s="10" t="s">
         <v>723</v>
       </c>
@@ -55266,9 +55266,9 @@
       </c>
     </row>
     <row r="396" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A396" s="33"/>
-      <c r="B396" s="36"/>
-      <c r="C396" s="33"/>
+      <c r="A396" s="28"/>
+      <c r="B396" s="26"/>
+      <c r="C396" s="28"/>
       <c r="D396" s="10" t="s">
         <v>724</v>
       </c>
@@ -55370,9 +55370,9 @@
       </c>
     </row>
     <row r="397" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A397" s="33"/>
-      <c r="B397" s="36"/>
-      <c r="C397" s="33"/>
+      <c r="A397" s="28"/>
+      <c r="B397" s="26"/>
+      <c r="C397" s="28"/>
       <c r="D397" s="10" t="s">
         <v>725</v>
       </c>
@@ -55474,9 +55474,9 @@
       </c>
     </row>
     <row r="398" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A398" s="33"/>
-      <c r="B398" s="36"/>
-      <c r="C398" s="33"/>
+      <c r="A398" s="28"/>
+      <c r="B398" s="26"/>
+      <c r="C398" s="28"/>
       <c r="D398" s="10" t="s">
         <v>729</v>
       </c>
@@ -55578,9 +55578,9 @@
       </c>
     </row>
     <row r="399" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A399" s="33"/>
-      <c r="B399" s="36"/>
-      <c r="C399" s="32"/>
+      <c r="A399" s="28"/>
+      <c r="B399" s="26"/>
+      <c r="C399" s="29"/>
       <c r="D399" s="10" t="s">
         <v>730</v>
       </c>
@@ -55682,9 +55682,9 @@
       </c>
     </row>
     <row r="400" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A400" s="33"/>
-      <c r="B400" s="36"/>
-      <c r="C400" s="31" t="s">
+      <c r="A400" s="28"/>
+      <c r="B400" s="26"/>
+      <c r="C400" s="27" t="s">
         <v>559</v>
       </c>
       <c r="D400" s="5"/>
@@ -55722,9 +55722,9 @@
       <c r="AJ400" s="5"/>
     </row>
     <row r="401" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A401" s="33"/>
-      <c r="B401" s="36"/>
-      <c r="C401" s="32"/>
+      <c r="A401" s="28"/>
+      <c r="B401" s="26"/>
+      <c r="C401" s="29"/>
       <c r="D401" s="10" t="s">
         <v>733</v>
       </c>
@@ -55826,8 +55826,8 @@
       </c>
     </row>
     <row r="402" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A402" s="33"/>
-      <c r="B402" s="34" t="s">
+      <c r="A402" s="28"/>
+      <c r="B402" s="40" t="s">
         <v>216</v>
       </c>
       <c r="C402" s="2" t="s">
@@ -55934,9 +55934,9 @@
       </c>
     </row>
     <row r="403" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A403" s="33"/>
-      <c r="B403" s="35"/>
-      <c r="C403" s="31" t="s">
+      <c r="A403" s="28"/>
+      <c r="B403" s="30"/>
+      <c r="C403" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D403" s="10" t="s">
@@ -56040,9 +56040,9 @@
       </c>
     </row>
     <row r="404" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A404" s="33"/>
-      <c r="B404" s="35"/>
-      <c r="C404" s="33"/>
+      <c r="A404" s="28"/>
+      <c r="B404" s="30"/>
+      <c r="C404" s="28"/>
       <c r="D404" s="10" t="s">
         <v>737</v>
       </c>
@@ -56144,9 +56144,9 @@
       </c>
     </row>
     <row r="405" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A405" s="33"/>
-      <c r="B405" s="35"/>
-      <c r="C405" s="33"/>
+      <c r="A405" s="28"/>
+      <c r="B405" s="30"/>
+      <c r="C405" s="28"/>
       <c r="D405" s="10" t="s">
         <v>741</v>
       </c>
@@ -56248,9 +56248,9 @@
       </c>
     </row>
     <row r="406" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A406" s="33"/>
-      <c r="B406" s="35"/>
-      <c r="C406" s="33"/>
+      <c r="A406" s="28"/>
+      <c r="B406" s="30"/>
+      <c r="C406" s="28"/>
       <c r="D406" s="10" t="s">
         <v>742</v>
       </c>
@@ -56352,9 +56352,9 @@
       </c>
     </row>
     <row r="407" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A407" s="33"/>
-      <c r="B407" s="35"/>
-      <c r="C407" s="32"/>
+      <c r="A407" s="28"/>
+      <c r="B407" s="30"/>
+      <c r="C407" s="29"/>
       <c r="D407" s="10" t="s">
         <v>743</v>
       </c>
@@ -56456,9 +56456,9 @@
       </c>
     </row>
     <row r="408" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A408" s="33"/>
-      <c r="B408" s="35"/>
-      <c r="C408" s="37" t="s">
+      <c r="A408" s="28"/>
+      <c r="B408" s="30"/>
+      <c r="C408" s="38" t="s">
         <v>744</v>
       </c>
       <c r="D408" s="10" t="s">
@@ -56562,9 +56562,9 @@
       </c>
     </row>
     <row r="409" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A409" s="33"/>
-      <c r="B409" s="35"/>
-      <c r="C409" s="38"/>
+      <c r="A409" s="28"/>
+      <c r="B409" s="30"/>
+      <c r="C409" s="39"/>
       <c r="D409" s="10" t="s">
         <v>746</v>
       </c>
@@ -56666,9 +56666,9 @@
       </c>
     </row>
     <row r="410" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A410" s="33"/>
-      <c r="B410" s="35"/>
-      <c r="C410" s="38"/>
+      <c r="A410" s="28"/>
+      <c r="B410" s="30"/>
+      <c r="C410" s="39"/>
       <c r="D410" s="10" t="s">
         <v>747</v>
       </c>
@@ -56770,9 +56770,9 @@
       </c>
     </row>
     <row r="411" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A411" s="33"/>
-      <c r="B411" s="35"/>
-      <c r="C411" s="39"/>
+      <c r="A411" s="28"/>
+      <c r="B411" s="30"/>
+      <c r="C411" s="41"/>
       <c r="D411" s="10" t="s">
         <v>748</v>
       </c>
@@ -56874,10 +56874,10 @@
       </c>
     </row>
     <row r="412" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A412" s="31" t="s">
+      <c r="A412" s="27" t="s">
         <v>749</v>
       </c>
-      <c r="B412" s="31" t="s">
+      <c r="B412" s="27" t="s">
         <v>750</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -56984,9 +56984,9 @@
       </c>
     </row>
     <row r="413" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A413" s="33"/>
-      <c r="B413" s="33"/>
-      <c r="C413" s="31" t="s">
+      <c r="A413" s="28"/>
+      <c r="B413" s="28"/>
+      <c r="C413" s="27" t="s">
         <v>379</v>
       </c>
       <c r="D413" s="10" t="s">
@@ -57090,9 +57090,9 @@
       </c>
     </row>
     <row r="414" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A414" s="33"/>
-      <c r="B414" s="33"/>
-      <c r="C414" s="32"/>
+      <c r="A414" s="28"/>
+      <c r="B414" s="28"/>
+      <c r="C414" s="29"/>
       <c r="D414" s="10" t="s">
         <v>755</v>
       </c>
@@ -57194,9 +57194,9 @@
       </c>
     </row>
     <row r="415" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A415" s="33"/>
-      <c r="B415" s="33"/>
-      <c r="C415" s="31" t="s">
+      <c r="A415" s="28"/>
+      <c r="B415" s="28"/>
+      <c r="C415" s="27" t="s">
         <v>463</v>
       </c>
       <c r="D415" s="10" t="s">
@@ -57300,9 +57300,9 @@
       </c>
     </row>
     <row r="416" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A416" s="33"/>
-      <c r="B416" s="33"/>
-      <c r="C416" s="33"/>
+      <c r="A416" s="28"/>
+      <c r="B416" s="28"/>
+      <c r="C416" s="28"/>
       <c r="D416" s="10" t="s">
         <v>759</v>
       </c>
@@ -57404,9 +57404,9 @@
       </c>
     </row>
     <row r="417" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A417" s="33"/>
-      <c r="B417" s="33"/>
-      <c r="C417" s="32"/>
+      <c r="A417" s="28"/>
+      <c r="B417" s="28"/>
+      <c r="C417" s="29"/>
       <c r="D417" s="10" t="s">
         <v>760</v>
       </c>
@@ -57508,11 +57508,11 @@
       </c>
     </row>
     <row r="418" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A418" s="33"/>
-      <c r="B418" s="34" t="s">
+      <c r="A418" s="28"/>
+      <c r="B418" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C418" s="31" t="s">
+      <c r="C418" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D418" s="10" t="s">
@@ -57616,9 +57616,9 @@
       </c>
     </row>
     <row r="419" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A419" s="33"/>
-      <c r="B419" s="35"/>
-      <c r="C419" s="32"/>
+      <c r="A419" s="28"/>
+      <c r="B419" s="30"/>
+      <c r="C419" s="29"/>
       <c r="D419" s="10" t="s">
         <v>764</v>
       </c>
@@ -57720,9 +57720,9 @@
       </c>
     </row>
     <row r="420" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A420" s="33"/>
-      <c r="B420" s="35"/>
-      <c r="C420" s="31" t="s">
+      <c r="A420" s="28"/>
+      <c r="B420" s="30"/>
+      <c r="C420" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D420" s="10" t="s">
@@ -57826,9 +57826,9 @@
       </c>
     </row>
     <row r="421" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A421" s="33"/>
-      <c r="B421" s="35"/>
-      <c r="C421" s="33"/>
+      <c r="A421" s="28"/>
+      <c r="B421" s="30"/>
+      <c r="C421" s="28"/>
       <c r="D421" s="10" t="s">
         <v>769</v>
       </c>
@@ -57930,9 +57930,9 @@
       </c>
     </row>
     <row r="422" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A422" s="33"/>
-      <c r="B422" s="35"/>
-      <c r="C422" s="33"/>
+      <c r="A422" s="28"/>
+      <c r="B422" s="30"/>
+      <c r="C422" s="28"/>
       <c r="D422" s="10" t="s">
         <v>771</v>
       </c>
@@ -58034,9 +58034,9 @@
       </c>
     </row>
     <row r="423" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A423" s="33"/>
-      <c r="B423" s="35"/>
-      <c r="C423" s="33"/>
+      <c r="A423" s="28"/>
+      <c r="B423" s="30"/>
+      <c r="C423" s="28"/>
       <c r="D423" s="10" t="s">
         <v>775</v>
       </c>
@@ -58138,9 +58138,9 @@
       </c>
     </row>
     <row r="424" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A424" s="33"/>
-      <c r="B424" s="35"/>
-      <c r="C424" s="33"/>
+      <c r="A424" s="28"/>
+      <c r="B424" s="30"/>
+      <c r="C424" s="28"/>
       <c r="D424" s="10" t="s">
         <v>777</v>
       </c>
@@ -58242,9 +58242,9 @@
       </c>
     </row>
     <row r="425" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A425" s="33"/>
-      <c r="B425" s="35"/>
-      <c r="C425" s="33"/>
+      <c r="A425" s="28"/>
+      <c r="B425" s="30"/>
+      <c r="C425" s="28"/>
       <c r="D425" s="10" t="s">
         <v>780</v>
       </c>
@@ -58346,9 +58346,9 @@
       </c>
     </row>
     <row r="426" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A426" s="33"/>
-      <c r="B426" s="35"/>
-      <c r="C426" s="33"/>
+      <c r="A426" s="28"/>
+      <c r="B426" s="30"/>
+      <c r="C426" s="28"/>
       <c r="D426" s="10" t="s">
         <v>780</v>
       </c>
@@ -58450,9 +58450,9 @@
       </c>
     </row>
     <row r="427" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A427" s="33"/>
-      <c r="B427" s="35"/>
-      <c r="C427" s="33"/>
+      <c r="A427" s="28"/>
+      <c r="B427" s="30"/>
+      <c r="C427" s="28"/>
       <c r="D427" s="10" t="s">
         <v>783</v>
       </c>
@@ -58554,9 +58554,9 @@
       </c>
     </row>
     <row r="428" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A428" s="33"/>
-      <c r="B428" s="35"/>
-      <c r="C428" s="33"/>
+      <c r="A428" s="28"/>
+      <c r="B428" s="30"/>
+      <c r="C428" s="28"/>
       <c r="D428" s="10" t="s">
         <v>785</v>
       </c>
@@ -58658,9 +58658,9 @@
       </c>
     </row>
     <row r="429" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A429" s="33"/>
-      <c r="B429" s="35"/>
-      <c r="C429" s="33"/>
+      <c r="A429" s="28"/>
+      <c r="B429" s="30"/>
+      <c r="C429" s="28"/>
       <c r="D429" s="10" t="s">
         <v>785</v>
       </c>
@@ -58762,9 +58762,9 @@
       </c>
     </row>
     <row r="430" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A430" s="33"/>
-      <c r="B430" s="35"/>
-      <c r="C430" s="32"/>
+      <c r="A430" s="28"/>
+      <c r="B430" s="30"/>
+      <c r="C430" s="29"/>
       <c r="D430" s="10" t="s">
         <v>788</v>
       </c>
@@ -58866,9 +58866,9 @@
       </c>
     </row>
     <row r="431" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A431" s="33"/>
-      <c r="B431" s="35"/>
-      <c r="C431" s="31" t="s">
+      <c r="A431" s="28"/>
+      <c r="B431" s="30"/>
+      <c r="C431" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D431" s="10" t="s">
@@ -58972,9 +58972,9 @@
       </c>
     </row>
     <row r="432" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A432" s="33"/>
-      <c r="B432" s="35"/>
-      <c r="C432" s="32"/>
+      <c r="A432" s="28"/>
+      <c r="B432" s="30"/>
+      <c r="C432" s="29"/>
       <c r="D432" s="10" t="s">
         <v>793</v>
       </c>
@@ -59076,9 +59076,9 @@
       </c>
     </row>
     <row r="433" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A433" s="33"/>
-      <c r="B433" s="35"/>
-      <c r="C433" s="31" t="s">
+      <c r="A433" s="28"/>
+      <c r="B433" s="30"/>
+      <c r="C433" s="27" t="s">
         <v>794</v>
       </c>
       <c r="D433" s="10" t="s">
@@ -59182,9 +59182,9 @@
       </c>
     </row>
     <row r="434" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A434" s="33"/>
-      <c r="B434" s="35"/>
-      <c r="C434" s="33"/>
+      <c r="A434" s="28"/>
+      <c r="B434" s="30"/>
+      <c r="C434" s="28"/>
       <c r="D434" s="10" t="s">
         <v>798</v>
       </c>
@@ -59286,9 +59286,9 @@
       </c>
     </row>
     <row r="435" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A435" s="33"/>
-      <c r="B435" s="35"/>
-      <c r="C435" s="33"/>
+      <c r="A435" s="28"/>
+      <c r="B435" s="30"/>
+      <c r="C435" s="28"/>
       <c r="D435" s="10" t="s">
         <v>800</v>
       </c>
@@ -59390,9 +59390,9 @@
       </c>
     </row>
     <row r="436" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A436" s="33"/>
-      <c r="B436" s="35"/>
-      <c r="C436" s="32"/>
+      <c r="A436" s="28"/>
+      <c r="B436" s="30"/>
+      <c r="C436" s="29"/>
       <c r="D436" s="10" t="s">
         <v>801</v>
       </c>
@@ -59494,9 +59494,9 @@
       </c>
     </row>
     <row r="437" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A437" s="33"/>
-      <c r="B437" s="35"/>
-      <c r="C437" s="31" t="s">
+      <c r="A437" s="28"/>
+      <c r="B437" s="30"/>
+      <c r="C437" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D437" s="10" t="s">
@@ -59600,9 +59600,9 @@
       </c>
     </row>
     <row r="438" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A438" s="33"/>
-      <c r="B438" s="35"/>
-      <c r="C438" s="32"/>
+      <c r="A438" s="28"/>
+      <c r="B438" s="30"/>
+      <c r="C438" s="29"/>
       <c r="D438" s="10" t="s">
         <v>806</v>
       </c>
@@ -59704,9 +59704,9 @@
       </c>
     </row>
     <row r="439" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A439" s="33"/>
-      <c r="B439" s="35"/>
-      <c r="C439" s="31" t="s">
+      <c r="A439" s="28"/>
+      <c r="B439" s="30"/>
+      <c r="C439" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D439" s="5"/>
@@ -59744,9 +59744,9 @@
       <c r="AJ439" s="5"/>
     </row>
     <row r="440" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A440" s="33"/>
-      <c r="B440" s="35"/>
-      <c r="C440" s="32"/>
+      <c r="A440" s="28"/>
+      <c r="B440" s="30"/>
+      <c r="C440" s="29"/>
       <c r="D440" s="10" t="s">
         <v>807</v>
       </c>
@@ -59848,9 +59848,9 @@
       </c>
     </row>
     <row r="441" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A441" s="33"/>
-      <c r="B441" s="35"/>
-      <c r="C441" s="28" t="s">
+      <c r="A441" s="28"/>
+      <c r="B441" s="30"/>
+      <c r="C441" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D441" s="10" t="s">
@@ -59954,9 +59954,9 @@
       </c>
     </row>
     <row r="442" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A442" s="33"/>
-      <c r="B442" s="35"/>
-      <c r="C442" s="29"/>
+      <c r="A442" s="28"/>
+      <c r="B442" s="30"/>
+      <c r="C442" s="34"/>
       <c r="D442" s="10" t="s">
         <v>811</v>
       </c>
@@ -60058,9 +60058,9 @@
       </c>
     </row>
     <row r="443" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A443" s="33"/>
-      <c r="B443" s="35"/>
-      <c r="C443" s="29"/>
+      <c r="A443" s="28"/>
+      <c r="B443" s="30"/>
+      <c r="C443" s="34"/>
       <c r="D443" s="10" t="s">
         <v>811</v>
       </c>
@@ -60162,9 +60162,9 @@
       </c>
     </row>
     <row r="444" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A444" s="33"/>
-      <c r="B444" s="35"/>
-      <c r="C444" s="29"/>
+      <c r="A444" s="28"/>
+      <c r="B444" s="30"/>
+      <c r="C444" s="34"/>
       <c r="D444" s="10" t="s">
         <v>814</v>
       </c>
@@ -60266,9 +60266,9 @@
       </c>
     </row>
     <row r="445" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A445" s="33"/>
-      <c r="B445" s="35"/>
-      <c r="C445" s="29"/>
+      <c r="A445" s="28"/>
+      <c r="B445" s="30"/>
+      <c r="C445" s="34"/>
       <c r="D445" s="10" t="s">
         <v>815</v>
       </c>
@@ -60370,9 +60370,9 @@
       </c>
     </row>
     <row r="446" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A446" s="33"/>
-      <c r="B446" s="35"/>
-      <c r="C446" s="29"/>
+      <c r="A446" s="28"/>
+      <c r="B446" s="30"/>
+      <c r="C446" s="34"/>
       <c r="D446" s="10" t="s">
         <v>816</v>
       </c>
@@ -60474,9 +60474,9 @@
       </c>
     </row>
     <row r="447" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A447" s="33"/>
-      <c r="B447" s="35"/>
-      <c r="C447" s="29"/>
+      <c r="A447" s="28"/>
+      <c r="B447" s="30"/>
+      <c r="C447" s="34"/>
       <c r="D447" s="10" t="s">
         <v>817</v>
       </c>
@@ -60578,9 +60578,9 @@
       </c>
     </row>
     <row r="448" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A448" s="33"/>
-      <c r="B448" s="35"/>
-      <c r="C448" s="29"/>
+      <c r="A448" s="28"/>
+      <c r="B448" s="30"/>
+      <c r="C448" s="34"/>
       <c r="D448" s="10" t="s">
         <v>808</v>
       </c>
@@ -60682,9 +60682,9 @@
       </c>
     </row>
     <row r="449" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A449" s="33"/>
-      <c r="B449" s="35"/>
-      <c r="C449" s="29"/>
+      <c r="A449" s="28"/>
+      <c r="B449" s="30"/>
+      <c r="C449" s="34"/>
       <c r="D449" s="10" t="s">
         <v>814</v>
       </c>
@@ -60786,9 +60786,9 @@
       </c>
     </row>
     <row r="450" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A450" s="33"/>
-      <c r="B450" s="35"/>
-      <c r="C450" s="30"/>
+      <c r="A450" s="28"/>
+      <c r="B450" s="30"/>
+      <c r="C450" s="35"/>
       <c r="D450" s="10" t="s">
         <v>818</v>
       </c>
@@ -60890,8 +60890,8 @@
       </c>
     </row>
     <row r="451" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A451" s="33"/>
-      <c r="B451" s="35"/>
+      <c r="A451" s="28"/>
+      <c r="B451" s="30"/>
       <c r="C451" s="2" t="s">
         <v>412</v>
       </c>
@@ -60996,9 +60996,9 @@
       </c>
     </row>
     <row r="452" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A452" s="33"/>
-      <c r="B452" s="35"/>
-      <c r="C452" s="28" t="s">
+      <c r="A452" s="28"/>
+      <c r="B452" s="30"/>
+      <c r="C452" s="33" t="s">
         <v>421</v>
       </c>
       <c r="D452" s="10" t="s">
@@ -61102,9 +61102,9 @@
       </c>
     </row>
     <row r="453" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A453" s="33"/>
-      <c r="B453" s="35"/>
-      <c r="C453" s="29"/>
+      <c r="A453" s="28"/>
+      <c r="B453" s="30"/>
+      <c r="C453" s="34"/>
       <c r="D453" s="10" t="s">
         <v>821</v>
       </c>
@@ -61206,9 +61206,9 @@
       </c>
     </row>
     <row r="454" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A454" s="33"/>
-      <c r="B454" s="35"/>
-      <c r="C454" s="29"/>
+      <c r="A454" s="28"/>
+      <c r="B454" s="30"/>
+      <c r="C454" s="34"/>
       <c r="D454" s="10" t="s">
         <v>821</v>
       </c>
@@ -61310,9 +61310,9 @@
       </c>
     </row>
     <row r="455" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A455" s="33"/>
-      <c r="B455" s="35"/>
-      <c r="C455" s="30"/>
+      <c r="A455" s="28"/>
+      <c r="B455" s="30"/>
+      <c r="C455" s="35"/>
       <c r="D455" s="10" t="s">
         <v>822</v>
       </c>
@@ -61414,9 +61414,9 @@
       </c>
     </row>
     <row r="456" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A456" s="33"/>
-      <c r="B456" s="35"/>
-      <c r="C456" s="31" t="s">
+      <c r="A456" s="28"/>
+      <c r="B456" s="30"/>
+      <c r="C456" s="27" t="s">
         <v>186</v>
       </c>
       <c r="D456" s="10" t="s">
@@ -61520,9 +61520,9 @@
       </c>
     </row>
     <row r="457" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A457" s="33"/>
-      <c r="B457" s="35"/>
-      <c r="C457" s="33"/>
+      <c r="A457" s="28"/>
+      <c r="B457" s="30"/>
+      <c r="C457" s="28"/>
       <c r="D457" s="10" t="s">
         <v>826</v>
       </c>
@@ -61624,9 +61624,9 @@
       </c>
     </row>
     <row r="458" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A458" s="33"/>
-      <c r="B458" s="35"/>
-      <c r="C458" s="33"/>
+      <c r="A458" s="28"/>
+      <c r="B458" s="30"/>
+      <c r="C458" s="28"/>
       <c r="D458" s="10" t="s">
         <v>827</v>
       </c>
@@ -61728,9 +61728,9 @@
       </c>
     </row>
     <row r="459" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A459" s="33"/>
-      <c r="B459" s="35"/>
-      <c r="C459" s="33"/>
+      <c r="A459" s="28"/>
+      <c r="B459" s="30"/>
+      <c r="C459" s="28"/>
       <c r="D459" s="10" t="s">
         <v>830</v>
       </c>
@@ -61832,9 +61832,9 @@
       </c>
     </row>
     <row r="460" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A460" s="33"/>
-      <c r="B460" s="35"/>
-      <c r="C460" s="33"/>
+      <c r="A460" s="28"/>
+      <c r="B460" s="30"/>
+      <c r="C460" s="28"/>
       <c r="D460" s="10" t="s">
         <v>831</v>
       </c>
@@ -61936,9 +61936,9 @@
       </c>
     </row>
     <row r="461" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A461" s="33"/>
-      <c r="B461" s="35"/>
-      <c r="C461" s="33"/>
+      <c r="A461" s="28"/>
+      <c r="B461" s="30"/>
+      <c r="C461" s="28"/>
       <c r="D461" s="10" t="s">
         <v>833</v>
       </c>
@@ -62040,9 +62040,9 @@
       </c>
     </row>
     <row r="462" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A462" s="33"/>
-      <c r="B462" s="35"/>
-      <c r="C462" s="33"/>
+      <c r="A462" s="28"/>
+      <c r="B462" s="30"/>
+      <c r="C462" s="28"/>
       <c r="D462" s="10" t="s">
         <v>836</v>
       </c>
@@ -62144,9 +62144,9 @@
       </c>
     </row>
     <row r="463" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A463" s="33"/>
-      <c r="B463" s="35"/>
-      <c r="C463" s="32"/>
+      <c r="A463" s="28"/>
+      <c r="B463" s="30"/>
+      <c r="C463" s="29"/>
       <c r="D463" s="10" t="s">
         <v>838</v>
       </c>
@@ -62248,11 +62248,11 @@
       </c>
     </row>
     <row r="464" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A464" s="33"/>
-      <c r="B464" s="34" t="s">
+      <c r="A464" s="28"/>
+      <c r="B464" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C464" s="31" t="s">
+      <c r="C464" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D464" s="10" t="s">
@@ -62356,9 +62356,9 @@
       </c>
     </row>
     <row r="465" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A465" s="33"/>
-      <c r="B465" s="35"/>
-      <c r="C465" s="32"/>
+      <c r="A465" s="28"/>
+      <c r="B465" s="30"/>
+      <c r="C465" s="29"/>
       <c r="D465" s="10" t="s">
         <v>842</v>
       </c>
@@ -62460,9 +62460,9 @@
       </c>
     </row>
     <row r="466" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A466" s="33"/>
-      <c r="B466" s="35"/>
-      <c r="C466" s="31" t="s">
+      <c r="A466" s="28"/>
+      <c r="B466" s="30"/>
+      <c r="C466" s="27" t="s">
         <v>794</v>
       </c>
       <c r="D466" s="5"/>
@@ -62500,9 +62500,9 @@
       <c r="AJ466" s="5"/>
     </row>
     <row r="467" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A467" s="33"/>
-      <c r="B467" s="35"/>
-      <c r="C467" s="32"/>
+      <c r="A467" s="28"/>
+      <c r="B467" s="30"/>
+      <c r="C467" s="29"/>
       <c r="D467" s="10" t="s">
         <v>843</v>
       </c>
@@ -62604,9 +62604,9 @@
       </c>
     </row>
     <row r="468" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A468" s="33"/>
-      <c r="B468" s="35"/>
-      <c r="C468" s="31" t="s">
+      <c r="A468" s="28"/>
+      <c r="B468" s="30"/>
+      <c r="C468" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D468" s="10" t="s">
@@ -62710,9 +62710,9 @@
       </c>
     </row>
     <row r="469" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A469" s="33"/>
-      <c r="B469" s="35"/>
-      <c r="C469" s="32"/>
+      <c r="A469" s="28"/>
+      <c r="B469" s="30"/>
+      <c r="C469" s="29"/>
       <c r="D469" s="10" t="s">
         <v>848</v>
       </c>
@@ -62814,8 +62814,8 @@
       </c>
     </row>
     <row r="470" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A470" s="33"/>
-      <c r="B470" s="35"/>
+      <c r="A470" s="28"/>
+      <c r="B470" s="30"/>
       <c r="C470" s="2" t="s">
         <v>849</v>
       </c>
@@ -62920,9 +62920,9 @@
       </c>
     </row>
     <row r="471" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A471" s="33"/>
-      <c r="B471" s="35"/>
-      <c r="C471" s="31" t="s">
+      <c r="A471" s="28"/>
+      <c r="B471" s="30"/>
+      <c r="C471" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D471" s="5"/>
@@ -62960,9 +62960,9 @@
       <c r="AJ471" s="5"/>
     </row>
     <row r="472" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A472" s="33"/>
-      <c r="B472" s="35"/>
-      <c r="C472" s="33"/>
+      <c r="A472" s="28"/>
+      <c r="B472" s="30"/>
+      <c r="C472" s="28"/>
       <c r="D472" s="10" t="s">
         <v>852</v>
       </c>
@@ -63064,9 +63064,9 @@
       </c>
     </row>
     <row r="473" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A473" s="33"/>
-      <c r="B473" s="35"/>
-      <c r="C473" s="33"/>
+      <c r="A473" s="28"/>
+      <c r="B473" s="30"/>
+      <c r="C473" s="28"/>
       <c r="D473" s="10" t="s">
         <v>853</v>
       </c>
@@ -63168,9 +63168,9 @@
       </c>
     </row>
     <row r="474" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A474" s="33"/>
-      <c r="B474" s="35"/>
-      <c r="C474" s="33"/>
+      <c r="A474" s="28"/>
+      <c r="B474" s="30"/>
+      <c r="C474" s="28"/>
       <c r="D474" s="10" t="s">
         <v>854</v>
       </c>
@@ -63272,9 +63272,9 @@
       </c>
     </row>
     <row r="475" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A475" s="33"/>
-      <c r="B475" s="35"/>
-      <c r="C475" s="32"/>
+      <c r="A475" s="28"/>
+      <c r="B475" s="30"/>
+      <c r="C475" s="29"/>
       <c r="D475" s="10" t="s">
         <v>855</v>
       </c>
@@ -63376,13 +63376,13 @@
       </c>
     </row>
     <row r="476" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A476" s="31" t="s">
+      <c r="A476" s="27" t="s">
         <v>856</v>
       </c>
       <c r="B476" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="C476" s="28" t="s">
+      <c r="C476" s="33" t="s">
         <v>858</v>
       </c>
       <c r="D476" s="10" t="s">
@@ -63486,9 +63486,9 @@
       </c>
     </row>
     <row r="477" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A477" s="33"/>
-      <c r="B477" s="36"/>
-      <c r="C477" s="29"/>
+      <c r="A477" s="28"/>
+      <c r="B477" s="26"/>
+      <c r="C477" s="34"/>
       <c r="D477" s="10" t="s">
         <v>862</v>
       </c>
@@ -63590,9 +63590,9 @@
       </c>
     </row>
     <row r="478" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A478" s="33"/>
-      <c r="B478" s="36"/>
-      <c r="C478" s="30"/>
+      <c r="A478" s="28"/>
+      <c r="B478" s="26"/>
+      <c r="C478" s="35"/>
       <c r="D478" s="10" t="s">
         <v>865</v>
       </c>
@@ -63694,9 +63694,9 @@
       </c>
     </row>
     <row r="479" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A479" s="33"/>
-      <c r="B479" s="36"/>
-      <c r="C479" s="31" t="s">
+      <c r="A479" s="28"/>
+      <c r="B479" s="26"/>
+      <c r="C479" s="27" t="s">
         <v>866</v>
       </c>
       <c r="D479" s="10" t="s">
@@ -63800,9 +63800,9 @@
       </c>
     </row>
     <row r="480" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A480" s="33"/>
-      <c r="B480" s="36"/>
-      <c r="C480" s="33"/>
+      <c r="A480" s="28"/>
+      <c r="B480" s="26"/>
+      <c r="C480" s="28"/>
       <c r="D480" s="10" t="s">
         <v>870</v>
       </c>
@@ -63904,9 +63904,9 @@
       </c>
     </row>
     <row r="481" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A481" s="33"/>
-      <c r="B481" s="36"/>
-      <c r="C481" s="33"/>
+      <c r="A481" s="28"/>
+      <c r="B481" s="26"/>
+      <c r="C481" s="28"/>
       <c r="D481" s="10" t="s">
         <v>871</v>
       </c>
@@ -64008,9 +64008,9 @@
       </c>
     </row>
     <row r="482" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A482" s="33"/>
-      <c r="B482" s="36"/>
-      <c r="C482" s="32"/>
+      <c r="A482" s="28"/>
+      <c r="B482" s="26"/>
+      <c r="C482" s="29"/>
       <c r="D482" s="10" t="s">
         <v>874</v>
       </c>
@@ -64112,9 +64112,9 @@
       </c>
     </row>
     <row r="483" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A483" s="33"/>
-      <c r="B483" s="36"/>
-      <c r="C483" s="31" t="s">
+      <c r="A483" s="28"/>
+      <c r="B483" s="26"/>
+      <c r="C483" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D483" s="10" t="s">
@@ -64218,9 +64218,9 @@
       </c>
     </row>
     <row r="484" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A484" s="33"/>
-      <c r="B484" s="36"/>
-      <c r="C484" s="32"/>
+      <c r="A484" s="28"/>
+      <c r="B484" s="26"/>
+      <c r="C484" s="29"/>
       <c r="D484" s="10" t="s">
         <v>880</v>
       </c>
@@ -64322,8 +64322,8 @@
       </c>
     </row>
     <row r="485" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A485" s="33"/>
-      <c r="B485" s="36"/>
+      <c r="A485" s="28"/>
+      <c r="B485" s="26"/>
       <c r="C485" s="2" t="s">
         <v>883</v>
       </c>
@@ -64428,11 +64428,11 @@
       </c>
     </row>
     <row r="486" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A486" s="33"/>
-      <c r="B486" s="37" t="s">
+      <c r="A486" s="28"/>
+      <c r="B486" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="C486" s="31" t="s">
+      <c r="C486" s="27" t="s">
         <v>866</v>
       </c>
       <c r="D486" s="5"/>
@@ -64470,9 +64470,9 @@
       <c r="AJ486" s="5"/>
     </row>
     <row r="487" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A487" s="33"/>
-      <c r="B487" s="38"/>
-      <c r="C487" s="33"/>
+      <c r="A487" s="28"/>
+      <c r="B487" s="39"/>
+      <c r="C487" s="28"/>
       <c r="D487" s="10" t="s">
         <v>888</v>
       </c>
@@ -64574,9 +64574,9 @@
       </c>
     </row>
     <row r="488" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A488" s="33"/>
-      <c r="B488" s="38"/>
-      <c r="C488" s="32"/>
+      <c r="A488" s="28"/>
+      <c r="B488" s="39"/>
+      <c r="C488" s="29"/>
       <c r="D488" s="10" t="s">
         <v>889</v>
       </c>
@@ -64678,9 +64678,9 @@
       </c>
     </row>
     <row r="489" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A489" s="33"/>
-      <c r="B489" s="38"/>
-      <c r="C489" s="31" t="s">
+      <c r="A489" s="28"/>
+      <c r="B489" s="39"/>
+      <c r="C489" s="27" t="s">
         <v>890</v>
       </c>
       <c r="D489" s="10" t="s">
@@ -64784,9 +64784,9 @@
       </c>
     </row>
     <row r="490" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A490" s="33"/>
-      <c r="B490" s="38"/>
-      <c r="C490" s="32"/>
+      <c r="A490" s="28"/>
+      <c r="B490" s="39"/>
+      <c r="C490" s="29"/>
       <c r="D490" s="10" t="s">
         <v>896</v>
       </c>
@@ -64888,9 +64888,9 @@
       </c>
     </row>
     <row r="491" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A491" s="33"/>
-      <c r="B491" s="38"/>
-      <c r="C491" s="28" t="s">
+      <c r="A491" s="28"/>
+      <c r="B491" s="39"/>
+      <c r="C491" s="33" t="s">
         <v>899</v>
       </c>
       <c r="D491" s="10" t="s">
@@ -64994,9 +64994,9 @@
       </c>
     </row>
     <row r="492" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A492" s="33"/>
-      <c r="B492" s="38"/>
-      <c r="C492" s="29"/>
+      <c r="A492" s="28"/>
+      <c r="B492" s="39"/>
+      <c r="C492" s="34"/>
       <c r="D492" s="10" t="s">
         <v>904</v>
       </c>
@@ -65098,9 +65098,9 @@
       </c>
     </row>
     <row r="493" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A493" s="33"/>
-      <c r="B493" s="38"/>
-      <c r="C493" s="29"/>
+      <c r="A493" s="28"/>
+      <c r="B493" s="39"/>
+      <c r="C493" s="34"/>
       <c r="D493" s="10" t="s">
         <v>906</v>
       </c>
@@ -65202,9 +65202,9 @@
       </c>
     </row>
     <row r="494" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A494" s="33"/>
-      <c r="B494" s="38"/>
-      <c r="C494" s="29"/>
+      <c r="A494" s="28"/>
+      <c r="B494" s="39"/>
+      <c r="C494" s="34"/>
       <c r="D494" s="10" t="s">
         <v>908</v>
       </c>
@@ -65306,9 +65306,9 @@
       </c>
     </row>
     <row r="495" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A495" s="33"/>
-      <c r="B495" s="38"/>
-      <c r="C495" s="29"/>
+      <c r="A495" s="28"/>
+      <c r="B495" s="39"/>
+      <c r="C495" s="34"/>
       <c r="D495" s="10" t="s">
         <v>909</v>
       </c>
@@ -65410,9 +65410,9 @@
       </c>
     </row>
     <row r="496" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A496" s="33"/>
-      <c r="B496" s="38"/>
-      <c r="C496" s="29"/>
+      <c r="A496" s="28"/>
+      <c r="B496" s="39"/>
+      <c r="C496" s="34"/>
       <c r="D496" s="10" t="s">
         <v>913</v>
       </c>
@@ -65514,9 +65514,9 @@
       </c>
     </row>
     <row r="497" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A497" s="33"/>
-      <c r="B497" s="38"/>
-      <c r="C497" s="29"/>
+      <c r="A497" s="28"/>
+      <c r="B497" s="39"/>
+      <c r="C497" s="34"/>
       <c r="D497" s="10" t="s">
         <v>915</v>
       </c>
@@ -65618,9 +65618,9 @@
       </c>
     </row>
     <row r="498" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A498" s="33"/>
-      <c r="B498" s="38"/>
-      <c r="C498" s="30"/>
+      <c r="A498" s="28"/>
+      <c r="B498" s="39"/>
+      <c r="C498" s="35"/>
       <c r="D498" s="10" t="s">
         <v>917</v>
       </c>
@@ -65722,11 +65722,11 @@
       </c>
     </row>
     <row r="499" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A499" s="33"/>
+      <c r="A499" s="28"/>
       <c r="B499" s="25" t="s">
         <v>919</v>
       </c>
-      <c r="C499" s="31" t="s">
+      <c r="C499" s="27" t="s">
         <v>890</v>
       </c>
       <c r="D499" s="10" t="s">
@@ -65830,9 +65830,9 @@
       </c>
     </row>
     <row r="500" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A500" s="33"/>
-      <c r="B500" s="36"/>
-      <c r="C500" s="32"/>
+      <c r="A500" s="28"/>
+      <c r="B500" s="26"/>
+      <c r="C500" s="29"/>
       <c r="D500" s="10" t="s">
         <v>924</v>
       </c>
@@ -65934,13 +65934,13 @@
       </c>
     </row>
     <row r="501" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A501" s="28" t="s">
+      <c r="A501" s="33" t="s">
         <v>926</v>
       </c>
       <c r="B501" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="C501" s="31" t="s">
+      <c r="C501" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D501" s="10" t="s">
@@ -66044,9 +66044,9 @@
       </c>
     </row>
     <row r="502" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A502" s="29"/>
-      <c r="B502" s="36"/>
-      <c r="C502" s="33"/>
+      <c r="A502" s="34"/>
+      <c r="B502" s="26"/>
+      <c r="C502" s="28"/>
       <c r="D502" s="10" t="s">
         <v>931</v>
       </c>
@@ -66148,9 +66148,9 @@
       </c>
     </row>
     <row r="503" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A503" s="29"/>
-      <c r="B503" s="36"/>
-      <c r="C503" s="33"/>
+      <c r="A503" s="34"/>
+      <c r="B503" s="26"/>
+      <c r="C503" s="28"/>
       <c r="D503" s="10" t="s">
         <v>933</v>
       </c>
@@ -66252,9 +66252,9 @@
       </c>
     </row>
     <row r="504" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A504" s="29"/>
-      <c r="B504" s="36"/>
-      <c r="C504" s="33"/>
+      <c r="A504" s="34"/>
+      <c r="B504" s="26"/>
+      <c r="C504" s="28"/>
       <c r="D504" s="10" t="s">
         <v>934</v>
       </c>
@@ -66356,9 +66356,9 @@
       </c>
     </row>
     <row r="505" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A505" s="29"/>
-      <c r="B505" s="36"/>
-      <c r="C505" s="33"/>
+      <c r="A505" s="34"/>
+      <c r="B505" s="26"/>
+      <c r="C505" s="28"/>
       <c r="D505" s="10" t="s">
         <v>936</v>
       </c>
@@ -66460,9 +66460,9 @@
       </c>
     </row>
     <row r="506" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A506" s="29"/>
-      <c r="B506" s="36"/>
-      <c r="C506" s="32"/>
+      <c r="A506" s="34"/>
+      <c r="B506" s="26"/>
+      <c r="C506" s="29"/>
       <c r="D506" s="10" t="s">
         <v>937</v>
       </c>
@@ -66564,9 +66564,9 @@
       </c>
     </row>
     <row r="507" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A507" s="29"/>
-      <c r="B507" s="36"/>
-      <c r="C507" s="31" t="s">
+      <c r="A507" s="34"/>
+      <c r="B507" s="26"/>
+      <c r="C507" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D507" s="10" t="s">
@@ -66670,9 +66670,9 @@
       </c>
     </row>
     <row r="508" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A508" s="29"/>
-      <c r="B508" s="36"/>
-      <c r="C508" s="33"/>
+      <c r="A508" s="34"/>
+      <c r="B508" s="26"/>
+      <c r="C508" s="28"/>
       <c r="D508" s="10" t="s">
         <v>939</v>
       </c>
@@ -66774,9 +66774,9 @@
       </c>
     </row>
     <row r="509" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A509" s="29"/>
-      <c r="B509" s="36"/>
-      <c r="C509" s="32"/>
+      <c r="A509" s="34"/>
+      <c r="B509" s="26"/>
+      <c r="C509" s="29"/>
       <c r="D509" s="10" t="s">
         <v>940</v>
       </c>
@@ -66878,9 +66878,9 @@
       </c>
     </row>
     <row r="510" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A510" s="29"/>
-      <c r="B510" s="36"/>
-      <c r="C510" s="31" t="s">
+      <c r="A510" s="34"/>
+      <c r="B510" s="26"/>
+      <c r="C510" s="27" t="s">
         <v>379</v>
       </c>
       <c r="D510" s="10" t="s">
@@ -66984,9 +66984,9 @@
       </c>
     </row>
     <row r="511" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A511" s="29"/>
-      <c r="B511" s="36"/>
-      <c r="C511" s="32"/>
+      <c r="A511" s="34"/>
+      <c r="B511" s="26"/>
+      <c r="C511" s="29"/>
       <c r="D511" s="10" t="s">
         <v>945</v>
       </c>
@@ -67088,9 +67088,9 @@
       </c>
     </row>
     <row r="512" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A512" s="29"/>
-      <c r="B512" s="36"/>
-      <c r="C512" s="28" t="s">
+      <c r="A512" s="34"/>
+      <c r="B512" s="26"/>
+      <c r="C512" s="33" t="s">
         <v>421</v>
       </c>
       <c r="D512" s="10" t="s">
@@ -67194,9 +67194,9 @@
       </c>
     </row>
     <row r="513" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A513" s="29"/>
-      <c r="B513" s="36"/>
-      <c r="C513" s="29"/>
+      <c r="A513" s="34"/>
+      <c r="B513" s="26"/>
+      <c r="C513" s="34"/>
       <c r="D513" s="10" t="s">
         <v>946</v>
       </c>
@@ -67298,9 +67298,9 @@
       </c>
     </row>
     <row r="514" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A514" s="29"/>
-      <c r="B514" s="36"/>
-      <c r="C514" s="29"/>
+      <c r="A514" s="34"/>
+      <c r="B514" s="26"/>
+      <c r="C514" s="34"/>
       <c r="D514" s="10" t="s">
         <v>951</v>
       </c>
@@ -67402,9 +67402,9 @@
       </c>
     </row>
     <row r="515" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A515" s="29"/>
-      <c r="B515" s="36"/>
-      <c r="C515" s="29"/>
+      <c r="A515" s="34"/>
+      <c r="B515" s="26"/>
+      <c r="C515" s="34"/>
       <c r="D515" s="10" t="s">
         <v>952</v>
       </c>
@@ -67506,9 +67506,9 @@
       </c>
     </row>
     <row r="516" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A516" s="29"/>
-      <c r="B516" s="36"/>
-      <c r="C516" s="29"/>
+      <c r="A516" s="34"/>
+      <c r="B516" s="26"/>
+      <c r="C516" s="34"/>
       <c r="D516" s="10" t="s">
         <v>954</v>
       </c>
@@ -67610,9 +67610,9 @@
       </c>
     </row>
     <row r="517" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A517" s="29"/>
-      <c r="B517" s="36"/>
-      <c r="C517" s="30"/>
+      <c r="A517" s="34"/>
+      <c r="B517" s="26"/>
+      <c r="C517" s="35"/>
       <c r="D517" s="10" t="s">
         <v>955</v>
       </c>
@@ -67714,9 +67714,9 @@
       </c>
     </row>
     <row r="518" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A518" s="29"/>
-      <c r="B518" s="36"/>
-      <c r="C518" s="31" t="s">
+      <c r="A518" s="34"/>
+      <c r="B518" s="26"/>
+      <c r="C518" s="27" t="s">
         <v>463</v>
       </c>
       <c r="D518" s="10" t="s">
@@ -67820,9 +67820,9 @@
       </c>
     </row>
     <row r="519" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A519" s="29"/>
-      <c r="B519" s="36"/>
-      <c r="C519" s="33"/>
+      <c r="A519" s="34"/>
+      <c r="B519" s="26"/>
+      <c r="C519" s="28"/>
       <c r="D519" s="10" t="s">
         <v>959</v>
       </c>
@@ -67924,9 +67924,9 @@
       </c>
     </row>
     <row r="520" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A520" s="29"/>
-      <c r="B520" s="36"/>
-      <c r="C520" s="32"/>
+      <c r="A520" s="34"/>
+      <c r="B520" s="26"/>
+      <c r="C520" s="29"/>
       <c r="D520" s="10" t="s">
         <v>960</v>
       </c>
@@ -68028,8 +68028,8 @@
       </c>
     </row>
     <row r="521" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A521" s="29"/>
-      <c r="B521" s="36"/>
+      <c r="A521" s="34"/>
+      <c r="B521" s="26"/>
       <c r="C521" s="2" t="s">
         <v>294</v>
       </c>
@@ -68134,9 +68134,9 @@
       </c>
     </row>
     <row r="522" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A522" s="29"/>
-      <c r="B522" s="36"/>
-      <c r="C522" s="31" t="s">
+      <c r="A522" s="34"/>
+      <c r="B522" s="26"/>
+      <c r="C522" s="27" t="s">
         <v>883</v>
       </c>
       <c r="D522" s="10" t="s">
@@ -68240,9 +68240,9 @@
       </c>
     </row>
     <row r="523" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A523" s="29"/>
-      <c r="B523" s="36"/>
-      <c r="C523" s="33"/>
+      <c r="A523" s="34"/>
+      <c r="B523" s="26"/>
+      <c r="C523" s="28"/>
       <c r="D523" s="10" t="s">
         <v>967</v>
       </c>
@@ -68344,9 +68344,9 @@
       </c>
     </row>
     <row r="524" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A524" s="29"/>
-      <c r="B524" s="36"/>
-      <c r="C524" s="32"/>
+      <c r="A524" s="34"/>
+      <c r="B524" s="26"/>
+      <c r="C524" s="29"/>
       <c r="D524" s="10" t="s">
         <v>969</v>
       </c>
@@ -68448,9 +68448,9 @@
       </c>
     </row>
     <row r="525" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A525" s="29"/>
-      <c r="B525" s="36"/>
-      <c r="C525" s="31" t="s">
+      <c r="A525" s="34"/>
+      <c r="B525" s="26"/>
+      <c r="C525" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D525" s="10" t="s">
@@ -68554,9 +68554,9 @@
       </c>
     </row>
     <row r="526" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A526" s="29"/>
-      <c r="B526" s="36"/>
-      <c r="C526" s="33"/>
+      <c r="A526" s="34"/>
+      <c r="B526" s="26"/>
+      <c r="C526" s="28"/>
       <c r="D526" s="10" t="s">
         <v>975</v>
       </c>
@@ -68658,9 +68658,9 @@
       </c>
     </row>
     <row r="527" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A527" s="29"/>
-      <c r="B527" s="36"/>
-      <c r="C527" s="33"/>
+      <c r="A527" s="34"/>
+      <c r="B527" s="26"/>
+      <c r="C527" s="28"/>
       <c r="D527" s="10" t="s">
         <v>978</v>
       </c>
@@ -68762,9 +68762,9 @@
       </c>
     </row>
     <row r="528" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A528" s="29"/>
-      <c r="B528" s="36"/>
-      <c r="C528" s="33"/>
+      <c r="A528" s="34"/>
+      <c r="B528" s="26"/>
+      <c r="C528" s="28"/>
       <c r="D528" s="10" t="s">
         <v>981</v>
       </c>
@@ -68866,9 +68866,9 @@
       </c>
     </row>
     <row r="529" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A529" s="29"/>
-      <c r="B529" s="36"/>
-      <c r="C529" s="33"/>
+      <c r="A529" s="34"/>
+      <c r="B529" s="26"/>
+      <c r="C529" s="28"/>
       <c r="D529" s="10" t="s">
         <v>983</v>
       </c>
@@ -68970,9 +68970,9 @@
       </c>
     </row>
     <row r="530" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A530" s="29"/>
-      <c r="B530" s="36"/>
-      <c r="C530" s="33"/>
+      <c r="A530" s="34"/>
+      <c r="B530" s="26"/>
+      <c r="C530" s="28"/>
       <c r="D530" s="10" t="s">
         <v>984</v>
       </c>
@@ -69074,9 +69074,9 @@
       </c>
     </row>
     <row r="531" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A531" s="29"/>
-      <c r="B531" s="36"/>
-      <c r="C531" s="32"/>
+      <c r="A531" s="34"/>
+      <c r="B531" s="26"/>
+      <c r="C531" s="29"/>
       <c r="D531" s="10" t="s">
         <v>985</v>
       </c>
@@ -69178,8 +69178,8 @@
       </c>
     </row>
     <row r="532" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A532" s="29"/>
-      <c r="B532" s="36"/>
+      <c r="A532" s="34"/>
+      <c r="B532" s="26"/>
       <c r="C532" s="2" t="s">
         <v>559</v>
       </c>
@@ -69284,7 +69284,7 @@
       </c>
     </row>
     <row r="533" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A533" s="40" t="s">
+      <c r="A533" s="36" t="s">
         <v>987</v>
       </c>
       <c r="B533" s="25" t="s">
@@ -69394,9 +69394,9 @@
       </c>
     </row>
     <row r="534" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A534" s="41"/>
-      <c r="B534" s="36"/>
-      <c r="C534" s="31" t="s">
+      <c r="A534" s="37"/>
+      <c r="B534" s="26"/>
+      <c r="C534" s="27" t="s">
         <v>866</v>
       </c>
       <c r="D534" s="10" t="s">
@@ -69500,9 +69500,9 @@
       </c>
     </row>
     <row r="535" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A535" s="41"/>
-      <c r="B535" s="36"/>
-      <c r="C535" s="33"/>
+      <c r="A535" s="37"/>
+      <c r="B535" s="26"/>
+      <c r="C535" s="28"/>
       <c r="D535" s="10" t="s">
         <v>996</v>
       </c>
@@ -69604,9 +69604,9 @@
       </c>
     </row>
     <row r="536" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A536" s="41"/>
-      <c r="B536" s="36"/>
-      <c r="C536" s="33"/>
+      <c r="A536" s="37"/>
+      <c r="B536" s="26"/>
+      <c r="C536" s="28"/>
       <c r="D536" s="10" t="s">
         <v>997</v>
       </c>
@@ -69708,9 +69708,9 @@
       </c>
     </row>
     <row r="537" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A537" s="41"/>
-      <c r="B537" s="36"/>
-      <c r="C537" s="33"/>
+      <c r="A537" s="37"/>
+      <c r="B537" s="26"/>
+      <c r="C537" s="28"/>
       <c r="D537" s="10" t="s">
         <v>998</v>
       </c>
@@ -69812,9 +69812,9 @@
       </c>
     </row>
     <row r="538" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A538" s="41"/>
-      <c r="B538" s="36"/>
-      <c r="C538" s="33"/>
+      <c r="A538" s="37"/>
+      <c r="B538" s="26"/>
+      <c r="C538" s="28"/>
       <c r="D538" s="10" t="s">
         <v>999</v>
       </c>
@@ -69916,9 +69916,9 @@
       </c>
     </row>
     <row r="539" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A539" s="41"/>
-      <c r="B539" s="36"/>
-      <c r="C539" s="33"/>
+      <c r="A539" s="37"/>
+      <c r="B539" s="26"/>
+      <c r="C539" s="28"/>
       <c r="D539" s="10" t="s">
         <v>1000</v>
       </c>
@@ -70020,9 +70020,9 @@
       </c>
     </row>
     <row r="540" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A540" s="41"/>
-      <c r="B540" s="36"/>
-      <c r="C540" s="32"/>
+      <c r="A540" s="37"/>
+      <c r="B540" s="26"/>
+      <c r="C540" s="29"/>
       <c r="D540" s="10" t="s">
         <v>1001</v>
       </c>
@@ -70124,9 +70124,9 @@
       </c>
     </row>
     <row r="541" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A541" s="41"/>
-      <c r="B541" s="36"/>
-      <c r="C541" s="31" t="s">
+      <c r="A541" s="37"/>
+      <c r="B541" s="26"/>
+      <c r="C541" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D541" s="5"/>
@@ -70164,9 +70164,9 @@
       <c r="AJ541" s="5"/>
     </row>
     <row r="542" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A542" s="41"/>
-      <c r="B542" s="36"/>
-      <c r="C542" s="33"/>
+      <c r="A542" s="37"/>
+      <c r="B542" s="26"/>
+      <c r="C542" s="28"/>
       <c r="D542" s="10" t="s">
         <v>1002</v>
       </c>
@@ -70268,9 +70268,9 @@
       </c>
     </row>
     <row r="543" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A543" s="41"/>
-      <c r="B543" s="36"/>
-      <c r="C543" s="33"/>
+      <c r="A543" s="37"/>
+      <c r="B543" s="26"/>
+      <c r="C543" s="28"/>
       <c r="D543" s="10" t="s">
         <v>1004</v>
       </c>
@@ -70372,9 +70372,9 @@
       </c>
     </row>
     <row r="544" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A544" s="41"/>
-      <c r="B544" s="36"/>
-      <c r="C544" s="33"/>
+      <c r="A544" s="37"/>
+      <c r="B544" s="26"/>
+      <c r="C544" s="28"/>
       <c r="D544" s="10" t="s">
         <v>1005</v>
       </c>
@@ -70476,9 +70476,9 @@
       </c>
     </row>
     <row r="545" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A545" s="41"/>
-      <c r="B545" s="36"/>
-      <c r="C545" s="32"/>
+      <c r="A545" s="37"/>
+      <c r="B545" s="26"/>
+      <c r="C545" s="29"/>
       <c r="D545" s="10" t="s">
         <v>1008</v>
       </c>
@@ -70580,9 +70580,9 @@
       </c>
     </row>
     <row r="546" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A546" s="41"/>
-      <c r="B546" s="36"/>
-      <c r="C546" s="28" t="s">
+      <c r="A546" s="37"/>
+      <c r="B546" s="26"/>
+      <c r="C546" s="33" t="s">
         <v>858</v>
       </c>
       <c r="D546" s="10" t="s">
@@ -70686,9 +70686,9 @@
       </c>
     </row>
     <row r="547" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A547" s="41"/>
-      <c r="B547" s="36"/>
-      <c r="C547" s="29"/>
+      <c r="A547" s="37"/>
+      <c r="B547" s="26"/>
+      <c r="C547" s="34"/>
       <c r="D547" s="10" t="s">
         <v>1013</v>
       </c>
@@ -70790,9 +70790,9 @@
       </c>
     </row>
     <row r="548" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A548" s="41"/>
-      <c r="B548" s="36"/>
-      <c r="C548" s="29"/>
+      <c r="A548" s="37"/>
+      <c r="B548" s="26"/>
+      <c r="C548" s="34"/>
       <c r="D548" s="10" t="s">
         <v>1014</v>
       </c>
@@ -70894,9 +70894,9 @@
       </c>
     </row>
     <row r="549" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A549" s="41"/>
-      <c r="B549" s="36"/>
-      <c r="C549" s="29"/>
+      <c r="A549" s="37"/>
+      <c r="B549" s="26"/>
+      <c r="C549" s="34"/>
       <c r="D549" s="10" t="s">
         <v>1017</v>
       </c>
@@ -70998,9 +70998,9 @@
       </c>
     </row>
     <row r="550" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A550" s="41"/>
-      <c r="B550" s="36"/>
-      <c r="C550" s="29"/>
+      <c r="A550" s="37"/>
+      <c r="B550" s="26"/>
+      <c r="C550" s="34"/>
       <c r="D550" s="10" t="s">
         <v>1020</v>
       </c>
@@ -71102,9 +71102,9 @@
       </c>
     </row>
     <row r="551" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A551" s="41"/>
-      <c r="B551" s="36"/>
-      <c r="C551" s="29"/>
+      <c r="A551" s="37"/>
+      <c r="B551" s="26"/>
+      <c r="C551" s="34"/>
       <c r="D551" s="10" t="s">
         <v>1022</v>
       </c>
@@ -71206,9 +71206,9 @@
       </c>
     </row>
     <row r="552" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A552" s="41"/>
-      <c r="B552" s="36"/>
-      <c r="C552" s="29"/>
+      <c r="A552" s="37"/>
+      <c r="B552" s="26"/>
+      <c r="C552" s="34"/>
       <c r="D552" s="10" t="s">
         <v>1023</v>
       </c>
@@ -71310,9 +71310,9 @@
       </c>
     </row>
     <row r="553" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A553" s="41"/>
-      <c r="B553" s="36"/>
-      <c r="C553" s="29"/>
+      <c r="A553" s="37"/>
+      <c r="B553" s="26"/>
+      <c r="C553" s="34"/>
       <c r="D553" s="10" t="s">
         <v>1024</v>
       </c>
@@ -71414,9 +71414,9 @@
       </c>
     </row>
     <row r="554" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A554" s="41"/>
-      <c r="B554" s="36"/>
-      <c r="C554" s="29"/>
+      <c r="A554" s="37"/>
+      <c r="B554" s="26"/>
+      <c r="C554" s="34"/>
       <c r="D554" s="10" t="s">
         <v>1025</v>
       </c>
@@ -71518,9 +71518,9 @@
       </c>
     </row>
     <row r="555" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A555" s="41"/>
-      <c r="B555" s="36"/>
-      <c r="C555" s="29"/>
+      <c r="A555" s="37"/>
+      <c r="B555" s="26"/>
+      <c r="C555" s="34"/>
       <c r="D555" s="10" t="s">
         <v>1026</v>
       </c>
@@ -71622,9 +71622,9 @@
       </c>
     </row>
     <row r="556" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A556" s="41"/>
-      <c r="B556" s="36"/>
-      <c r="C556" s="29"/>
+      <c r="A556" s="37"/>
+      <c r="B556" s="26"/>
+      <c r="C556" s="34"/>
       <c r="D556" s="10" t="s">
         <v>1027</v>
       </c>
@@ -71726,9 +71726,9 @@
       </c>
     </row>
     <row r="557" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A557" s="41"/>
-      <c r="B557" s="36"/>
-      <c r="C557" s="29"/>
+      <c r="A557" s="37"/>
+      <c r="B557" s="26"/>
+      <c r="C557" s="34"/>
       <c r="D557" s="10" t="s">
         <v>1029</v>
       </c>
@@ -71830,9 +71830,9 @@
       </c>
     </row>
     <row r="558" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A558" s="41"/>
-      <c r="B558" s="36"/>
-      <c r="C558" s="29"/>
+      <c r="A558" s="37"/>
+      <c r="B558" s="26"/>
+      <c r="C558" s="34"/>
       <c r="D558" s="10" t="s">
         <v>1031</v>
       </c>
@@ -71934,9 +71934,9 @@
       </c>
     </row>
     <row r="559" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A559" s="41"/>
-      <c r="B559" s="36"/>
-      <c r="C559" s="29"/>
+      <c r="A559" s="37"/>
+      <c r="B559" s="26"/>
+      <c r="C559" s="34"/>
       <c r="D559" s="10" t="s">
         <v>1032</v>
       </c>
@@ -72038,9 +72038,9 @@
       </c>
     </row>
     <row r="560" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A560" s="41"/>
-      <c r="B560" s="36"/>
-      <c r="C560" s="30"/>
+      <c r="A560" s="37"/>
+      <c r="B560" s="26"/>
+      <c r="C560" s="35"/>
       <c r="D560" s="10" t="s">
         <v>1034</v>
       </c>
@@ -72142,8 +72142,8 @@
       </c>
     </row>
     <row r="561" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A561" s="41"/>
-      <c r="B561" s="36"/>
+      <c r="A561" s="37"/>
+      <c r="B561" s="26"/>
       <c r="C561" s="2" t="s">
         <v>79</v>
       </c>
@@ -72248,8 +72248,8 @@
       </c>
     </row>
     <row r="562" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A562" s="41"/>
-      <c r="B562" s="36"/>
+      <c r="A562" s="37"/>
+      <c r="B562" s="26"/>
       <c r="C562" s="2" t="s">
         <v>1041</v>
       </c>
@@ -72354,11 +72354,11 @@
       </c>
     </row>
     <row r="563" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A563" s="41"/>
+      <c r="A563" s="37"/>
       <c r="B563" s="25" t="s">
         <v>1044</v>
       </c>
-      <c r="C563" s="31" t="s">
+      <c r="C563" s="27" t="s">
         <v>866</v>
       </c>
       <c r="D563" s="10" t="s">
@@ -72462,9 +72462,9 @@
       </c>
     </row>
     <row r="564" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A564" s="41"/>
-      <c r="B564" s="36"/>
-      <c r="C564" s="33"/>
+      <c r="A564" s="37"/>
+      <c r="B564" s="26"/>
+      <c r="C564" s="28"/>
       <c r="D564" s="10" t="s">
         <v>1046</v>
       </c>
@@ -72566,9 +72566,9 @@
       </c>
     </row>
     <row r="565" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A565" s="41"/>
-      <c r="B565" s="36"/>
-      <c r="C565" s="33"/>
+      <c r="A565" s="37"/>
+      <c r="B565" s="26"/>
+      <c r="C565" s="28"/>
       <c r="D565" s="10" t="s">
         <v>1047</v>
       </c>
@@ -72670,9 +72670,9 @@
       </c>
     </row>
     <row r="566" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A566" s="41"/>
-      <c r="B566" s="36"/>
-      <c r="C566" s="33"/>
+      <c r="A566" s="37"/>
+      <c r="B566" s="26"/>
+      <c r="C566" s="28"/>
       <c r="D566" s="10" t="s">
         <v>1048</v>
       </c>
@@ -72774,9 +72774,9 @@
       </c>
     </row>
     <row r="567" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A567" s="41"/>
-      <c r="B567" s="36"/>
-      <c r="C567" s="33"/>
+      <c r="A567" s="37"/>
+      <c r="B567" s="26"/>
+      <c r="C567" s="28"/>
       <c r="D567" s="10" t="s">
         <v>1051</v>
       </c>
@@ -72878,9 +72878,9 @@
       </c>
     </row>
     <row r="568" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A568" s="41"/>
-      <c r="B568" s="36"/>
-      <c r="C568" s="33"/>
+      <c r="A568" s="37"/>
+      <c r="B568" s="26"/>
+      <c r="C568" s="28"/>
       <c r="D568" s="10" t="s">
         <v>1052</v>
       </c>
@@ -72982,9 +72982,9 @@
       </c>
     </row>
     <row r="569" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A569" s="41"/>
-      <c r="B569" s="36"/>
-      <c r="C569" s="32"/>
+      <c r="A569" s="37"/>
+      <c r="B569" s="26"/>
+      <c r="C569" s="29"/>
       <c r="D569" s="10" t="s">
         <v>1053</v>
       </c>
@@ -73086,8 +73086,8 @@
       </c>
     </row>
     <row r="570" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A570" s="41"/>
-      <c r="B570" s="36"/>
+      <c r="A570" s="37"/>
+      <c r="B570" s="26"/>
       <c r="C570" s="2" t="s">
         <v>989</v>
       </c>
@@ -73192,9 +73192,9 @@
       </c>
     </row>
     <row r="571" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A571" s="41"/>
-      <c r="B571" s="36"/>
-      <c r="C571" s="31" t="s">
+      <c r="A571" s="37"/>
+      <c r="B571" s="26"/>
+      <c r="C571" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D571" s="10" t="s">
@@ -73298,9 +73298,9 @@
       </c>
     </row>
     <row r="572" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A572" s="41"/>
-      <c r="B572" s="36"/>
-      <c r="C572" s="33"/>
+      <c r="A572" s="37"/>
+      <c r="B572" s="26"/>
+      <c r="C572" s="28"/>
       <c r="D572" s="10" t="s">
         <v>1061</v>
       </c>
@@ -73402,9 +73402,9 @@
       </c>
     </row>
     <row r="573" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A573" s="41"/>
-      <c r="B573" s="36"/>
-      <c r="C573" s="33"/>
+      <c r="A573" s="37"/>
+      <c r="B573" s="26"/>
+      <c r="C573" s="28"/>
       <c r="D573" s="10" t="s">
         <v>1063</v>
       </c>
@@ -73506,9 +73506,9 @@
       </c>
     </row>
     <row r="574" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A574" s="41"/>
-      <c r="B574" s="36"/>
-      <c r="C574" s="33"/>
+      <c r="A574" s="37"/>
+      <c r="B574" s="26"/>
+      <c r="C574" s="28"/>
       <c r="D574" s="10" t="s">
         <v>1066</v>
       </c>
@@ -73610,9 +73610,9 @@
       </c>
     </row>
     <row r="575" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A575" s="41"/>
-      <c r="B575" s="36"/>
-      <c r="C575" s="32"/>
+      <c r="A575" s="37"/>
+      <c r="B575" s="26"/>
+      <c r="C575" s="29"/>
       <c r="D575" s="10" t="s">
         <v>1067</v>
       </c>
@@ -73714,9 +73714,9 @@
       </c>
     </row>
     <row r="576" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A576" s="41"/>
-      <c r="B576" s="36"/>
-      <c r="C576" s="28" t="s">
+      <c r="A576" s="37"/>
+      <c r="B576" s="26"/>
+      <c r="C576" s="33" t="s">
         <v>858</v>
       </c>
       <c r="D576" s="5"/>
@@ -73754,9 +73754,9 @@
       <c r="AJ576" s="5"/>
     </row>
     <row r="577" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A577" s="41"/>
-      <c r="B577" s="36"/>
-      <c r="C577" s="29"/>
+      <c r="A577" s="37"/>
+      <c r="B577" s="26"/>
+      <c r="C577" s="34"/>
       <c r="D577" s="10" t="s">
         <v>1070</v>
       </c>
@@ -73858,9 +73858,9 @@
       </c>
     </row>
     <row r="578" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A578" s="41"/>
-      <c r="B578" s="36"/>
-      <c r="C578" s="29"/>
+      <c r="A578" s="37"/>
+      <c r="B578" s="26"/>
+      <c r="C578" s="34"/>
       <c r="D578" s="10" t="s">
         <v>1070</v>
       </c>
@@ -73962,9 +73962,9 @@
       </c>
     </row>
     <row r="579" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A579" s="41"/>
-      <c r="B579" s="36"/>
-      <c r="C579" s="29"/>
+      <c r="A579" s="37"/>
+      <c r="B579" s="26"/>
+      <c r="C579" s="34"/>
       <c r="D579" s="10" t="s">
         <v>1073</v>
       </c>
@@ -74066,9 +74066,9 @@
       </c>
     </row>
     <row r="580" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A580" s="41"/>
-      <c r="B580" s="36"/>
-      <c r="C580" s="29"/>
+      <c r="A580" s="37"/>
+      <c r="B580" s="26"/>
+      <c r="C580" s="34"/>
       <c r="D580" s="10" t="s">
         <v>1073</v>
       </c>
@@ -74170,9 +74170,9 @@
       </c>
     </row>
     <row r="581" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A581" s="41"/>
-      <c r="B581" s="36"/>
-      <c r="C581" s="29"/>
+      <c r="A581" s="37"/>
+      <c r="B581" s="26"/>
+      <c r="C581" s="34"/>
       <c r="D581" s="10" t="s">
         <v>1075</v>
       </c>
@@ -74274,9 +74274,9 @@
       </c>
     </row>
     <row r="582" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A582" s="41"/>
-      <c r="B582" s="36"/>
-      <c r="C582" s="29"/>
+      <c r="A582" s="37"/>
+      <c r="B582" s="26"/>
+      <c r="C582" s="34"/>
       <c r="D582" s="10" t="s">
         <v>1076</v>
       </c>
@@ -74378,9 +74378,9 @@
       </c>
     </row>
     <row r="583" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A583" s="41"/>
-      <c r="B583" s="36"/>
-      <c r="C583" s="29"/>
+      <c r="A583" s="37"/>
+      <c r="B583" s="26"/>
+      <c r="C583" s="34"/>
       <c r="D583" s="10" t="s">
         <v>1078</v>
       </c>
@@ -74482,9 +74482,9 @@
       </c>
     </row>
     <row r="584" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A584" s="41"/>
-      <c r="B584" s="36"/>
-      <c r="C584" s="29"/>
+      <c r="A584" s="37"/>
+      <c r="B584" s="26"/>
+      <c r="C584" s="34"/>
       <c r="D584" s="10" t="s">
         <v>1081</v>
       </c>
@@ -74586,9 +74586,9 @@
       </c>
     </row>
     <row r="585" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A585" s="41"/>
-      <c r="B585" s="36"/>
-      <c r="C585" s="29"/>
+      <c r="A585" s="37"/>
+      <c r="B585" s="26"/>
+      <c r="C585" s="34"/>
       <c r="D585" s="10" t="s">
         <v>1081</v>
       </c>
@@ -74690,9 +74690,9 @@
       </c>
     </row>
     <row r="586" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A586" s="41"/>
-      <c r="B586" s="36"/>
-      <c r="C586" s="29"/>
+      <c r="A586" s="37"/>
+      <c r="B586" s="26"/>
+      <c r="C586" s="34"/>
       <c r="D586" s="10" t="s">
         <v>1082</v>
       </c>
@@ -74794,9 +74794,9 @@
       </c>
     </row>
     <row r="587" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A587" s="41"/>
-      <c r="B587" s="36"/>
-      <c r="C587" s="29"/>
+      <c r="A587" s="37"/>
+      <c r="B587" s="26"/>
+      <c r="C587" s="34"/>
       <c r="D587" s="10" t="s">
         <v>1084</v>
       </c>
@@ -74898,9 +74898,9 @@
       </c>
     </row>
     <row r="588" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A588" s="41"/>
-      <c r="B588" s="36"/>
-      <c r="C588" s="29"/>
+      <c r="A588" s="37"/>
+      <c r="B588" s="26"/>
+      <c r="C588" s="34"/>
       <c r="D588" s="10" t="s">
         <v>1086</v>
       </c>
@@ -75002,9 +75002,9 @@
       </c>
     </row>
     <row r="589" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A589" s="41"/>
-      <c r="B589" s="36"/>
-      <c r="C589" s="30"/>
+      <c r="A589" s="37"/>
+      <c r="B589" s="26"/>
+      <c r="C589" s="35"/>
       <c r="D589" s="10" t="s">
         <v>1086</v>
       </c>
@@ -75106,9 +75106,9 @@
       </c>
     </row>
     <row r="590" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A590" s="41"/>
-      <c r="B590" s="36"/>
-      <c r="C590" s="28" t="s">
+      <c r="A590" s="37"/>
+      <c r="B590" s="26"/>
+      <c r="C590" s="33" t="s">
         <v>899</v>
       </c>
       <c r="D590" s="10" t="s">
@@ -75212,9 +75212,9 @@
       </c>
     </row>
     <row r="591" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A591" s="41"/>
-      <c r="B591" s="36"/>
-      <c r="C591" s="29"/>
+      <c r="A591" s="37"/>
+      <c r="B591" s="26"/>
+      <c r="C591" s="34"/>
       <c r="D591" s="10" t="s">
         <v>1090</v>
       </c>
@@ -75316,9 +75316,9 @@
       </c>
     </row>
     <row r="592" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A592" s="41"/>
-      <c r="B592" s="36"/>
-      <c r="C592" s="29"/>
+      <c r="A592" s="37"/>
+      <c r="B592" s="26"/>
+      <c r="C592" s="34"/>
       <c r="D592" s="10" t="s">
         <v>1092</v>
       </c>
@@ -75420,9 +75420,9 @@
       </c>
     </row>
     <row r="593" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A593" s="41"/>
-      <c r="B593" s="36"/>
-      <c r="C593" s="29"/>
+      <c r="A593" s="37"/>
+      <c r="B593" s="26"/>
+      <c r="C593" s="34"/>
       <c r="D593" s="10" t="s">
         <v>1094</v>
       </c>
@@ -75524,9 +75524,9 @@
       </c>
     </row>
     <row r="594" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A594" s="41"/>
-      <c r="B594" s="36"/>
-      <c r="C594" s="29"/>
+      <c r="A594" s="37"/>
+      <c r="B594" s="26"/>
+      <c r="C594" s="34"/>
       <c r="D594" s="10" t="s">
         <v>1095</v>
       </c>
@@ -75628,9 +75628,9 @@
       </c>
     </row>
     <row r="595" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A595" s="41"/>
-      <c r="B595" s="36"/>
-      <c r="C595" s="29"/>
+      <c r="A595" s="37"/>
+      <c r="B595" s="26"/>
+      <c r="C595" s="34"/>
       <c r="D595" s="10" t="s">
         <v>1095</v>
       </c>
@@ -75732,9 +75732,9 @@
       </c>
     </row>
     <row r="596" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A596" s="41"/>
-      <c r="B596" s="36"/>
-      <c r="C596" s="30"/>
+      <c r="A596" s="37"/>
+      <c r="B596" s="26"/>
+      <c r="C596" s="35"/>
       <c r="D596" s="10" t="s">
         <v>1100</v>
       </c>
@@ -75836,8 +75836,8 @@
       </c>
     </row>
     <row r="597" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A597" s="41"/>
-      <c r="B597" s="36"/>
+      <c r="A597" s="37"/>
+      <c r="B597" s="26"/>
       <c r="C597" s="2" t="s">
         <v>1041</v>
       </c>
@@ -75942,11 +75942,11 @@
       </c>
     </row>
     <row r="598" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A598" s="41"/>
+      <c r="A598" s="37"/>
       <c r="B598" s="25" t="s">
         <v>1104</v>
       </c>
-      <c r="C598" s="31" t="s">
+      <c r="C598" s="27" t="s">
         <v>989</v>
       </c>
       <c r="D598" s="10" t="s">
@@ -76050,9 +76050,9 @@
       </c>
     </row>
     <row r="599" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A599" s="41"/>
-      <c r="B599" s="36"/>
-      <c r="C599" s="33"/>
+      <c r="A599" s="37"/>
+      <c r="B599" s="26"/>
+      <c r="C599" s="28"/>
       <c r="D599" s="10" t="s">
         <v>1106</v>
       </c>
@@ -76154,9 +76154,9 @@
       </c>
     </row>
     <row r="600" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A600" s="41"/>
-      <c r="B600" s="36"/>
-      <c r="C600" s="33"/>
+      <c r="A600" s="37"/>
+      <c r="B600" s="26"/>
+      <c r="C600" s="28"/>
       <c r="D600" s="10" t="s">
         <v>1108</v>
       </c>
@@ -76258,9 +76258,9 @@
       </c>
     </row>
     <row r="601" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A601" s="41"/>
-      <c r="B601" s="36"/>
-      <c r="C601" s="33"/>
+      <c r="A601" s="37"/>
+      <c r="B601" s="26"/>
+      <c r="C601" s="28"/>
       <c r="D601" s="10" t="s">
         <v>1111</v>
       </c>
@@ -76362,9 +76362,9 @@
       </c>
     </row>
     <row r="602" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A602" s="41"/>
-      <c r="B602" s="36"/>
-      <c r="C602" s="33"/>
+      <c r="A602" s="37"/>
+      <c r="B602" s="26"/>
+      <c r="C602" s="28"/>
       <c r="D602" s="10" t="s">
         <v>1112</v>
       </c>
@@ -76466,9 +76466,9 @@
       </c>
     </row>
     <row r="603" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A603" s="41"/>
-      <c r="B603" s="36"/>
-      <c r="C603" s="33"/>
+      <c r="A603" s="37"/>
+      <c r="B603" s="26"/>
+      <c r="C603" s="28"/>
       <c r="D603" s="10" t="s">
         <v>1115</v>
       </c>
@@ -76570,9 +76570,9 @@
       </c>
     </row>
     <row r="604" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A604" s="41"/>
-      <c r="B604" s="36"/>
-      <c r="C604" s="33"/>
+      <c r="A604" s="37"/>
+      <c r="B604" s="26"/>
+      <c r="C604" s="28"/>
       <c r="D604" s="10" t="s">
         <v>1119</v>
       </c>
@@ -76674,9 +76674,9 @@
       </c>
     </row>
     <row r="605" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A605" s="41"/>
-      <c r="B605" s="36"/>
-      <c r="C605" s="33"/>
+      <c r="A605" s="37"/>
+      <c r="B605" s="26"/>
+      <c r="C605" s="28"/>
       <c r="D605" s="10" t="s">
         <v>1122</v>
       </c>
@@ -76778,9 +76778,9 @@
       </c>
     </row>
     <row r="606" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A606" s="41"/>
-      <c r="B606" s="36"/>
-      <c r="C606" s="33"/>
+      <c r="A606" s="37"/>
+      <c r="B606" s="26"/>
+      <c r="C606" s="28"/>
       <c r="D606" s="10" t="s">
         <v>1124</v>
       </c>
@@ -76882,9 +76882,9 @@
       </c>
     </row>
     <row r="607" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A607" s="41"/>
-      <c r="B607" s="36"/>
-      <c r="C607" s="33"/>
+      <c r="A607" s="37"/>
+      <c r="B607" s="26"/>
+      <c r="C607" s="28"/>
       <c r="D607" s="10" t="s">
         <v>1125</v>
       </c>
@@ -76986,9 +76986,9 @@
       </c>
     </row>
     <row r="608" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A608" s="41"/>
-      <c r="B608" s="36"/>
-      <c r="C608" s="33"/>
+      <c r="A608" s="37"/>
+      <c r="B608" s="26"/>
+      <c r="C608" s="28"/>
       <c r="D608" s="10" t="s">
         <v>1126</v>
       </c>
@@ -77090,9 +77090,9 @@
       </c>
     </row>
     <row r="609" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A609" s="41"/>
-      <c r="B609" s="36"/>
-      <c r="C609" s="33"/>
+      <c r="A609" s="37"/>
+      <c r="B609" s="26"/>
+      <c r="C609" s="28"/>
       <c r="D609" s="10" t="s">
         <v>1130</v>
       </c>
@@ -77194,9 +77194,9 @@
       </c>
     </row>
     <row r="610" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A610" s="41"/>
-      <c r="B610" s="36"/>
-      <c r="C610" s="33"/>
+      <c r="A610" s="37"/>
+      <c r="B610" s="26"/>
+      <c r="C610" s="28"/>
       <c r="D610" s="10" t="s">
         <v>1133</v>
       </c>
@@ -77298,9 +77298,9 @@
       </c>
     </row>
     <row r="611" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A611" s="41"/>
-      <c r="B611" s="36"/>
-      <c r="C611" s="33"/>
+      <c r="A611" s="37"/>
+      <c r="B611" s="26"/>
+      <c r="C611" s="28"/>
       <c r="D611" s="10" t="s">
         <v>1134</v>
       </c>
@@ -77402,9 +77402,9 @@
       </c>
     </row>
     <row r="612" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A612" s="41"/>
-      <c r="B612" s="36"/>
-      <c r="C612" s="33"/>
+      <c r="A612" s="37"/>
+      <c r="B612" s="26"/>
+      <c r="C612" s="28"/>
       <c r="D612" s="10" t="s">
         <v>1135</v>
       </c>
@@ -77506,9 +77506,9 @@
       </c>
     </row>
     <row r="613" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A613" s="41"/>
-      <c r="B613" s="36"/>
-      <c r="C613" s="33"/>
+      <c r="A613" s="37"/>
+      <c r="B613" s="26"/>
+      <c r="C613" s="28"/>
       <c r="D613" s="10" t="s">
         <v>1138</v>
       </c>
@@ -77610,9 +77610,9 @@
       </c>
     </row>
     <row r="614" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A614" s="41"/>
-      <c r="B614" s="36"/>
-      <c r="C614" s="33"/>
+      <c r="A614" s="37"/>
+      <c r="B614" s="26"/>
+      <c r="C614" s="28"/>
       <c r="D614" s="10" t="s">
         <v>1139</v>
       </c>
@@ -77714,9 +77714,9 @@
       </c>
     </row>
     <row r="615" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A615" s="41"/>
-      <c r="B615" s="36"/>
-      <c r="C615" s="33"/>
+      <c r="A615" s="37"/>
+      <c r="B615" s="26"/>
+      <c r="C615" s="28"/>
       <c r="D615" s="10" t="s">
         <v>1142</v>
       </c>
@@ -77818,9 +77818,9 @@
       </c>
     </row>
     <row r="616" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A616" s="41"/>
-      <c r="B616" s="36"/>
-      <c r="C616" s="32"/>
+      <c r="A616" s="37"/>
+      <c r="B616" s="26"/>
+      <c r="C616" s="29"/>
       <c r="D616" s="10" t="s">
         <v>1145</v>
       </c>
@@ -77922,9 +77922,9 @@
       </c>
     </row>
     <row r="617" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A617" s="41"/>
-      <c r="B617" s="36"/>
-      <c r="C617" s="31" t="s">
+      <c r="A617" s="37"/>
+      <c r="B617" s="26"/>
+      <c r="C617" s="27" t="s">
         <v>866</v>
       </c>
       <c r="D617" s="10" t="s">
@@ -78028,9 +78028,9 @@
       </c>
     </row>
     <row r="618" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A618" s="41"/>
-      <c r="B618" s="36"/>
-      <c r="C618" s="33"/>
+      <c r="A618" s="37"/>
+      <c r="B618" s="26"/>
+      <c r="C618" s="28"/>
       <c r="D618" s="10" t="s">
         <v>1150</v>
       </c>
@@ -78132,9 +78132,9 @@
       </c>
     </row>
     <row r="619" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A619" s="41"/>
-      <c r="B619" s="36"/>
-      <c r="C619" s="33"/>
+      <c r="A619" s="37"/>
+      <c r="B619" s="26"/>
+      <c r="C619" s="28"/>
       <c r="D619" s="10" t="s">
         <v>1154</v>
       </c>
@@ -78236,9 +78236,9 @@
       </c>
     </row>
     <row r="620" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A620" s="41"/>
-      <c r="B620" s="36"/>
-      <c r="C620" s="33"/>
+      <c r="A620" s="37"/>
+      <c r="B620" s="26"/>
+      <c r="C620" s="28"/>
       <c r="D620" s="10" t="s">
         <v>1155</v>
       </c>
@@ -78340,9 +78340,9 @@
       </c>
     </row>
     <row r="621" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A621" s="41"/>
-      <c r="B621" s="36"/>
-      <c r="C621" s="33"/>
+      <c r="A621" s="37"/>
+      <c r="B621" s="26"/>
+      <c r="C621" s="28"/>
       <c r="D621" s="10" t="s">
         <v>1160</v>
       </c>
@@ -78444,9 +78444,9 @@
       </c>
     </row>
     <row r="622" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A622" s="41"/>
-      <c r="B622" s="36"/>
-      <c r="C622" s="33"/>
+      <c r="A622" s="37"/>
+      <c r="B622" s="26"/>
+      <c r="C622" s="28"/>
       <c r="D622" s="10" t="s">
         <v>1164</v>
       </c>
@@ -78548,9 +78548,9 @@
       </c>
     </row>
     <row r="623" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A623" s="41"/>
-      <c r="B623" s="36"/>
-      <c r="C623" s="33"/>
+      <c r="A623" s="37"/>
+      <c r="B623" s="26"/>
+      <c r="C623" s="28"/>
       <c r="D623" s="10" t="s">
         <v>1168</v>
       </c>
@@ -78652,9 +78652,9 @@
       </c>
     </row>
     <row r="624" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A624" s="41"/>
-      <c r="B624" s="36"/>
-      <c r="C624" s="33"/>
+      <c r="A624" s="37"/>
+      <c r="B624" s="26"/>
+      <c r="C624" s="28"/>
       <c r="D624" s="10" t="s">
         <v>1169</v>
       </c>
@@ -78756,9 +78756,9 @@
       </c>
     </row>
     <row r="625" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A625" s="41"/>
-      <c r="B625" s="36"/>
-      <c r="C625" s="33"/>
+      <c r="A625" s="37"/>
+      <c r="B625" s="26"/>
+      <c r="C625" s="28"/>
       <c r="D625" s="10" t="s">
         <v>1170</v>
       </c>
@@ -78860,9 +78860,9 @@
       </c>
     </row>
     <row r="626" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A626" s="41"/>
-      <c r="B626" s="36"/>
-      <c r="C626" s="33"/>
+      <c r="A626" s="37"/>
+      <c r="B626" s="26"/>
+      <c r="C626" s="28"/>
       <c r="D626" s="10" t="s">
         <v>1171</v>
       </c>
@@ -78964,9 +78964,9 @@
       </c>
     </row>
     <row r="627" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A627" s="41"/>
-      <c r="B627" s="36"/>
-      <c r="C627" s="33"/>
+      <c r="A627" s="37"/>
+      <c r="B627" s="26"/>
+      <c r="C627" s="28"/>
       <c r="D627" s="10" t="s">
         <v>1172</v>
       </c>
@@ -79068,9 +79068,9 @@
       </c>
     </row>
     <row r="628" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A628" s="41"/>
-      <c r="B628" s="36"/>
-      <c r="C628" s="33"/>
+      <c r="A628" s="37"/>
+      <c r="B628" s="26"/>
+      <c r="C628" s="28"/>
       <c r="D628" s="10" t="s">
         <v>1173</v>
       </c>
@@ -79172,9 +79172,9 @@
       </c>
     </row>
     <row r="629" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A629" s="41"/>
-      <c r="B629" s="36"/>
-      <c r="C629" s="33"/>
+      <c r="A629" s="37"/>
+      <c r="B629" s="26"/>
+      <c r="C629" s="28"/>
       <c r="D629" s="10" t="s">
         <v>1174</v>
       </c>
@@ -79276,9 +79276,9 @@
       </c>
     </row>
     <row r="630" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A630" s="41"/>
-      <c r="B630" s="36"/>
-      <c r="C630" s="33"/>
+      <c r="A630" s="37"/>
+      <c r="B630" s="26"/>
+      <c r="C630" s="28"/>
       <c r="D630" s="10" t="s">
         <v>1175</v>
       </c>
@@ -79380,9 +79380,9 @@
       </c>
     </row>
     <row r="631" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A631" s="41"/>
-      <c r="B631" s="36"/>
-      <c r="C631" s="33"/>
+      <c r="A631" s="37"/>
+      <c r="B631" s="26"/>
+      <c r="C631" s="28"/>
       <c r="D631" s="10" t="s">
         <v>1176</v>
       </c>
@@ -79484,9 +79484,9 @@
       </c>
     </row>
     <row r="632" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A632" s="41"/>
-      <c r="B632" s="36"/>
-      <c r="C632" s="33"/>
+      <c r="A632" s="37"/>
+      <c r="B632" s="26"/>
+      <c r="C632" s="28"/>
       <c r="D632" s="10" t="s">
         <v>1177</v>
       </c>
@@ -79588,9 +79588,9 @@
       </c>
     </row>
     <row r="633" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A633" s="41"/>
-      <c r="B633" s="36"/>
-      <c r="C633" s="33"/>
+      <c r="A633" s="37"/>
+      <c r="B633" s="26"/>
+      <c r="C633" s="28"/>
       <c r="D633" s="10" t="s">
         <v>1178</v>
       </c>
@@ -79692,9 +79692,9 @@
       </c>
     </row>
     <row r="634" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A634" s="41"/>
-      <c r="B634" s="36"/>
-      <c r="C634" s="32"/>
+      <c r="A634" s="37"/>
+      <c r="B634" s="26"/>
+      <c r="C634" s="29"/>
       <c r="D634" s="10" t="s">
         <v>1179</v>
       </c>
@@ -79796,9 +79796,9 @@
       </c>
     </row>
     <row r="635" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A635" s="41"/>
-      <c r="B635" s="36"/>
-      <c r="C635" s="31" t="s">
+      <c r="A635" s="37"/>
+      <c r="B635" s="26"/>
+      <c r="C635" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D635" s="10" t="s">
@@ -79902,9 +79902,9 @@
       </c>
     </row>
     <row r="636" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A636" s="41"/>
-      <c r="B636" s="36"/>
-      <c r="C636" s="33"/>
+      <c r="A636" s="37"/>
+      <c r="B636" s="26"/>
+      <c r="C636" s="28"/>
       <c r="D636" s="10" t="s">
         <v>1183</v>
       </c>
@@ -80006,9 +80006,9 @@
       </c>
     </row>
     <row r="637" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A637" s="41"/>
-      <c r="B637" s="36"/>
-      <c r="C637" s="33"/>
+      <c r="A637" s="37"/>
+      <c r="B637" s="26"/>
+      <c r="C637" s="28"/>
       <c r="D637" s="10" t="s">
         <v>1186</v>
       </c>
@@ -80110,9 +80110,9 @@
       </c>
     </row>
     <row r="638" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A638" s="41"/>
-      <c r="B638" s="36"/>
-      <c r="C638" s="33"/>
+      <c r="A638" s="37"/>
+      <c r="B638" s="26"/>
+      <c r="C638" s="28"/>
       <c r="D638" s="10" t="s">
         <v>1190</v>
       </c>
@@ -80214,9 +80214,9 @@
       </c>
     </row>
     <row r="639" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A639" s="41"/>
-      <c r="B639" s="36"/>
-      <c r="C639" s="32"/>
+      <c r="A639" s="37"/>
+      <c r="B639" s="26"/>
+      <c r="C639" s="29"/>
       <c r="D639" s="10" t="s">
         <v>1192</v>
       </c>
@@ -80318,9 +80318,9 @@
       </c>
     </row>
     <row r="640" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A640" s="41"/>
-      <c r="B640" s="36"/>
-      <c r="C640" s="28" t="s">
+      <c r="A640" s="37"/>
+      <c r="B640" s="26"/>
+      <c r="C640" s="33" t="s">
         <v>899</v>
       </c>
       <c r="D640" s="10" t="s">
@@ -80424,9 +80424,9 @@
       </c>
     </row>
     <row r="641" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A641" s="41"/>
-      <c r="B641" s="36"/>
-      <c r="C641" s="29"/>
+      <c r="A641" s="37"/>
+      <c r="B641" s="26"/>
+      <c r="C641" s="34"/>
       <c r="D641" s="10" t="s">
         <v>1201</v>
       </c>
@@ -80528,9 +80528,9 @@
       </c>
     </row>
     <row r="642" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A642" s="41"/>
-      <c r="B642" s="36"/>
-      <c r="C642" s="29"/>
+      <c r="A642" s="37"/>
+      <c r="B642" s="26"/>
+      <c r="C642" s="34"/>
       <c r="D642" s="10" t="s">
         <v>1207</v>
       </c>
@@ -80632,9 +80632,9 @@
       </c>
     </row>
     <row r="643" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A643" s="41"/>
-      <c r="B643" s="36"/>
-      <c r="C643" s="29"/>
+      <c r="A643" s="37"/>
+      <c r="B643" s="26"/>
+      <c r="C643" s="34"/>
       <c r="D643" s="10" t="s">
         <v>1209</v>
       </c>
@@ -80736,9 +80736,9 @@
       </c>
     </row>
     <row r="644" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A644" s="41"/>
-      <c r="B644" s="36"/>
-      <c r="C644" s="29"/>
+      <c r="A644" s="37"/>
+      <c r="B644" s="26"/>
+      <c r="C644" s="34"/>
       <c r="D644" s="10" t="s">
         <v>1211</v>
       </c>
@@ -80840,9 +80840,9 @@
       </c>
     </row>
     <row r="645" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A645" s="41"/>
-      <c r="B645" s="36"/>
-      <c r="C645" s="29"/>
+      <c r="A645" s="37"/>
+      <c r="B645" s="26"/>
+      <c r="C645" s="34"/>
       <c r="D645" s="10" t="s">
         <v>1212</v>
       </c>
@@ -80944,9 +80944,9 @@
       </c>
     </row>
     <row r="646" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A646" s="41"/>
-      <c r="B646" s="36"/>
-      <c r="C646" s="29"/>
+      <c r="A646" s="37"/>
+      <c r="B646" s="26"/>
+      <c r="C646" s="34"/>
       <c r="D646" s="10" t="s">
         <v>1214</v>
       </c>
@@ -81048,9 +81048,9 @@
       </c>
     </row>
     <row r="647" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A647" s="41"/>
-      <c r="B647" s="36"/>
-      <c r="C647" s="29"/>
+      <c r="A647" s="37"/>
+      <c r="B647" s="26"/>
+      <c r="C647" s="34"/>
       <c r="D647" s="10" t="s">
         <v>1216</v>
       </c>
@@ -81152,9 +81152,9 @@
       </c>
     </row>
     <row r="648" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A648" s="41"/>
-      <c r="B648" s="36"/>
-      <c r="C648" s="29"/>
+      <c r="A648" s="37"/>
+      <c r="B648" s="26"/>
+      <c r="C648" s="34"/>
       <c r="D648" s="10" t="s">
         <v>1218</v>
       </c>
@@ -81256,9 +81256,9 @@
       </c>
     </row>
     <row r="649" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A649" s="41"/>
-      <c r="B649" s="36"/>
-      <c r="C649" s="29"/>
+      <c r="A649" s="37"/>
+      <c r="B649" s="26"/>
+      <c r="C649" s="34"/>
       <c r="D649" s="10" t="s">
         <v>1221</v>
       </c>
@@ -81360,9 +81360,9 @@
       </c>
     </row>
     <row r="650" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A650" s="41"/>
-      <c r="B650" s="36"/>
-      <c r="C650" s="29"/>
+      <c r="A650" s="37"/>
+      <c r="B650" s="26"/>
+      <c r="C650" s="34"/>
       <c r="D650" s="10" t="s">
         <v>1223</v>
       </c>
@@ -81464,9 +81464,9 @@
       </c>
     </row>
     <row r="651" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A651" s="41"/>
-      <c r="B651" s="36"/>
-      <c r="C651" s="29"/>
+      <c r="A651" s="37"/>
+      <c r="B651" s="26"/>
+      <c r="C651" s="34"/>
       <c r="D651" s="10" t="s">
         <v>1225</v>
       </c>
@@ -81568,9 +81568,9 @@
       </c>
     </row>
     <row r="652" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A652" s="41"/>
-      <c r="B652" s="36"/>
-      <c r="C652" s="29"/>
+      <c r="A652" s="37"/>
+      <c r="B652" s="26"/>
+      <c r="C652" s="34"/>
       <c r="D652" s="10" t="s">
         <v>1228</v>
       </c>
@@ -81672,9 +81672,9 @@
       </c>
     </row>
     <row r="653" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A653" s="41"/>
-      <c r="B653" s="36"/>
-      <c r="C653" s="29"/>
+      <c r="A653" s="37"/>
+      <c r="B653" s="26"/>
+      <c r="C653" s="34"/>
       <c r="D653" s="10" t="s">
         <v>1231</v>
       </c>
@@ -81776,9 +81776,9 @@
       </c>
     </row>
     <row r="654" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A654" s="41"/>
-      <c r="B654" s="36"/>
-      <c r="C654" s="29"/>
+      <c r="A654" s="37"/>
+      <c r="B654" s="26"/>
+      <c r="C654" s="34"/>
       <c r="D654" s="10" t="s">
         <v>1233</v>
       </c>
@@ -81880,9 +81880,9 @@
       </c>
     </row>
     <row r="655" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A655" s="41"/>
-      <c r="B655" s="36"/>
-      <c r="C655" s="29"/>
+      <c r="A655" s="37"/>
+      <c r="B655" s="26"/>
+      <c r="C655" s="34"/>
       <c r="D655" s="10" t="s">
         <v>1234</v>
       </c>
@@ -81984,9 +81984,9 @@
       </c>
     </row>
     <row r="656" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A656" s="41"/>
-      <c r="B656" s="36"/>
-      <c r="C656" s="29"/>
+      <c r="A656" s="37"/>
+      <c r="B656" s="26"/>
+      <c r="C656" s="34"/>
       <c r="D656" s="10" t="s">
         <v>1235</v>
       </c>
@@ -82088,9 +82088,9 @@
       </c>
     </row>
     <row r="657" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A657" s="41"/>
-      <c r="B657" s="36"/>
-      <c r="C657" s="29"/>
+      <c r="A657" s="37"/>
+      <c r="B657" s="26"/>
+      <c r="C657" s="34"/>
       <c r="D657" s="10" t="s">
         <v>1236</v>
       </c>
@@ -82192,9 +82192,9 @@
       </c>
     </row>
     <row r="658" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A658" s="41"/>
-      <c r="B658" s="36"/>
-      <c r="C658" s="29"/>
+      <c r="A658" s="37"/>
+      <c r="B658" s="26"/>
+      <c r="C658" s="34"/>
       <c r="D658" s="10" t="s">
         <v>1238</v>
       </c>
@@ -82296,9 +82296,9 @@
       </c>
     </row>
     <row r="659" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A659" s="41"/>
-      <c r="B659" s="36"/>
-      <c r="C659" s="29"/>
+      <c r="A659" s="37"/>
+      <c r="B659" s="26"/>
+      <c r="C659" s="34"/>
       <c r="D659" s="10" t="s">
         <v>1240</v>
       </c>
@@ -82400,9 +82400,9 @@
       </c>
     </row>
     <row r="660" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A660" s="41"/>
-      <c r="B660" s="36"/>
-      <c r="C660" s="29"/>
+      <c r="A660" s="37"/>
+      <c r="B660" s="26"/>
+      <c r="C660" s="34"/>
       <c r="D660" s="10" t="s">
         <v>1242</v>
       </c>
@@ -82504,9 +82504,9 @@
       </c>
     </row>
     <row r="661" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A661" s="41"/>
-      <c r="B661" s="36"/>
-      <c r="C661" s="29"/>
+      <c r="A661" s="37"/>
+      <c r="B661" s="26"/>
+      <c r="C661" s="34"/>
       <c r="D661" s="10" t="s">
         <v>1243</v>
       </c>
@@ -82608,9 +82608,9 @@
       </c>
     </row>
     <row r="662" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A662" s="41"/>
-      <c r="B662" s="36"/>
-      <c r="C662" s="29"/>
+      <c r="A662" s="37"/>
+      <c r="B662" s="26"/>
+      <c r="C662" s="34"/>
       <c r="D662" s="10" t="s">
         <v>1245</v>
       </c>
@@ -82712,9 +82712,9 @@
       </c>
     </row>
     <row r="663" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A663" s="41"/>
-      <c r="B663" s="36"/>
-      <c r="C663" s="29"/>
+      <c r="A663" s="37"/>
+      <c r="B663" s="26"/>
+      <c r="C663" s="34"/>
       <c r="D663" s="10" t="s">
         <v>1246</v>
       </c>
@@ -82816,9 +82816,9 @@
       </c>
     </row>
     <row r="664" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A664" s="41"/>
-      <c r="B664" s="36"/>
-      <c r="C664" s="30"/>
+      <c r="A664" s="37"/>
+      <c r="B664" s="26"/>
+      <c r="C664" s="35"/>
       <c r="D664" s="10" t="s">
         <v>1247</v>
       </c>
@@ -82920,9 +82920,9 @@
       </c>
     </row>
     <row r="665" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A665" s="41"/>
-      <c r="B665" s="36"/>
-      <c r="C665" s="28" t="s">
+      <c r="A665" s="37"/>
+      <c r="B665" s="26"/>
+      <c r="C665" s="33" t="s">
         <v>858</v>
       </c>
       <c r="D665" s="10" t="s">
@@ -83026,9 +83026,9 @@
       </c>
     </row>
     <row r="666" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A666" s="41"/>
-      <c r="B666" s="36"/>
-      <c r="C666" s="30"/>
+      <c r="A666" s="37"/>
+      <c r="B666" s="26"/>
+      <c r="C666" s="35"/>
       <c r="D666" s="10" t="s">
         <v>1250</v>
       </c>
@@ -83130,9 +83130,9 @@
       </c>
     </row>
     <row r="667" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A667" s="41"/>
-      <c r="B667" s="36"/>
-      <c r="C667" s="31" t="s">
+      <c r="A667" s="37"/>
+      <c r="B667" s="26"/>
+      <c r="C667" s="27" t="s">
         <v>890</v>
       </c>
       <c r="D667" s="5"/>
@@ -83170,9 +83170,9 @@
       <c r="AJ667" s="5"/>
     </row>
     <row r="668" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A668" s="41"/>
-      <c r="B668" s="36"/>
-      <c r="C668" s="33"/>
+      <c r="A668" s="37"/>
+      <c r="B668" s="26"/>
+      <c r="C668" s="28"/>
       <c r="D668" s="10" t="s">
         <v>1252</v>
       </c>
@@ -83274,9 +83274,9 @@
       </c>
     </row>
     <row r="669" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A669" s="41"/>
-      <c r="B669" s="36"/>
-      <c r="C669" s="33"/>
+      <c r="A669" s="37"/>
+      <c r="B669" s="26"/>
+      <c r="C669" s="28"/>
       <c r="D669" s="10" t="s">
         <v>1256</v>
       </c>
@@ -83378,9 +83378,9 @@
       </c>
     </row>
     <row r="670" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A670" s="41"/>
-      <c r="B670" s="36"/>
-      <c r="C670" s="33"/>
+      <c r="A670" s="37"/>
+      <c r="B670" s="26"/>
+      <c r="C670" s="28"/>
       <c r="D670" s="10" t="s">
         <v>1259</v>
       </c>
@@ -83482,9 +83482,9 @@
       </c>
     </row>
     <row r="671" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A671" s="41"/>
-      <c r="B671" s="36"/>
-      <c r="C671" s="33"/>
+      <c r="A671" s="37"/>
+      <c r="B671" s="26"/>
+      <c r="C671" s="28"/>
       <c r="D671" s="10" t="s">
         <v>1261</v>
       </c>
@@ -83586,9 +83586,9 @@
       </c>
     </row>
     <row r="672" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A672" s="41"/>
-      <c r="B672" s="36"/>
-      <c r="C672" s="33"/>
+      <c r="A672" s="37"/>
+      <c r="B672" s="26"/>
+      <c r="C672" s="28"/>
       <c r="D672" s="10" t="s">
         <v>1264</v>
       </c>
@@ -83690,9 +83690,9 @@
       </c>
     </row>
     <row r="673" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A673" s="41"/>
-      <c r="B673" s="36"/>
-      <c r="C673" s="33"/>
+      <c r="A673" s="37"/>
+      <c r="B673" s="26"/>
+      <c r="C673" s="28"/>
       <c r="D673" s="10" t="s">
         <v>1265</v>
       </c>
@@ -83794,9 +83794,9 @@
       </c>
     </row>
     <row r="674" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A674" s="41"/>
-      <c r="B674" s="36"/>
-      <c r="C674" s="33"/>
+      <c r="A674" s="37"/>
+      <c r="B674" s="26"/>
+      <c r="C674" s="28"/>
       <c r="D674" s="10" t="s">
         <v>1267</v>
       </c>
@@ -83898,9 +83898,9 @@
       </c>
     </row>
     <row r="675" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A675" s="41"/>
-      <c r="B675" s="36"/>
-      <c r="C675" s="33"/>
+      <c r="A675" s="37"/>
+      <c r="B675" s="26"/>
+      <c r="C675" s="28"/>
       <c r="D675" s="10" t="s">
         <v>1268</v>
       </c>
@@ -84002,9 +84002,9 @@
       </c>
     </row>
     <row r="676" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A676" s="41"/>
-      <c r="B676" s="36"/>
-      <c r="C676" s="33"/>
+      <c r="A676" s="37"/>
+      <c r="B676" s="26"/>
+      <c r="C676" s="28"/>
       <c r="D676" s="10" t="s">
         <v>1269</v>
       </c>
@@ -84106,9 +84106,9 @@
       </c>
     </row>
     <row r="677" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A677" s="41"/>
-      <c r="B677" s="36"/>
-      <c r="C677" s="33"/>
+      <c r="A677" s="37"/>
+      <c r="B677" s="26"/>
+      <c r="C677" s="28"/>
       <c r="D677" s="10" t="s">
         <v>1270</v>
       </c>
@@ -84210,9 +84210,9 @@
       </c>
     </row>
     <row r="678" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A678" s="41"/>
-      <c r="B678" s="36"/>
-      <c r="C678" s="32"/>
+      <c r="A678" s="37"/>
+      <c r="B678" s="26"/>
+      <c r="C678" s="29"/>
       <c r="D678" s="10" t="s">
         <v>1271</v>
       </c>
@@ -84314,8 +84314,8 @@
       </c>
     </row>
     <row r="679" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A679" s="41"/>
-      <c r="B679" s="36"/>
+      <c r="A679" s="37"/>
+      <c r="B679" s="26"/>
       <c r="C679" s="2" t="s">
         <v>1272</v>
       </c>
@@ -84420,9 +84420,9 @@
       </c>
     </row>
     <row r="680" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A680" s="41"/>
-      <c r="B680" s="36"/>
-      <c r="C680" s="31" t="s">
+      <c r="A680" s="37"/>
+      <c r="B680" s="26"/>
+      <c r="C680" s="27" t="s">
         <v>1041</v>
       </c>
       <c r="D680" s="5"/>
@@ -84460,9 +84460,9 @@
       <c r="AJ680" s="5"/>
     </row>
     <row r="681" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A681" s="41"/>
-      <c r="B681" s="36"/>
-      <c r="C681" s="33"/>
+      <c r="A681" s="37"/>
+      <c r="B681" s="26"/>
+      <c r="C681" s="28"/>
       <c r="D681" s="10" t="s">
         <v>1276</v>
       </c>
@@ -84564,9 +84564,9 @@
       </c>
     </row>
     <row r="682" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A682" s="41"/>
-      <c r="B682" s="36"/>
-      <c r="C682" s="33"/>
+      <c r="A682" s="37"/>
+      <c r="B682" s="26"/>
+      <c r="C682" s="28"/>
       <c r="D682" s="10" t="s">
         <v>1278</v>
       </c>
@@ -84668,9 +84668,9 @@
       </c>
     </row>
     <row r="683" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A683" s="41"/>
-      <c r="B683" s="36"/>
-      <c r="C683" s="33"/>
+      <c r="A683" s="37"/>
+      <c r="B683" s="26"/>
+      <c r="C683" s="28"/>
       <c r="D683" s="10" t="s">
         <v>1279</v>
       </c>
@@ -84772,9 +84772,9 @@
       </c>
     </row>
     <row r="684" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A684" s="41"/>
-      <c r="B684" s="36"/>
-      <c r="C684" s="33"/>
+      <c r="A684" s="37"/>
+      <c r="B684" s="26"/>
+      <c r="C684" s="28"/>
       <c r="D684" s="10" t="s">
         <v>1281</v>
       </c>
@@ -84876,9 +84876,9 @@
       </c>
     </row>
     <row r="685" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A685" s="41"/>
-      <c r="B685" s="36"/>
-      <c r="C685" s="33"/>
+      <c r="A685" s="37"/>
+      <c r="B685" s="26"/>
+      <c r="C685" s="28"/>
       <c r="D685" s="10" t="s">
         <v>1283</v>
       </c>
@@ -84980,9 +84980,9 @@
       </c>
     </row>
     <row r="686" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A686" s="41"/>
-      <c r="B686" s="36"/>
-      <c r="C686" s="33"/>
+      <c r="A686" s="37"/>
+      <c r="B686" s="26"/>
+      <c r="C686" s="28"/>
       <c r="D686" s="10" t="s">
         <v>1284</v>
       </c>
@@ -85084,9 +85084,9 @@
       </c>
     </row>
     <row r="687" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A687" s="41"/>
-      <c r="B687" s="36"/>
-      <c r="C687" s="33"/>
+      <c r="A687" s="37"/>
+      <c r="B687" s="26"/>
+      <c r="C687" s="28"/>
       <c r="D687" s="10" t="s">
         <v>1285</v>
       </c>
@@ -85188,9 +85188,9 @@
       </c>
     </row>
     <row r="688" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A688" s="41"/>
-      <c r="B688" s="36"/>
-      <c r="C688" s="32"/>
+      <c r="A688" s="37"/>
+      <c r="B688" s="26"/>
+      <c r="C688" s="29"/>
       <c r="D688" s="10" t="s">
         <v>1287</v>
       </c>
@@ -85292,13 +85292,13 @@
       </c>
     </row>
     <row r="689" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A689" s="42" t="s">
+      <c r="A689" s="31" t="s">
         <v>1288</v>
       </c>
       <c r="B689" s="25" t="s">
         <v>1289</v>
       </c>
-      <c r="C689" s="31" t="s">
+      <c r="C689" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D689" s="10" t="s">
@@ -85397,12 +85397,12 @@
       <c r="AI689" s="14">
         <v>1164</v>
       </c>
-      <c r="AJ689" s="35"/>
+      <c r="AJ689" s="30"/>
     </row>
     <row r="690" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A690" s="43"/>
-      <c r="B690" s="36"/>
-      <c r="C690" s="32"/>
+      <c r="A690" s="32"/>
+      <c r="B690" s="26"/>
+      <c r="C690" s="29"/>
       <c r="D690" s="10" t="s">
         <v>1293</v>
       </c>
@@ -85499,12 +85499,12 @@
       <c r="AI690" s="16">
         <v>113</v>
       </c>
-      <c r="AJ690" s="35"/>
+      <c r="AJ690" s="30"/>
     </row>
     <row r="691" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A691" s="43"/>
-      <c r="B691" s="36"/>
-      <c r="C691" s="28" t="s">
+      <c r="A691" s="32"/>
+      <c r="B691" s="26"/>
+      <c r="C691" s="33" t="s">
         <v>421</v>
       </c>
       <c r="D691" s="10" t="s">
@@ -85603,12 +85603,12 @@
       <c r="AI691" s="16">
         <v>717</v>
       </c>
-      <c r="AJ691" s="35"/>
+      <c r="AJ691" s="30"/>
     </row>
     <row r="692" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A692" s="43"/>
-      <c r="B692" s="36"/>
-      <c r="C692" s="29"/>
+      <c r="A692" s="32"/>
+      <c r="B692" s="26"/>
+      <c r="C692" s="34"/>
       <c r="D692" s="10" t="s">
         <v>1296</v>
       </c>
@@ -85705,12 +85705,12 @@
       <c r="AI692" s="16">
         <v>611</v>
       </c>
-      <c r="AJ692" s="35"/>
+      <c r="AJ692" s="30"/>
     </row>
     <row r="693" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A693" s="43"/>
-      <c r="B693" s="36"/>
-      <c r="C693" s="29"/>
+      <c r="A693" s="32"/>
+      <c r="B693" s="26"/>
+      <c r="C693" s="34"/>
       <c r="D693" s="10" t="s">
         <v>1298</v>
       </c>
@@ -85807,12 +85807,12 @@
       <c r="AI693" s="14">
         <v>2560</v>
       </c>
-      <c r="AJ693" s="35"/>
+      <c r="AJ693" s="30"/>
     </row>
     <row r="694" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A694" s="43"/>
-      <c r="B694" s="36"/>
-      <c r="C694" s="30"/>
+      <c r="A694" s="32"/>
+      <c r="B694" s="26"/>
+      <c r="C694" s="35"/>
       <c r="D694" s="10" t="s">
         <v>1300</v>
       </c>
@@ -85909,12 +85909,12 @@
       <c r="AI694" s="14">
         <v>2834</v>
       </c>
-      <c r="AJ694" s="35"/>
+      <c r="AJ694" s="30"/>
     </row>
     <row r="695" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A695" s="43"/>
-      <c r="B695" s="36"/>
-      <c r="C695" s="31" t="s">
+      <c r="A695" s="32"/>
+      <c r="B695" s="26"/>
+      <c r="C695" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D695" s="5"/>
@@ -85949,12 +85949,12 @@
       <c r="AG695" s="5"/>
       <c r="AH695" s="5"/>
       <c r="AI695" s="5"/>
-      <c r="AJ695" s="35"/>
+      <c r="AJ695" s="30"/>
     </row>
     <row r="696" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A696" s="43"/>
-      <c r="B696" s="36"/>
-      <c r="C696" s="33"/>
+      <c r="A696" s="32"/>
+      <c r="B696" s="26"/>
+      <c r="C696" s="28"/>
       <c r="D696" s="10" t="s">
         <v>1301</v>
       </c>
@@ -86051,12 +86051,12 @@
       <c r="AI696" s="14">
         <v>14957</v>
       </c>
-      <c r="AJ696" s="35"/>
+      <c r="AJ696" s="30"/>
     </row>
     <row r="697" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A697" s="43"/>
-      <c r="B697" s="36"/>
-      <c r="C697" s="33"/>
+      <c r="A697" s="32"/>
+      <c r="B697" s="26"/>
+      <c r="C697" s="28"/>
       <c r="D697" s="10" t="s">
         <v>1302</v>
       </c>
@@ -86153,12 +86153,12 @@
       <c r="AI697" s="16">
         <v>166</v>
       </c>
-      <c r="AJ697" s="35"/>
+      <c r="AJ697" s="30"/>
     </row>
     <row r="698" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A698" s="43"/>
-      <c r="B698" s="36"/>
-      <c r="C698" s="32"/>
+      <c r="A698" s="32"/>
+      <c r="B698" s="26"/>
+      <c r="C698" s="29"/>
       <c r="D698" s="10" t="s">
         <v>1304</v>
       </c>
@@ -86255,16 +86255,16 @@
       <c r="AI698" s="14">
         <v>2560</v>
       </c>
-      <c r="AJ698" s="35"/>
+      <c r="AJ698" s="30"/>
     </row>
     <row r="699" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A699" s="44" t="s">
+      <c r="A699" s="23" t="s">
         <v>1305</v>
       </c>
       <c r="B699" s="25" t="s">
         <v>1306</v>
       </c>
-      <c r="C699" s="31" t="s">
+      <c r="C699" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D699" s="10" t="s">
@@ -86368,9 +86368,9 @@
       </c>
     </row>
     <row r="700" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A700" s="45"/>
-      <c r="B700" s="36"/>
-      <c r="C700" s="33"/>
+      <c r="A700" s="24"/>
+      <c r="B700" s="26"/>
+      <c r="C700" s="28"/>
       <c r="D700" s="10" t="s">
         <v>1309</v>
       </c>
@@ -86472,9 +86472,9 @@
       </c>
     </row>
     <row r="701" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A701" s="45"/>
-      <c r="B701" s="36"/>
-      <c r="C701" s="33"/>
+      <c r="A701" s="24"/>
+      <c r="B701" s="26"/>
+      <c r="C701" s="28"/>
       <c r="D701" s="10" t="s">
         <v>1310</v>
       </c>
@@ -86576,9 +86576,9 @@
       </c>
     </row>
     <row r="702" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A702" s="45"/>
-      <c r="B702" s="36"/>
-      <c r="C702" s="33"/>
+      <c r="A702" s="24"/>
+      <c r="B702" s="26"/>
+      <c r="C702" s="28"/>
       <c r="D702" s="10" t="s">
         <v>1311</v>
       </c>
@@ -86680,9 +86680,9 @@
       </c>
     </row>
     <row r="703" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A703" s="45"/>
-      <c r="B703" s="36"/>
-      <c r="C703" s="33"/>
+      <c r="A703" s="24"/>
+      <c r="B703" s="26"/>
+      <c r="C703" s="28"/>
       <c r="D703" s="10" t="s">
         <v>1312</v>
       </c>
@@ -86784,9 +86784,9 @@
       </c>
     </row>
     <row r="704" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A704" s="45"/>
-      <c r="B704" s="36"/>
-      <c r="C704" s="33"/>
+      <c r="A704" s="24"/>
+      <c r="B704" s="26"/>
+      <c r="C704" s="28"/>
       <c r="D704" s="10" t="s">
         <v>1313</v>
       </c>
@@ -86888,9 +86888,9 @@
       </c>
     </row>
     <row r="705" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A705" s="45"/>
-      <c r="B705" s="36"/>
-      <c r="C705" s="33"/>
+      <c r="A705" s="24"/>
+      <c r="B705" s="26"/>
+      <c r="C705" s="28"/>
       <c r="D705" s="10" t="s">
         <v>1314</v>
       </c>
@@ -86992,9 +86992,9 @@
       </c>
     </row>
     <row r="706" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A706" s="45"/>
-      <c r="B706" s="36"/>
-      <c r="C706" s="33"/>
+      <c r="A706" s="24"/>
+      <c r="B706" s="26"/>
+      <c r="C706" s="28"/>
       <c r="D706" s="10" t="s">
         <v>1315</v>
       </c>
@@ -87096,9 +87096,9 @@
       </c>
     </row>
     <row r="707" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A707" s="45"/>
-      <c r="B707" s="36"/>
-      <c r="C707" s="33"/>
+      <c r="A707" s="24"/>
+      <c r="B707" s="26"/>
+      <c r="C707" s="28"/>
       <c r="D707" s="10" t="s">
         <v>1317</v>
       </c>
@@ -87200,9 +87200,9 @@
       </c>
     </row>
     <row r="708" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A708" s="45"/>
-      <c r="B708" s="36"/>
-      <c r="C708" s="33"/>
+      <c r="A708" s="24"/>
+      <c r="B708" s="26"/>
+      <c r="C708" s="28"/>
       <c r="D708" s="10" t="s">
         <v>1318</v>
       </c>
@@ -87304,9 +87304,9 @@
       </c>
     </row>
     <row r="709" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A709" s="45"/>
-      <c r="B709" s="36"/>
-      <c r="C709" s="33"/>
+      <c r="A709" s="24"/>
+      <c r="B709" s="26"/>
+      <c r="C709" s="28"/>
       <c r="D709" s="10" t="s">
         <v>1319</v>
       </c>
@@ -87408,9 +87408,9 @@
       </c>
     </row>
     <row r="710" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A710" s="45"/>
-      <c r="B710" s="36"/>
-      <c r="C710" s="33"/>
+      <c r="A710" s="24"/>
+      <c r="B710" s="26"/>
+      <c r="C710" s="28"/>
       <c r="D710" s="10" t="s">
         <v>1320</v>
       </c>
@@ -87512,9 +87512,9 @@
       </c>
     </row>
     <row r="711" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A711" s="45"/>
-      <c r="B711" s="36"/>
-      <c r="C711" s="33"/>
+      <c r="A711" s="24"/>
+      <c r="B711" s="26"/>
+      <c r="C711" s="28"/>
       <c r="D711" s="10" t="s">
         <v>1323</v>
       </c>
@@ -87616,9 +87616,9 @@
       </c>
     </row>
     <row r="712" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A712" s="45"/>
-      <c r="B712" s="36"/>
-      <c r="C712" s="33"/>
+      <c r="A712" s="24"/>
+      <c r="B712" s="26"/>
+      <c r="C712" s="28"/>
       <c r="D712" s="10" t="s">
         <v>1325</v>
       </c>
@@ -87720,9 +87720,9 @@
       </c>
     </row>
     <row r="713" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A713" s="45"/>
-      <c r="B713" s="36"/>
-      <c r="C713" s="32"/>
+      <c r="A713" s="24"/>
+      <c r="B713" s="26"/>
+      <c r="C713" s="29"/>
       <c r="D713" s="10" t="s">
         <v>1326</v>
       </c>
@@ -87824,9 +87824,9 @@
       </c>
     </row>
     <row r="714" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A714" s="45"/>
-      <c r="B714" s="36"/>
-      <c r="C714" s="31" t="s">
+      <c r="A714" s="24"/>
+      <c r="B714" s="26"/>
+      <c r="C714" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D714" s="10" t="s">
@@ -87930,9 +87930,9 @@
       </c>
     </row>
     <row r="715" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A715" s="45"/>
-      <c r="B715" s="36"/>
-      <c r="C715" s="33"/>
+      <c r="A715" s="24"/>
+      <c r="B715" s="26"/>
+      <c r="C715" s="28"/>
       <c r="D715" s="10" t="s">
         <v>1328</v>
       </c>
@@ -88034,9 +88034,9 @@
       </c>
     </row>
     <row r="716" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A716" s="45"/>
-      <c r="B716" s="36"/>
-      <c r="C716" s="32"/>
+      <c r="A716" s="24"/>
+      <c r="B716" s="26"/>
+      <c r="C716" s="29"/>
       <c r="D716" s="10" t="s">
         <v>1328</v>
       </c>
@@ -88138,9 +88138,9 @@
       </c>
     </row>
     <row r="717" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A717" s="45"/>
-      <c r="B717" s="36"/>
-      <c r="C717" s="31" t="s">
+      <c r="A717" s="24"/>
+      <c r="B717" s="26"/>
+      <c r="C717" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D717" s="10" t="s">
@@ -88244,9 +88244,9 @@
       </c>
     </row>
     <row r="718" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A718" s="45"/>
-      <c r="B718" s="36"/>
-      <c r="C718" s="33"/>
+      <c r="A718" s="24"/>
+      <c r="B718" s="26"/>
+      <c r="C718" s="28"/>
       <c r="D718" s="10" t="s">
         <v>1332</v>
       </c>
@@ -88348,9 +88348,9 @@
       </c>
     </row>
     <row r="719" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A719" s="45"/>
-      <c r="B719" s="36"/>
-      <c r="C719" s="33"/>
+      <c r="A719" s="24"/>
+      <c r="B719" s="26"/>
+      <c r="C719" s="28"/>
       <c r="D719" s="10" t="s">
         <v>1333</v>
       </c>
@@ -88452,9 +88452,9 @@
       </c>
     </row>
     <row r="720" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A720" s="45"/>
-      <c r="B720" s="36"/>
-      <c r="C720" s="33"/>
+      <c r="A720" s="24"/>
+      <c r="B720" s="26"/>
+      <c r="C720" s="28"/>
       <c r="D720" s="10" t="s">
         <v>1334</v>
       </c>
@@ -88556,9 +88556,9 @@
       </c>
     </row>
     <row r="721" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A721" s="45"/>
-      <c r="B721" s="36"/>
-      <c r="C721" s="33"/>
+      <c r="A721" s="24"/>
+      <c r="B721" s="26"/>
+      <c r="C721" s="28"/>
       <c r="D721" s="10" t="s">
         <v>1336</v>
       </c>
@@ -88660,9 +88660,9 @@
       </c>
     </row>
     <row r="722" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A722" s="45"/>
-      <c r="B722" s="36"/>
-      <c r="C722" s="33"/>
+      <c r="A722" s="24"/>
+      <c r="B722" s="26"/>
+      <c r="C722" s="28"/>
       <c r="D722" s="10" t="s">
         <v>1337</v>
       </c>
@@ -88764,9 +88764,9 @@
       </c>
     </row>
     <row r="723" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A723" s="45"/>
-      <c r="B723" s="36"/>
-      <c r="C723" s="33"/>
+      <c r="A723" s="24"/>
+      <c r="B723" s="26"/>
+      <c r="C723" s="28"/>
       <c r="D723" s="10" t="s">
         <v>1338</v>
       </c>
@@ -88868,9 +88868,9 @@
       </c>
     </row>
     <row r="724" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A724" s="45"/>
-      <c r="B724" s="36"/>
-      <c r="C724" s="33"/>
+      <c r="A724" s="24"/>
+      <c r="B724" s="26"/>
+      <c r="C724" s="28"/>
       <c r="D724" s="10" t="s">
         <v>1339</v>
       </c>
@@ -88972,9 +88972,9 @@
       </c>
     </row>
     <row r="725" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A725" s="45"/>
-      <c r="B725" s="36"/>
-      <c r="C725" s="33"/>
+      <c r="A725" s="24"/>
+      <c r="B725" s="26"/>
+      <c r="C725" s="28"/>
       <c r="D725" s="10" t="s">
         <v>1340</v>
       </c>
@@ -89076,9 +89076,9 @@
       </c>
     </row>
     <row r="726" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A726" s="45"/>
-      <c r="B726" s="36"/>
-      <c r="C726" s="33"/>
+      <c r="A726" s="24"/>
+      <c r="B726" s="26"/>
+      <c r="C726" s="28"/>
       <c r="D726" s="10" t="s">
         <v>1341</v>
       </c>
@@ -89180,9 +89180,9 @@
       </c>
     </row>
     <row r="727" spans="1:36" ht="5.25" customHeight="1">
-      <c r="A727" s="45"/>
-      <c r="B727" s="36"/>
-      <c r="C727" s="32"/>
+      <c r="A727" s="24"/>
+      <c r="B727" s="26"/>
+      <c r="C727" s="29"/>
       <c r="D727" s="10" t="s">
         <v>1342</v>
       </c>
@@ -89285,55 +89285,64 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A699:A727"/>
-    <mergeCell ref="B699:B727"/>
-    <mergeCell ref="C699:C713"/>
-    <mergeCell ref="C714:C716"/>
-    <mergeCell ref="C717:C727"/>
-    <mergeCell ref="AJ689:AJ698"/>
-    <mergeCell ref="A689:A698"/>
-    <mergeCell ref="B689:B698"/>
-    <mergeCell ref="C689:C690"/>
-    <mergeCell ref="C691:C694"/>
-    <mergeCell ref="C695:C698"/>
-    <mergeCell ref="C680:C688"/>
-    <mergeCell ref="A533:A688"/>
-    <mergeCell ref="B533:B562"/>
-    <mergeCell ref="C534:C540"/>
-    <mergeCell ref="C541:C545"/>
-    <mergeCell ref="C546:C560"/>
-    <mergeCell ref="B563:B597"/>
-    <mergeCell ref="C563:C569"/>
-    <mergeCell ref="C571:C575"/>
-    <mergeCell ref="C576:C589"/>
-    <mergeCell ref="C590:C596"/>
-    <mergeCell ref="B598:B688"/>
-    <mergeCell ref="C598:C616"/>
-    <mergeCell ref="C617:C634"/>
-    <mergeCell ref="C635:C639"/>
-    <mergeCell ref="C640:C664"/>
-    <mergeCell ref="C665:C666"/>
-    <mergeCell ref="C667:C678"/>
-    <mergeCell ref="A501:A532"/>
-    <mergeCell ref="B501:B532"/>
-    <mergeCell ref="C501:C506"/>
-    <mergeCell ref="C507:C509"/>
-    <mergeCell ref="C510:C511"/>
-    <mergeCell ref="C512:C517"/>
-    <mergeCell ref="C518:C520"/>
-    <mergeCell ref="C522:C524"/>
-    <mergeCell ref="C525:C531"/>
-    <mergeCell ref="C499:C500"/>
-    <mergeCell ref="A476:A500"/>
-    <mergeCell ref="B476:B485"/>
-    <mergeCell ref="C476:C478"/>
-    <mergeCell ref="C479:C482"/>
-    <mergeCell ref="C483:C484"/>
-    <mergeCell ref="B486:B498"/>
-    <mergeCell ref="C486:C488"/>
-    <mergeCell ref="C489:C490"/>
-    <mergeCell ref="C491:C498"/>
-    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A2:A80"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B19:B74"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C42"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A81:A316"/>
+    <mergeCell ref="B81:B316"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="C89:C119"/>
+    <mergeCell ref="C120:C128"/>
+    <mergeCell ref="C130:C156"/>
+    <mergeCell ref="C158:C184"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="C191:C202"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C207:C216"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="C230:C255"/>
+    <mergeCell ref="C256:C293"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="C296:C316"/>
+    <mergeCell ref="B402:B411"/>
+    <mergeCell ref="C403:C407"/>
+    <mergeCell ref="C408:C411"/>
+    <mergeCell ref="A317:A411"/>
+    <mergeCell ref="B317:B401"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="C325:C334"/>
+    <mergeCell ref="C335:C337"/>
+    <mergeCell ref="C338:C346"/>
+    <mergeCell ref="C347:C353"/>
+    <mergeCell ref="C354:C358"/>
+    <mergeCell ref="C359:C364"/>
+    <mergeCell ref="C365:C369"/>
+    <mergeCell ref="C371:C373"/>
+    <mergeCell ref="C374:C399"/>
+    <mergeCell ref="C400:C401"/>
     <mergeCell ref="C456:C463"/>
     <mergeCell ref="B464:B475"/>
     <mergeCell ref="C464:C465"/>
@@ -89353,64 +89362,55 @@
     <mergeCell ref="C439:C440"/>
     <mergeCell ref="C441:C450"/>
     <mergeCell ref="C452:C455"/>
-    <mergeCell ref="B402:B411"/>
-    <mergeCell ref="C403:C407"/>
-    <mergeCell ref="C408:C411"/>
-    <mergeCell ref="A317:A411"/>
-    <mergeCell ref="B317:B401"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="C322:C324"/>
-    <mergeCell ref="C325:C334"/>
-    <mergeCell ref="C335:C337"/>
-    <mergeCell ref="C338:C346"/>
-    <mergeCell ref="C347:C353"/>
-    <mergeCell ref="C354:C358"/>
-    <mergeCell ref="C359:C364"/>
-    <mergeCell ref="C365:C369"/>
-    <mergeCell ref="C371:C373"/>
-    <mergeCell ref="C374:C399"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="A81:A316"/>
-    <mergeCell ref="B81:B316"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="C89:C119"/>
-    <mergeCell ref="C120:C128"/>
-    <mergeCell ref="C130:C156"/>
-    <mergeCell ref="C158:C184"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="C191:C202"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C207:C216"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="C220:C227"/>
-    <mergeCell ref="C230:C255"/>
-    <mergeCell ref="C256:C293"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="C296:C316"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A2:A80"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B19:B74"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C42"/>
-    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C499:C500"/>
+    <mergeCell ref="A476:A500"/>
+    <mergeCell ref="B476:B485"/>
+    <mergeCell ref="C476:C478"/>
+    <mergeCell ref="C479:C482"/>
+    <mergeCell ref="C483:C484"/>
+    <mergeCell ref="B486:B498"/>
+    <mergeCell ref="C486:C488"/>
+    <mergeCell ref="C489:C490"/>
+    <mergeCell ref="C491:C498"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="A501:A532"/>
+    <mergeCell ref="B501:B532"/>
+    <mergeCell ref="C501:C506"/>
+    <mergeCell ref="C507:C509"/>
+    <mergeCell ref="C510:C511"/>
+    <mergeCell ref="C512:C517"/>
+    <mergeCell ref="C518:C520"/>
+    <mergeCell ref="C522:C524"/>
+    <mergeCell ref="C525:C531"/>
+    <mergeCell ref="C680:C688"/>
+    <mergeCell ref="A533:A688"/>
+    <mergeCell ref="B533:B562"/>
+    <mergeCell ref="C534:C540"/>
+    <mergeCell ref="C541:C545"/>
+    <mergeCell ref="C546:C560"/>
+    <mergeCell ref="B563:B597"/>
+    <mergeCell ref="C563:C569"/>
+    <mergeCell ref="C571:C575"/>
+    <mergeCell ref="C576:C589"/>
+    <mergeCell ref="C590:C596"/>
+    <mergeCell ref="B598:B688"/>
+    <mergeCell ref="C598:C616"/>
+    <mergeCell ref="C617:C634"/>
+    <mergeCell ref="C635:C639"/>
+    <mergeCell ref="C640:C664"/>
+    <mergeCell ref="C665:C666"/>
+    <mergeCell ref="C667:C678"/>
+    <mergeCell ref="A699:A727"/>
+    <mergeCell ref="B699:B727"/>
+    <mergeCell ref="C699:C713"/>
+    <mergeCell ref="C714:C716"/>
+    <mergeCell ref="C717:C727"/>
+    <mergeCell ref="AJ689:AJ698"/>
+    <mergeCell ref="A689:A698"/>
+    <mergeCell ref="B689:B698"/>
+    <mergeCell ref="C689:C690"/>
+    <mergeCell ref="C691:C694"/>
+    <mergeCell ref="C695:C698"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
